--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\Gamelab-Jaar3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="211">
   <si>
     <t>Probation Area</t>
   </si>
@@ -450,6 +450,213 @@
   </si>
   <si>
     <t>Quinten</t>
+  </si>
+  <si>
+    <t>Survey paper</t>
+  </si>
+  <si>
+    <t>3D_ENV_CLASS_SurveyPaper</t>
+  </si>
+  <si>
+    <t>Ladder</t>
+  </si>
+  <si>
+    <t>3D_ENV_STOR_Ladder</t>
+  </si>
+  <si>
+    <t>Notebook of past client</t>
+  </si>
+  <si>
+    <t>Client 3 headphones</t>
+  </si>
+  <si>
+    <t>3D_ENV_ITEM_Notebook</t>
+  </si>
+  <si>
+    <t>Toxic chemical set</t>
+  </si>
+  <si>
+    <t>3D_ENV_LAB_ChemSet</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Assistant 1 picture</t>
+  </si>
+  <si>
+    <t>3D_ENV_Picture</t>
+  </si>
+  <si>
+    <t>Cardbord box</t>
+  </si>
+  <si>
+    <t>3D_ENV_STOR_Box</t>
+  </si>
+  <si>
+    <t>3D_ENV_SOL_Room</t>
+  </si>
+  <si>
+    <t>Tree's</t>
+  </si>
+  <si>
+    <t>Bushes</t>
+  </si>
+  <si>
+    <t>Stone's</t>
+  </si>
+  <si>
+    <t>Flower's</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Tree</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Bushes</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Flower</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Stone</t>
+  </si>
+  <si>
+    <t>Chess</t>
+  </si>
+  <si>
+    <t>Pool table</t>
+  </si>
+  <si>
+    <t>Dart bord</t>
+  </si>
+  <si>
+    <t>Plastic arrows</t>
+  </si>
+  <si>
+    <t>3D_ENV_REC_Chess</t>
+  </si>
+  <si>
+    <t>3D_ENV_REC_Pooltable</t>
+  </si>
+  <si>
+    <t>3D_ENV_REC_DartBord</t>
+  </si>
+  <si>
+    <t>Pool ball etc inclused</t>
+  </si>
+  <si>
+    <t>Floor modulair piece</t>
+  </si>
+  <si>
+    <t>Ceiling modulair piece</t>
+  </si>
+  <si>
+    <t>Wall modulair piece</t>
+  </si>
+  <si>
+    <t>Texture for each area</t>
+  </si>
+  <si>
+    <t>3D_ENV_HALL_Floor</t>
+  </si>
+  <si>
+    <t>3D_ENV_HALL_Ceiling</t>
+  </si>
+  <si>
+    <t>3D_ENV_HALL_Wall</t>
+  </si>
+  <si>
+    <t>Client Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_CC_Room</t>
+  </si>
+  <si>
+    <t>Canteen room</t>
+  </si>
+  <si>
+    <t>3D_ENV_CANT_Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_REC_Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_CLASS_Room</t>
+  </si>
+  <si>
+    <t>Storage room</t>
+  </si>
+  <si>
+    <t>3D_ENV_STOR_Room</t>
+  </si>
+  <si>
+    <t>Solitary room</t>
+  </si>
+  <si>
+    <t>3D_ENV_STAFF_Room</t>
+  </si>
+  <si>
+    <t>Kitchen room</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_Room</t>
+  </si>
+  <si>
+    <t>Infirmary room</t>
+  </si>
+  <si>
+    <t>3D_ENV_INF_Room</t>
+  </si>
+  <si>
+    <t>Morgue room</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_SEC_Room</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_Room</t>
+  </si>
+  <si>
+    <t>Director room</t>
+  </si>
+  <si>
+    <t>3D_ITEM_INC_Headphones</t>
+  </si>
+  <si>
+    <t>Incinerator room</t>
+  </si>
+  <si>
+    <t>3D_ENV_INC_Room</t>
+  </si>
+  <si>
+    <t>Laboratory room</t>
+  </si>
+  <si>
+    <t>3D_ENV_LAB_Room</t>
+  </si>
+  <si>
+    <t>AI room</t>
+  </si>
+  <si>
+    <t>3D_ENV_AI_room</t>
+  </si>
+  <si>
+    <t>Library room</t>
+  </si>
+  <si>
+    <t>3D_ENV_LIB_Room</t>
+  </si>
+  <si>
+    <t>Observatory room</t>
+  </si>
+  <si>
+    <t>3D_ENV_OBS_Room</t>
   </si>
 </sst>
 </file>
@@ -651,7 +858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -682,8 +889,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -998,17 +1206,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -1051,13 +1259,13 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -1074,22 +1282,20 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1105,17 +1311,17 @@
       <c r="A5" s="20"/>
       <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1132,17 +1338,17 @@
       <c r="A6" s="20"/>
       <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1159,17 +1365,17 @@
       <c r="A7" s="20"/>
       <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1185,18 +1391,18 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="9" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1213,17 +1419,17 @@
       <c r="A9" s="20"/>
       <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="9" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1240,17 +1446,17 @@
       <c r="A10" s="20"/>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="9" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1267,17 +1473,17 @@
       <c r="A11" s="20"/>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1294,17 +1500,17 @@
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="9" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1321,16 +1527,18 @@
       <c r="A13" s="20"/>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1346,15 +1554,13 @@
       <c r="A14" s="20"/>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1373,13 +1579,15 @@
       <c r="A15" s="20"/>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1398,13 +1606,13 @@
       <c r="A16" s="20"/>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1423,13 +1631,13 @@
       <c r="A17" s="20"/>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1448,10 +1656,10 @@
       <c r="A18" s="20"/>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="5"/>
@@ -1473,14 +1681,12 @@
       <c r="A19" s="20"/>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="5"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1500,10 +1706,10 @@
       <c r="A20" s="20"/>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>141</v>
@@ -1527,10 +1733,10 @@
       <c r="A21" s="20"/>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>141</v>
@@ -1554,10 +1760,10 @@
       <c r="A22" s="20"/>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>141</v>
@@ -1581,12 +1787,14 @@
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1606,10 +1814,10 @@
       <c r="A24" s="20"/>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="5"/>
@@ -1631,10 +1839,10 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="5"/>
@@ -1656,10 +1864,10 @@
       <c r="A26" s="20"/>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="5"/>
@@ -1681,10 +1889,10 @@
       <c r="A27" s="20"/>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="5"/>
@@ -1706,10 +1914,10 @@
       <c r="A28" s="20"/>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
@@ -1731,13 +1939,13 @@
       <c r="A29" s="20"/>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1756,7 +1964,7 @@
       <c r="A30" s="20"/>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1781,7 +1989,7 @@
       <c r="A31" s="20"/>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1806,13 +2014,13 @@
       <c r="A32" s="20"/>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1827,17 +2035,17 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1852,15 +2060,17 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
-      <c r="B34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1875,17 +2085,15 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1900,17 +2108,17 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1929,12 +2137,12 @@
       <c r="A37" s="20"/>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1954,7 +2162,7 @@
       <c r="A38" s="20"/>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1979,12 +2187,12 @@
       <c r="A39" s="20"/>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="5"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2000,17 +2208,17 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -2027,13 +2235,15 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
-      <c r="B41" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2048,13 +2258,17 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="5"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2071,11 +2285,13 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="5"/>
+      <c r="B43" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2090,13 +2306,17 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2113,13 +2333,15 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
-      <c r="B45" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="4"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2137,10 +2359,16 @@
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="23"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2155,13 +2383,19 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="5"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -2176,13 +2410,15 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -2199,13 +2435,15 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
-      <c r="B49" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2223,8 +2461,12 @@
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
       <c r="G50" s="2"/>
@@ -2244,8 +2486,12 @@
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="5"/>
       <c r="G51" s="2"/>
@@ -2262,13 +2508,17 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2283,15 +2533,17 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
-      <c r="B53" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2308,11 +2560,13 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5"/>
+      <c r="B54" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -2330,8 +2584,12 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="C55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="5"/>
       <c r="G55" s="2"/>
@@ -2348,13 +2606,17 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2371,13 +2633,15 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2392,13 +2656,17 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2413,13 +2681,15 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="5"/>
+      <c r="B59" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -2434,15 +2704,17 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9"/>
-      <c r="B60" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -2458,13 +2730,13 @@
       <c r="S60" s="2"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="23"/>
       <c r="C61" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="5"/>
@@ -2483,13 +2755,13 @@
       <c r="S61" s="2"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="23"/>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="5"/>
@@ -2508,16 +2780,16 @@
       <c r="S62" s="2"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="2"/>
+      <c r="C63" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2532,15 +2804,11 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
       <c r="B64" s="23"/>
-      <c r="C64" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="5"/>
       <c r="G64" s="2"/>
@@ -2558,16 +2826,14 @@
       <c r="S64" s="2"/>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="5"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -2583,12 +2849,16 @@
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="8"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -2605,11 +2875,13 @@
     </row>
     <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -2624,158 +2896,301 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2" t="s">
-        <v>137</v>
+      <c r="F70" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="5"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="5"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="5"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>179</v>
+      </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="8"/>
+      <c r="F75" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="5"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>89</v>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="5"/>
@@ -2783,93 +3198,91 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="B85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
-      <c r="B89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="4"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="5"/>
@@ -2878,10 +3291,10 @@
       <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="5"/>
@@ -2890,106 +3303,116 @@
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E93" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
-      <c r="B97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="8"/>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
-      <c r="B100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="5"/>
@@ -2998,235 +3421,409 @@
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="9"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="14"/>
-      <c r="B107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="5"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
+      <c r="B108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="5"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A110" s="14"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="4"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="8"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
-      <c r="B115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="4"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="C116" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
-      <c r="B118" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="4"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="B123" s="23"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="15"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="26"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="18"/>
+      <c r="A124" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
+      <c r="A125" s="14"/>
+      <c r="B125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="14"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="14"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="22"/>
+      <c r="B135" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="21"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="31"/>
+      <c r="B140" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="29"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="21"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
   <si>
     <t>Probation Area</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Morgue</t>
   </si>
   <si>
-    <t>Security room</t>
-  </si>
-  <si>
     <t>Director's office</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>Monitor</t>
   </si>
   <si>
-    <t>3D_ENV_OFF_PC</t>
-  </si>
-  <si>
     <t>3D_ENV_OFF_Mic</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>3D_ENV_MORG_CorpseBeds</t>
   </si>
   <si>
-    <t>Shower cabin Door and lid</t>
-  </si>
-  <si>
     <t>Infuser</t>
   </si>
   <si>
@@ -617,9 +608,6 @@
     <t>3D_ENV_MORG_Room</t>
   </si>
   <si>
-    <t>3D_ENV_SEC_Room</t>
-  </si>
-  <si>
     <t>3D_ENV_OFF_Room</t>
   </si>
   <si>
@@ -657,6 +645,18 @@
   </si>
   <si>
     <t>3D_ENV_OBS_Room</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Shower cabin door and lid</t>
+  </si>
+  <si>
+    <t>3D_ENV_GEN_PC</t>
+  </si>
+  <si>
+    <t>Lara</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S143"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,13 +1230,13 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>8</v>
@@ -1244,7 +1244,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1260,7 +1260,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1269,7 +1269,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1286,16 +1286,18 @@
       <c r="A4" s="20"/>
       <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1311,17 +1313,17 @@
       <c r="A5" s="20"/>
       <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="9" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1338,10 +1340,10 @@
       <c r="A6" s="20"/>
       <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5"/>
@@ -1365,17 +1367,17 @@
       <c r="A7" s="20"/>
       <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="9" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1392,17 +1394,19 @@
       <c r="A8" s="20"/>
       <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="9" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1419,17 +1423,17 @@
       <c r="A9" s="20"/>
       <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="9" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1446,17 +1450,17 @@
       <c r="A10" s="20"/>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="9" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1473,12 +1477,14 @@
       <c r="A11" s="20"/>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1500,17 +1506,17 @@
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="9" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1527,17 +1533,19 @@
       <c r="A13" s="20"/>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="9" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1554,12 +1562,14 @@
       <c r="A14" s="20"/>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1579,14 +1589,14 @@
       <c r="A15" s="20"/>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1606,10 +1616,10 @@
       <c r="A16" s="20"/>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="5"/>
@@ -1631,12 +1641,14 @@
       <c r="A17" s="20"/>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F17" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1656,12 +1668,14 @@
       <c r="A18" s="20"/>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1681,10 +1695,10 @@
       <c r="A19" s="20"/>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="5"/>
@@ -1706,13 +1720,13 @@
       <c r="A20" s="20"/>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="2"/>
@@ -1733,13 +1747,13 @@
       <c r="A21" s="20"/>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="2"/>
@@ -1760,13 +1774,13 @@
       <c r="A22" s="20"/>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="2"/>
@@ -1787,13 +1801,13 @@
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
@@ -1814,12 +1828,14 @@
       <c r="A24" s="20"/>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1839,12 +1855,14 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1864,10 +1882,10 @@
       <c r="A26" s="20"/>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="5"/>
@@ -1889,10 +1907,10 @@
       <c r="A27" s="20"/>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="5"/>
@@ -1914,10 +1932,10 @@
       <c r="A28" s="20"/>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="5"/>
@@ -1939,12 +1957,14 @@
       <c r="A29" s="20"/>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1964,12 +1984,12 @@
       <c r="A30" s="20"/>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1989,12 +2009,14 @@
       <c r="A31" s="20"/>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2014,12 +2036,14 @@
       <c r="A32" s="20"/>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F32" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2039,10 +2063,10 @@
       <c r="A33" s="20"/>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="5"/>
@@ -2064,10 +2088,10 @@
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="8"/>
@@ -2112,10 +2136,10 @@
       <c r="A36" s="20"/>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5"/>
@@ -2137,10 +2161,10 @@
       <c r="A37" s="20"/>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="5"/>
@@ -2162,12 +2186,14 @@
       <c r="A38" s="20"/>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -2187,10 +2213,10 @@
       <c r="A39" s="20"/>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="5"/>
@@ -2212,12 +2238,12 @@
       <c r="A40" s="20"/>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2237,10 +2263,10 @@
       <c r="A41" s="20"/>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="5"/>
@@ -2262,10 +2288,10 @@
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8"/>
@@ -2313,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="5"/>
@@ -2335,10 +2361,10 @@
       <c r="A45" s="20"/>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="5"/>
@@ -2360,14 +2386,14 @@
       <c r="A46" s="20"/>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2387,14 +2413,14 @@
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2440,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="5"/>
@@ -2462,10 +2488,10 @@
       <c r="A50" s="20"/>
       <c r="B50" s="23"/>
       <c r="C50" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="5"/>
@@ -2487,10 +2513,10 @@
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
       <c r="C51" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="5"/>
@@ -2512,10 +2538,10 @@
       <c r="A52" s="20"/>
       <c r="B52" s="23"/>
       <c r="C52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="5"/>
@@ -2537,10 +2563,10 @@
       <c r="A53" s="20"/>
       <c r="B53" s="24"/>
       <c r="C53" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
@@ -2588,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="5"/>
@@ -2610,10 +2636,10 @@
       <c r="A56" s="20"/>
       <c r="B56" s="23"/>
       <c r="C56" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5"/>
@@ -2635,12 +2661,14 @@
       <c r="A57" s="20"/>
       <c r="B57" s="23"/>
       <c r="C57" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F57" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2660,12 +2688,14 @@
       <c r="A58" s="20"/>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F58" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2708,10 +2738,10 @@
       <c r="A60" s="20"/>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="5"/>
@@ -2733,10 +2763,10 @@
       <c r="A61" s="20"/>
       <c r="B61" s="23"/>
       <c r="C61" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="5"/>
@@ -2758,10 +2788,10 @@
       <c r="A62" s="20"/>
       <c r="B62" s="23"/>
       <c r="C62" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="5"/>
@@ -2783,10 +2813,10 @@
       <c r="A63" s="20"/>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="5"/>
@@ -2852,10 +2882,10 @@
       <c r="A66" s="20"/>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="5"/>
@@ -2876,7 +2906,7 @@
     <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
@@ -2900,10 +2930,10 @@
       <c r="A68" s="9"/>
       <c r="B68" s="23"/>
       <c r="C68" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="5"/>
@@ -2925,10 +2955,10 @@
       <c r="A69" s="9"/>
       <c r="B69" s="23"/>
       <c r="C69" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="5"/>
@@ -2950,12 +2980,14 @@
       <c r="A70" s="9"/>
       <c r="B70" s="23"/>
       <c r="C70" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F70" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2975,10 +3007,10 @@
       <c r="A71" s="9"/>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="5"/>
@@ -3000,10 +3032,10 @@
       <c r="A72" s="9"/>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="5"/>
@@ -3025,14 +3057,14 @@
       <c r="A73" s="9"/>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -3052,14 +3084,14 @@
       <c r="A74" s="9"/>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -3079,14 +3111,14 @@
       <c r="A75" s="21"/>
       <c r="B75" s="24"/>
       <c r="C75" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -3129,10 +3161,10 @@
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
@@ -3153,10 +3185,10 @@
       <c r="A79" s="13"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="5"/>
@@ -3165,10 +3197,10 @@
       <c r="A80" s="13"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="5"/>
@@ -3190,123 +3222,123 @@
         <v>11</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="C83" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
-      <c r="B85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
-      <c r="B88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="4"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="5"/>
+      <c r="B92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="9" t="s">
-        <v>49</v>
+      <c r="C93" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="5"/>
@@ -3314,81 +3346,97 @@
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="9" t="s">
-        <v>50</v>
+      <c r="C94" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="1"/>
-      <c r="C95" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
-      <c r="B99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="4"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="5"/>
+      <c r="B100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="5"/>
@@ -3397,10 +3445,10 @@
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="5"/>
@@ -3409,10 +3457,10 @@
       <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="5"/>
@@ -3420,21 +3468,25 @@
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" s="9"/>
+      <c r="C104" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="C105" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="9"/>
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,65 +3497,65 @@
       <c r="E106" s="2"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="5"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="8"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="4"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="5"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
       <c r="C112" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
@@ -3514,7 +3566,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,307 +3575,287 @@
       <c r="C114" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="5"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="8"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="B119" s="1"/>
+      <c r="C119" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14"/>
+      <c r="B123" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="15"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
-      <c r="B125" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="4"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="5"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="5"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+      <c r="C128" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
-      <c r="B129" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="22"/>
+      <c r="B133" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D134" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="14"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
-      <c r="B132" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="4"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="14"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="22"/>
-      <c r="B135" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E136" s="9"/>
-      <c r="F136" s="26"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="23"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="26"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+      <c r="B135" s="23"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="26"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="21"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="26"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="31"/>
+      <c r="B138" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="28"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="29"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="26"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="29"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="26"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="26"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="18"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="21"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
   <si>
     <t>Probation Area</t>
   </si>
@@ -657,6 +657,72 @@
   </si>
   <si>
     <t>Lara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters </t>
+  </si>
+  <si>
+    <t>Dokter</t>
+  </si>
+  <si>
+    <t>Assistant 1</t>
+  </si>
+  <si>
+    <t>Assistant 2</t>
+  </si>
+  <si>
+    <t>Client 1</t>
+  </si>
+  <si>
+    <t>Client 2</t>
+  </si>
+  <si>
+    <t>Client 3</t>
+  </si>
+  <si>
+    <t>Client 4</t>
+  </si>
+  <si>
+    <t>Client 5</t>
+  </si>
+  <si>
+    <t>Client 6</t>
+  </si>
+  <si>
+    <t>Client 7</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Dokter</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Assistant1</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client1</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Assistant2</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client2</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client3</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client4</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client5</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client6</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Client7</t>
+  </si>
+  <si>
+    <t>Hadewij</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1337,9 @@
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1318,14 +1386,18 @@
       <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1352,7 +1424,9 @@
       <c r="I6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1408,7 +1482,9 @@
       <c r="I8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1462,7 +1538,9 @@
       <c r="I10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -3857,6 +3935,145 @@
       <c r="E141" s="17"/>
       <c r="F141" s="18"/>
     </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="23"/>
+      <c r="B144" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="23"/>
+      <c r="B145" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="23"/>
+      <c r="B146" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="23"/>
+      <c r="B147" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="23"/>
+      <c r="B148" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="2"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="23"/>
+      <c r="B149" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="2"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="23"/>
+      <c r="B150" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="23"/>
+      <c r="B151" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="23"/>
+      <c r="B152" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="24"/>
+      <c r="B153" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D153" s="7"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="282">
   <si>
     <t>Probation Area</t>
   </si>
@@ -723,13 +724,160 @@
   </si>
   <si>
     <t>Hadewij</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Glass display</t>
+  </si>
+  <si>
+    <t>Trashcan</t>
+  </si>
+  <si>
+    <t>3D_ENV_GEN_Rack</t>
+  </si>
+  <si>
+    <t>3D_ENV_GEN_Glass display</t>
+  </si>
+  <si>
+    <t>Transporter bed</t>
+  </si>
+  <si>
+    <t>Transporter rails straight</t>
+  </si>
+  <si>
+    <t>Transporter rails curve</t>
+  </si>
+  <si>
+    <t>Hairdryer</t>
+  </si>
+  <si>
+    <t>Sodium bottle</t>
+  </si>
+  <si>
+    <t>Shower tile</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>Hatch</t>
+  </si>
+  <si>
+    <t>Morgue door</t>
+  </si>
+  <si>
+    <t>Transporter control panel</t>
+  </si>
+  <si>
+    <t>Power supply puzzle</t>
+  </si>
+  <si>
+    <t>Examination bed</t>
+  </si>
+  <si>
+    <t>Robot arms</t>
+  </si>
+  <si>
+    <t>Surgery Equipement</t>
+  </si>
+  <si>
+    <t>Brains on sticks</t>
+  </si>
+  <si>
+    <t>Locker doors</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_TransporterBed</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_TransporterRailsStriaght</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_ShowerTile</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_MorgueDoor</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_ExaminationBed</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_RobotArms</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_TransporterRailsCurve</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_Hairdryer</t>
+  </si>
+  <si>
+    <t>3D_ENV_ITEM_SodiumBottle</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_Shower</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_Hatch</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_DoorDisplay</t>
+  </si>
+  <si>
+    <t>Door display</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_TransporterControlPanel</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_PowerSupplyPuzzle</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_SurgeryEquipments</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_BrainsOnSticks</t>
+  </si>
+  <si>
+    <t>3D_ENV_MORG_LockerDoors</t>
+  </si>
+  <si>
+    <t>Assetlist</t>
+  </si>
+  <si>
+    <t>Particles</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium </t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>3D_PART_Fire</t>
+  </si>
+  <si>
+    <t>3D_PART_Shower</t>
+  </si>
+  <si>
+    <t>3D_PART_Sodium</t>
+  </si>
+  <si>
+    <t>3D_PART_Lazer</t>
+  </si>
+  <si>
+    <t>Planning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +890,13 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -924,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -958,6 +1113,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1272,24 +1433,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S153"/>
+  <dimension ref="A1:S179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
@@ -1651,7 +1816,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="9" t="s">
+        <v>233</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1678,7 +1845,9 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3570,53 +3739,71 @@
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="C106" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E106" s="9"/>
       <c r="F106" s="5"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="C107" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" s="9"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="1"/>
+      <c r="C108" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
-      <c r="B110" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="5"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>194</v>
+      <c r="C111" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="5"/>
@@ -3624,458 +3811,752 @@
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D113" s="2"/>
+      <c r="C113" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>261</v>
+      </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="1"/>
-      <c r="C114" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>209</v>
+      <c r="C114" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>262</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
       <c r="C115" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>96</v>
+        <v>243</v>
+      </c>
+      <c r="D115" s="33" t="s">
+        <v>256</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>244</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>263</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="1"/>
       <c r="C118" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>198</v>
+        <v>266</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>265</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="1"/>
       <c r="C119" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>196</v>
+        <v>246</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="15"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="14"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="14"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
-      <c r="B123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>200</v>
+      <c r="C124" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>269</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>147</v>
+      <c r="C125" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
-      <c r="B127" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="5"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="8"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
-      <c r="B130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="14"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="14"/>
+      <c r="B135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="14"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="15"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="3"/>
+      <c r="F140" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="14"/>
+      <c r="B141" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="14"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="14"/>
+      <c r="B145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="14"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="14"/>
+      <c r="B148" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="14"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="22"/>
-      <c r="B133" s="25" t="s">
+      <c r="E149" s="2"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="22"/>
+      <c r="B151" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="4"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="9" t="s">
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D152" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E134" s="9"/>
-      <c r="F134" s="26"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="26"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="18"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="31" t="s">
+      <c r="E152" s="9"/>
+      <c r="F152" s="26"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="26"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="21"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="29"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="9" t="s">
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="29"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="32"/>
+      <c r="B157" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="C157" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="26"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="26"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="18"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+      <c r="D157" s="9"/>
+      <c r="E157" s="26"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="23"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="26"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="24"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="18"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="23"/>
-      <c r="B144" s="2" t="s">
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="23"/>
+      <c r="B162" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C162" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="2"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="23"/>
-      <c r="B145" s="2" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="23"/>
+      <c r="B163" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="2"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="23"/>
-      <c r="B146" s="2" t="s">
+      <c r="D163" s="2"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="23"/>
+      <c r="B164" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C164" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
-      <c r="B147" s="2" t="s">
+      <c r="D164" s="2"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="2"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="23"/>
+      <c r="B165" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="23"/>
-      <c r="B148" s="2" t="s">
+      <c r="D165" s="2"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="23"/>
+      <c r="B166" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C166" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="2"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="23"/>
-      <c r="B149" s="2" t="s">
+      <c r="D166" s="2"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="2"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="23"/>
+      <c r="B167" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="2"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="23"/>
-      <c r="B150" s="2" t="s">
+      <c r="D167" s="2"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="2"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="23"/>
+      <c r="B168" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="2"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="23"/>
-      <c r="B151" s="2" t="s">
+      <c r="D168" s="2"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="2"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="23"/>
+      <c r="B169" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C169" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="23"/>
-      <c r="B152" s="2" t="s">
+      <c r="D169" s="2"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="23"/>
+      <c r="B170" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C170" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="24"/>
-      <c r="B153" s="7" t="s">
+      <c r="D170" s="2"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="24"/>
+      <c r="B171" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C171" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="2"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="23"/>
+      <c r="B174" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="23"/>
+      <c r="B175" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="23"/>
+      <c r="B176" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="23"/>
+      <c r="B177" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D177" s="2"/>
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="23"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="24"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="285">
   <si>
     <t>Probation Area</t>
   </si>
@@ -871,6 +871,15 @@
   </si>
   <si>
     <t>Planning</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In planning</t>
   </si>
 </sst>
 </file>
@@ -899,7 +908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,6 +918,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1119,6 +1140,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1433,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S179"/>
+  <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,17 +1468,17 @@
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1469,15 +1492,17 @@
       <c r="E2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1487,8 +1512,9 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="25" t="s">
         <v>120</v>
@@ -1496,16 +1522,16 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1514,8 +1540,9 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
@@ -1525,13 +1552,13 @@
         <v>178</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1541,8 +1568,9 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
@@ -1554,16 +1582,18 @@
       <c r="E5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1572,8 +1602,9 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
@@ -1582,17 +1613,21 @@
       <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1601,8 +1636,9 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
@@ -1612,13 +1648,13 @@
         <v>105</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1628,8 +1664,9 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="23"/>
       <c r="C8" s="2" t="s">
@@ -1641,16 +1678,18 @@
       <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1659,8 +1698,9 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="23"/>
       <c r="C9" s="9" t="s">
@@ -1670,13 +1710,13 @@
         <v>121</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1686,8 +1726,9 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="23"/>
       <c r="C10" s="9" t="s">
@@ -1697,16 +1738,16 @@
         <v>103</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1715,8 +1756,9 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="23"/>
       <c r="C11" s="9" t="s">
@@ -1728,13 +1770,15 @@
       <c r="E11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1744,8 +1788,9 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9" t="s">
@@ -1755,13 +1800,13 @@
         <v>77</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1771,8 +1816,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="23"/>
       <c r="C13" s="9" t="s">
@@ -1784,13 +1830,15 @@
       <c r="E13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1800,8 +1848,9 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="23"/>
       <c r="C14" s="9" t="s">
@@ -1813,13 +1862,15 @@
       <c r="E14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1829,8 +1880,9 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
@@ -1840,15 +1892,15 @@
         <v>54</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1858,8 +1910,9 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="23"/>
       <c r="C16" s="9" t="s">
@@ -1869,8 +1922,8 @@
         <v>83</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1883,8 +1936,9 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="23"/>
       <c r="C17" s="9" t="s">
@@ -1894,10 +1948,12 @@
       <c r="E17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1910,8 +1966,9 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="23"/>
       <c r="C18" s="9" t="s">
@@ -1923,8 +1980,10 @@
       <c r="E18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1937,8 +1996,9 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="23"/>
       <c r="C19" s="9" t="s">
@@ -1947,12 +2007,18 @@
       <c r="D19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1962,8 +2028,9 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
@@ -1975,11 +2042,15 @@
       <c r="E20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="37" t="s">
+        <v>283</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1989,8 +2060,9 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="23"/>
       <c r="C21" s="9" t="s">
@@ -2002,11 +2074,15 @@
       <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2016,8 +2092,9 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="23"/>
       <c r="C22" s="9" t="s">
@@ -2029,11 +2106,13 @@
       <c r="E22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2043,8 +2122,9 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
@@ -2056,8 +2136,10 @@
       <c r="E23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2070,8 +2152,9 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="23"/>
       <c r="C24" s="9" t="s">
@@ -2083,8 +2166,10 @@
       <c r="E24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2097,8 +2182,9 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="9" t="s">
@@ -2110,8 +2196,10 @@
       <c r="E25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2124,8 +2212,9 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="23"/>
       <c r="C26" s="9" t="s">
@@ -2135,8 +2224,8 @@
         <v>71</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2149,8 +2238,9 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
@@ -2160,8 +2250,8 @@
         <v>70</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2174,8 +2264,9 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="23"/>
       <c r="C28" s="9" t="s">
@@ -2185,8 +2276,8 @@
         <v>74</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2199,8 +2290,9 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="23"/>
       <c r="C29" s="9" t="s">
@@ -2212,8 +2304,10 @@
       <c r="E29" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2226,8 +2320,9 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="23"/>
       <c r="C30" s="9" t="s">
@@ -2235,10 +2330,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2251,8 +2346,9 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="23"/>
       <c r="C31" s="9" t="s">
@@ -2262,10 +2358,12 @@
       <c r="E31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2278,8 +2376,9 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
@@ -2289,10 +2388,12 @@
       <c r="E32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2305,8 +2406,9 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
@@ -2316,8 +2418,8 @@
         <v>55</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -2330,8 +2432,9 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="24"/>
       <c r="C34" s="7" t="s">
@@ -2341,8 +2444,8 @@
         <v>56</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2355,8 +2458,9 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="25" t="s">
         <v>1</v>
@@ -2364,8 +2468,8 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2378,8 +2482,9 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="23"/>
       <c r="C36" s="9" t="s">
@@ -2389,8 +2494,8 @@
         <v>180</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2403,8 +2508,9 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="23"/>
       <c r="C37" s="9" t="s">
@@ -2414,8 +2520,8 @@
         <v>126</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -2428,8 +2534,9 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
@@ -2439,10 +2546,12 @@
       <c r="E38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -2455,8 +2564,9 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
@@ -2466,8 +2576,8 @@
         <v>131</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="5"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -2480,8 +2590,9 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
@@ -2489,10 +2600,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2505,8 +2616,9 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
@@ -2516,8 +2628,8 @@
         <v>129</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="5"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2530,8 +2642,9 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="24"/>
       <c r="C42" s="7" t="s">
@@ -2541,8 +2654,8 @@
         <v>127</v>
       </c>
       <c r="E42" s="7"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2555,8 +2668,9 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="25" t="s">
         <v>2</v>
@@ -2564,8 +2678,8 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2578,8 +2692,9 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="23"/>
       <c r="C44" s="9" t="s">
@@ -2589,8 +2704,8 @@
         <v>181</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -2603,8 +2718,9 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="23"/>
       <c r="C45" s="9" t="s">
@@ -2614,8 +2730,8 @@
         <v>166</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -2628,8 +2744,9 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="23"/>
       <c r="C46" s="9" t="s">
@@ -2639,10 +2756,10 @@
         <v>167</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="2"/>
+      <c r="G46" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -2655,8 +2772,9 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="24"/>
       <c r="C47" s="7" t="s">
@@ -2666,10 +2784,10 @@
         <v>168</v>
       </c>
       <c r="E47" s="7"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -2682,8 +2800,9 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="25" t="s">
         <v>3</v>
@@ -2691,8 +2810,8 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2705,8 +2824,9 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="23"/>
       <c r="C49" s="9" t="s">
@@ -2716,8 +2836,8 @@
         <v>182</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -2730,8 +2850,9 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="23"/>
       <c r="C50" s="2" t="s">
@@ -2741,8 +2862,8 @@
         <v>158</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -2755,8 +2876,9 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="23"/>
       <c r="C51" s="2" t="s">
@@ -2766,8 +2888,8 @@
         <v>159</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="5"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -2780,8 +2902,9 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="23"/>
       <c r="C52" s="2" t="s">
@@ -2791,8 +2914,8 @@
         <v>160</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -2805,8 +2928,9 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="24"/>
       <c r="C53" s="7" t="s">
@@ -2816,8 +2940,8 @@
         <v>161</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2830,8 +2954,9 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="25" t="s">
         <v>4</v>
@@ -2839,8 +2964,8 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -2853,8 +2978,9 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="23"/>
       <c r="C55" s="9" t="s">
@@ -2864,8 +2990,8 @@
         <v>183</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="5"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -2878,8 +3004,9 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="23"/>
       <c r="C56" s="2" t="s">
@@ -2889,8 +3016,8 @@
         <v>140</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -2903,8 +3030,9 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="23"/>
       <c r="C57" s="2" t="s">
@@ -2914,10 +3042,12 @@
       <c r="E57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -2930,8 +3060,9 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
@@ -2941,10 +3072,12 @@
       <c r="E58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2957,8 +3090,9 @@
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="25" t="s">
         <v>5</v>
@@ -2966,8 +3100,8 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2980,8 +3114,9 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="23"/>
       <c r="C60" s="9" t="s">
@@ -2991,8 +3126,8 @@
         <v>185</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3005,8 +3140,9 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="23"/>
       <c r="C61" s="2" t="s">
@@ -3016,8 +3152,8 @@
         <v>142</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3030,8 +3166,9 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="23"/>
       <c r="C62" s="2" t="s">
@@ -3041,8 +3178,8 @@
         <v>145</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3055,8 +3192,9 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
@@ -3066,8 +3204,8 @@
         <v>152</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="5"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -3080,15 +3218,16 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="23"/>
       <c r="C64" s="9"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3101,8 +3240,9 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="25" t="s">
         <v>6</v>
@@ -3110,8 +3250,8 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="2"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3124,8 +3264,9 @@
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="23"/>
       <c r="C66" s="9" t="s">
@@ -3135,8 +3276,8 @@
         <v>153</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3149,8 +3290,9 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="27" t="s">
         <v>110</v>
@@ -3158,8 +3300,8 @@
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="29"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3172,8 +3314,9 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="23"/>
       <c r="C68" s="2" t="s">
@@ -3183,8 +3326,8 @@
         <v>116</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3197,8 +3340,9 @@
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="23"/>
       <c r="C69" s="2" t="s">
@@ -3208,8 +3352,8 @@
         <v>118</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="5"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3222,8 +3366,9 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="23"/>
       <c r="C70" s="2" t="s">
@@ -3233,10 +3378,12 @@
       <c r="E70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3249,8 +3396,9 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
@@ -3260,8 +3408,8 @@
         <v>119</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="5"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -3274,8 +3422,9 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
@@ -3285,8 +3434,8 @@
         <v>117</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -3299,8 +3448,9 @@
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
@@ -3310,10 +3460,10 @@
         <v>174</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="9"/>
+      <c r="G73" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3326,8 +3476,9 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="23"/>
       <c r="C74" s="9" t="s">
@@ -3337,10 +3488,10 @@
         <v>175</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="9"/>
+      <c r="G74" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3353,8 +3504,9 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="24"/>
       <c r="C75" s="7" t="s">
@@ -3364,10 +3516,10 @@
         <v>176</v>
       </c>
       <c r="E75" s="7"/>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7"/>
+      <c r="G75" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -3380,15 +3532,16 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -3401,8 +3554,9 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>9</v>
       </c>
@@ -3414,11 +3568,12 @@
         <v>18</v>
       </c>
       <c r="E77" s="3"/>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="3" t="s">
         <v>10</v>
@@ -3426,9 +3581,10 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2" t="s">
@@ -3438,9 +3594,10 @@
         <v>135</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="2"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
@@ -3450,9 +3607,10 @@
         <v>136</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="2"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="3" t="s">
         <v>11</v>
@@ -3460,9 +3618,10 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="1"/>
       <c r="C82" s="9" t="s">
@@ -3472,9 +3631,10 @@
         <v>187</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="1"/>
       <c r="C83" s="9" t="s">
@@ -3482,11 +3642,12 @@
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="2"/>
+      <c r="G83" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="1"/>
       <c r="C84" s="9" t="s">
@@ -3496,11 +3657,14 @@
       <c r="E84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="6"/>
       <c r="C85" s="7" t="s">
@@ -3510,11 +3674,14 @@
       <c r="E85" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="3" t="s">
         <v>12</v>
@@ -3522,9 +3689,10 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2" t="s">
@@ -3534,41 +3702,46 @@
         <v>189</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="2"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="2"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="2"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="2"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="3" t="s">
         <v>13</v>
@@ -3576,9 +3749,10 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
@@ -3588,9 +3762,10 @@
         <v>191</v>
       </c>
       <c r="E93" s="2"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="2"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
@@ -3598,11 +3773,12 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="2"/>
+      <c r="G94" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
@@ -3612,9 +3788,10 @@
         <v>90</v>
       </c>
       <c r="E95" s="2"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="2"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="1"/>
       <c r="C96" s="2" t="s">
@@ -3624,9 +3801,10 @@
         <v>88</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="2"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
@@ -3636,9 +3814,10 @@
         <v>89</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="2"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
@@ -3648,11 +3827,14 @@
       <c r="E98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
@@ -3662,11 +3844,14 @@
       <c r="E99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="3" t="s">
         <v>14</v>
@@ -3674,9 +3859,10 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
@@ -3686,9 +3872,10 @@
         <v>193</v>
       </c>
       <c r="E101" s="2"/>
-      <c r="F101" s="5"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="2"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
@@ -3698,9 +3885,10 @@
         <v>98</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="2"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
@@ -3710,9 +3898,10 @@
         <v>100</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="5"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="2"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
       <c r="C104" s="2" t="s">
@@ -3722,9 +3911,10 @@
         <v>99</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="5"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="2"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
@@ -3734,9 +3924,10 @@
         <v>101</v>
       </c>
       <c r="E105" s="9"/>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="9"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
@@ -3746,9 +3937,10 @@
         <v>236</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="9"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
@@ -3758,9 +3950,10 @@
         <v>237</v>
       </c>
       <c r="E107" s="9"/>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="9"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="1"/>
       <c r="C108" s="9" t="s">
@@ -3768,11 +3961,12 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="1"/>
       <c r="C109" s="9" t="s">
@@ -3780,11 +3974,12 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="1"/>
       <c r="C110" s="9" t="s">
@@ -3794,9 +3989,10 @@
         <v>254</v>
       </c>
       <c r="E110" s="2"/>
-      <c r="F110" s="5"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="2"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="1"/>
       <c r="C111" s="9" t="s">
@@ -3806,9 +4002,10 @@
         <v>255</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="2"/>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
       <c r="C112" s="9" t="s">
@@ -3818,9 +4015,10 @@
         <v>260</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="F112" s="5"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F112" s="2"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
       <c r="C113" s="9" t="s">
@@ -3830,9 +4028,10 @@
         <v>261</v>
       </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="5"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F113" s="2"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="1"/>
       <c r="C114" s="9" t="s">
@@ -3842,9 +4041,10 @@
         <v>262</v>
       </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="5"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F114" s="2"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
       <c r="C115" s="9" t="s">
@@ -3854,9 +4054,10 @@
         <v>256</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="5"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F115" s="2"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
@@ -3866,9 +4067,10 @@
         <v>263</v>
       </c>
       <c r="E116" s="2"/>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F116" s="2"/>
+      <c r="G116" s="5"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="9" t="s">
@@ -3878,9 +4080,10 @@
         <v>264</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F117" s="2"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="1"/>
       <c r="C118" s="9" t="s">
@@ -3890,9 +4093,10 @@
         <v>265</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="5"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F118" s="2"/>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="1"/>
       <c r="C119" s="9" t="s">
@@ -3902,9 +4106,10 @@
         <v>257</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119" s="5"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F119" s="2"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="1"/>
       <c r="C120" s="9" t="s">
@@ -3914,9 +4119,10 @@
         <v>267</v>
       </c>
       <c r="E120" s="2"/>
-      <c r="F120" s="5"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F120" s="2"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="1"/>
       <c r="C121" s="9" t="s">
@@ -3926,9 +4132,10 @@
         <v>268</v>
       </c>
       <c r="E121" s="2"/>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F121" s="2"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="1"/>
       <c r="C122" s="9" t="s">
@@ -3938,9 +4145,10 @@
         <v>258</v>
       </c>
       <c r="E122" s="2"/>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F122" s="2"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="1"/>
       <c r="C123" s="9" t="s">
@@ -3950,9 +4158,10 @@
         <v>259</v>
       </c>
       <c r="E123" s="2"/>
-      <c r="F123" s="5"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F123" s="2"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="1"/>
       <c r="C124" s="9" t="s">
@@ -3962,9 +4171,10 @@
         <v>269</v>
       </c>
       <c r="E124" s="2"/>
-      <c r="F124" s="5"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F124" s="2"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="1"/>
       <c r="C125" s="9" t="s">
@@ -3974,9 +4184,10 @@
         <v>270</v>
       </c>
       <c r="E125" s="2"/>
-      <c r="F125" s="5"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F125" s="2"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="1"/>
       <c r="C126" s="9" t="s">
@@ -3986,17 +4197,19 @@
         <v>271</v>
       </c>
       <c r="E126" s="2"/>
-      <c r="F126" s="5"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="2"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14"/>
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="7"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="3" t="s">
         <v>15</v>
@@ -4004,9 +4217,10 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="1"/>
       <c r="C129" s="2" t="s">
@@ -4016,9 +4230,10 @@
         <v>194</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="2"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="1"/>
       <c r="C130" s="2" t="s">
@@ -4028,11 +4243,14 @@
       <c r="E130" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
       <c r="C131" s="2" t="s">
@@ -4040,11 +4258,12 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="2"/>
+      <c r="G131" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
       <c r="C132" s="2" t="s">
@@ -4054,9 +4273,10 @@
         <v>209</v>
       </c>
       <c r="E132" s="2"/>
-      <c r="F132" s="5"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="2"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
@@ -4066,9 +4286,10 @@
         <v>96</v>
       </c>
       <c r="E133" s="2"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="2"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
@@ -4078,9 +4299,10 @@
         <v>97</v>
       </c>
       <c r="E134" s="2"/>
-      <c r="F134" s="5"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="2"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="3" t="s">
         <v>16</v>
@@ -4088,9 +4310,10 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
@@ -4100,9 +4323,10 @@
         <v>198</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="5"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="2"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
@@ -4112,25 +4336,28 @@
         <v>196</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="F137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="2"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15"/>
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
-      <c r="F138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="7"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
         <v>19</v>
       </c>
@@ -4142,11 +4369,12 @@
         <v>7</v>
       </c>
       <c r="E140" s="3"/>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="3"/>
+      <c r="G140" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="3" t="s">
         <v>20</v>
@@ -4154,9 +4382,10 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="2" t="s">
@@ -4166,9 +4395,10 @@
         <v>200</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="2"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
       <c r="C143" s="2" t="s">
@@ -4178,17 +4408,19 @@
         <v>147</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="5"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="2"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14"/>
       <c r="B144" s="6"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="7"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="3" t="s">
         <v>21</v>
@@ -4196,9 +4428,10 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
@@ -4208,17 +4441,19 @@
         <v>202</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="F146" s="5"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="2"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="6"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
-      <c r="F147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="7"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="3" t="s">
         <v>22</v>
@@ -4226,9 +4461,10 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
@@ -4238,17 +4474,19 @@
         <v>204</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="5"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="2"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
       <c r="B150" s="6"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
-      <c r="F150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="7"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="22"/>
       <c r="B151" s="25" t="s">
         <v>23</v>
@@ -4256,9 +4494,10 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="30"/>
       <c r="C152" s="9" t="s">
@@ -4268,33 +4507,37 @@
         <v>206</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="26"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="9"/>
+      <c r="G152" s="26"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="23"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="26"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="9"/>
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" s="24"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
-      <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="17"/>
+      <c r="G154" s="18"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="9"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
         <v>148</v>
       </c>
@@ -4302,8 +4545,9 @@
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
       <c r="E156" s="29"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
       <c r="B157" s="9" t="s">
         <v>149</v>
@@ -4313,23 +4557,26 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="26"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="26"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="24"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
       <c r="E159" s="18"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>211</v>
       </c>
@@ -4346,8 +4593,9 @@
         <v>8</v>
       </c>
       <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="2" t="s">
         <v>212</v>
@@ -4358,8 +4606,9 @@
       <c r="D162" s="2"/>
       <c r="E162" s="5"/>
       <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="2" t="s">
         <v>213</v>
@@ -4370,8 +4619,9 @@
       <c r="D163" s="2"/>
       <c r="E163" s="5"/>
       <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="2" t="s">
         <v>214</v>
@@ -4382,8 +4632,9 @@
       <c r="D164" s="2"/>
       <c r="E164" s="5"/>
       <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="2" t="s">
         <v>215</v>
@@ -4394,8 +4645,9 @@
       <c r="D165" s="2"/>
       <c r="E165" s="5"/>
       <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="2" t="s">
         <v>216</v>
@@ -4406,8 +4658,9 @@
       <c r="D166" s="2"/>
       <c r="E166" s="5"/>
       <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="2" t="s">
         <v>217</v>
@@ -4418,8 +4671,9 @@
       <c r="D167" s="2"/>
       <c r="E167" s="5"/>
       <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="2" t="s">
         <v>218</v>
@@ -4430,8 +4684,9 @@
       <c r="D168" s="2"/>
       <c r="E168" s="5"/>
       <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="2" t="s">
         <v>219</v>
@@ -4442,8 +4697,9 @@
       <c r="D169" s="2"/>
       <c r="E169" s="5"/>
       <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="2" t="s">
         <v>220</v>
@@ -4454,8 +4710,9 @@
       <c r="D170" s="2"/>
       <c r="E170" s="5"/>
       <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="24"/>
       <c r="B171" s="7" t="s">
         <v>221</v>
@@ -4466,9 +4723,10 @@
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
       <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
         <v>273</v>
       </c>
@@ -4476,8 +4734,9 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="9" t="s">
         <v>274</v>
@@ -4487,8 +4746,9 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="9" t="s">
         <v>244</v>
@@ -4498,8 +4758,9 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="9" t="s">
         <v>275</v>
@@ -4509,8 +4770,9 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="9" t="s">
         <v>276</v>
@@ -4520,20 +4782,23 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
+      <c r="F179" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4545,7 +4810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\Gamelab-Jaar3\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab-Jaar3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="285">
   <si>
     <t>Probation Area</t>
   </si>
@@ -885,7 +885,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1144,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1160,9 +1160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1200,7 +1200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1306,7 +1306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1455,11 +1455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,8 +2010,8 @@
       <c r="E19" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>284</v>
+      <c r="F19" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2"/>
@@ -2223,8 +2223,12 @@
       <c r="D26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4807,7 +4811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -1458,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,8 +2226,8 @@
       <c r="E26" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>284</v>
+      <c r="F26" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\Gamelab-Jaar3\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliek\OneDrive\Documenten\Gamelab-Jaar3\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="308">
   <si>
     <t>Probation Area</t>
   </si>
@@ -880,12 +880,81 @@
   </si>
   <si>
     <t>In planning</t>
+  </si>
+  <si>
+    <t>Week 38</t>
+  </si>
+  <si>
+    <t>Week 39</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Alieke</t>
+  </si>
+  <si>
+    <t>Jordi</t>
+  </si>
+  <si>
+    <t>Sascha</t>
+  </si>
+  <si>
+    <t>Renzo</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Week 42</t>
+  </si>
+  <si>
+    <t>Escape rooms</t>
+  </si>
+  <si>
+    <t>uml</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Dialoog</t>
+  </si>
+  <si>
+    <t>Shader</t>
+  </si>
+  <si>
+    <t>Characters concepten</t>
+  </si>
+  <si>
+    <t>Week 44</t>
+  </si>
+  <si>
+    <t>Week 45</t>
+  </si>
+  <si>
+    <t>Week 47</t>
+  </si>
+  <si>
+    <t>Week 48</t>
+  </si>
+  <si>
+    <t>Week 49</t>
+  </si>
+  <si>
+    <t>Week 50</t>
+  </si>
+  <si>
+    <t>Week 51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1096,11 +1165,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1142,9 +1302,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1160,9 +1335,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1200,7 +1375,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1306,7 +1481,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1455,11 +1630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,15 +1726,21 @@
       <c r="D4" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1647,15 +1828,21 @@
       <c r="D7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1709,15 +1896,21 @@
       <c r="D9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1737,8 +1930,12 @@
       <c r="D10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1799,8 +1996,12 @@
       <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1839,7 +2040,9 @@
       <c r="J13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1891,8 +2094,12 @@
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>208</v>
       </c>
@@ -1921,8 +2128,12 @@
       <c r="D16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2253,8 +2464,12 @@
       <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2279,8 +2494,12 @@
       <c r="D28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2333,8 +2552,12 @@
         <v>36</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G30" s="5" t="s">
         <v>109</v>
       </c>
@@ -2421,8 +2644,12 @@
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -2447,8 +2674,12 @@
       <c r="D34" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -2497,8 +2728,12 @@
       <c r="D36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="E36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2523,8 +2758,12 @@
       <c r="D37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="E37" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2579,8 +2818,12 @@
       <c r="D39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -2603,8 +2846,12 @@
         <v>124</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G40" s="5" t="s">
         <v>109</v>
       </c>
@@ -2631,8 +2878,12 @@
       <c r="D41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -2657,8 +2908,12 @@
       <c r="D42" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2707,8 +2962,12 @@
       <c r="D44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2733,8 +2992,12 @@
       <c r="D45" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -2759,8 +3022,12 @@
       <c r="D46" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G46" s="5" t="s">
         <v>169</v>
       </c>
@@ -2787,8 +3054,12 @@
       <c r="D47" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G47" s="8" t="s">
         <v>165</v>
       </c>
@@ -2839,8 +3110,12 @@
       <c r="D49" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -2865,8 +3140,12 @@
       <c r="D50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -2891,8 +3170,12 @@
       <c r="D51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -2917,8 +3200,12 @@
       <c r="D52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -2943,8 +3230,12 @@
       <c r="D53" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -2993,8 +3284,12 @@
       <c r="D55" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="E55" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3019,8 +3314,12 @@
       <c r="D56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="E56" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3129,8 +3428,12 @@
       <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3155,8 +3458,12 @@
       <c r="D61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3181,8 +3488,12 @@
       <c r="D62" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3207,8 +3518,12 @@
       <c r="D63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -3279,8 +3594,12 @@
       <c r="D66" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -3329,8 +3648,12 @@
       <c r="D68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G68" s="5"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -3355,8 +3678,12 @@
       <c r="D69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G69" s="5"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3411,8 +3738,12 @@
       <c r="D71" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -3437,8 +3768,12 @@
       <c r="D72" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -3463,8 +3798,12 @@
       <c r="D73" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G73" s="5" t="s">
         <v>173</v>
       </c>
@@ -3491,8 +3830,12 @@
       <c r="D74" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G74" s="5" t="s">
         <v>173</v>
       </c>
@@ -3519,8 +3862,12 @@
       <c r="D75" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" s="53" t="s">
+        <v>284</v>
+      </c>
       <c r="G75" s="8" t="s">
         <v>173</v>
       </c>
@@ -3645,8 +3992,12 @@
         <v>93</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G83" s="5" t="s">
         <v>109</v>
       </c>
@@ -3776,8 +4127,12 @@
         <v>45</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G94" s="5" t="s">
         <v>109</v>
       </c>
@@ -3964,8 +4319,12 @@
         <v>93</v>
       </c>
       <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G108" s="5" t="s">
         <v>109</v>
       </c>
@@ -4261,7 +4620,9 @@
         <v>92</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="5" t="s">
         <v>109</v>
@@ -4276,8 +4637,12 @@
       <c r="D132" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F132" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,8 +4654,12 @@
       <c r="D133" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+      <c r="E133" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F133" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G133" s="5"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4593,10 +4962,12 @@
       <c r="D161" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F161" s="2"/>
       <c r="G161" s="2"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,8 +4979,8 @@
         <v>222</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="5"/>
       <c r="G162" s="2"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,8 +4992,8 @@
         <v>223</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="5"/>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,8 +5005,8 @@
         <v>225</v>
       </c>
       <c r="D164" s="2"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="5"/>
       <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4647,8 +5018,8 @@
         <v>224</v>
       </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="5"/>
       <c r="G165" s="2"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4660,8 +5031,8 @@
         <v>226</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="5"/>
       <c r="G166" s="2"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,9 +5043,13 @@
       <c r="C167" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F167" s="5"/>
       <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,8 +5061,8 @@
         <v>228</v>
       </c>
       <c r="D168" s="2"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="5"/>
       <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4699,8 +5074,8 @@
         <v>229</v>
       </c>
       <c r="D169" s="2"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="5"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4712,8 +5087,8 @@
         <v>230</v>
       </c>
       <c r="D170" s="2"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="5"/>
       <c r="G170" s="2"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4725,8 +5100,8 @@
         <v>231</v>
       </c>
       <c r="D171" s="7"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="2"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="8"/>
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4737,8 +5112,8 @@
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="2"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
@@ -4749,8 +5124,8 @@
         <v>277</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
@@ -4761,8 +5136,8 @@
         <v>278</v>
       </c>
       <c r="D175" s="2"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
@@ -4773,8 +5148,8 @@
         <v>279</v>
       </c>
       <c r="D176" s="2"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
@@ -4785,24 +5160,24 @@
         <v>280</v>
       </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="24"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="2"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4811,19 +5186,942 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="46" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="41" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="46" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>281</v>
       </c>
+      <c r="B1" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="45"/>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="46"/>
+    </row>
+    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="46"/>
+    </row>
+    <row r="41" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="47"/>
+    </row>
+    <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="46"/>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="46"/>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="46"/>
+    </row>
+    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="46"/>
+    </row>
+    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="46"/>
+    </row>
+    <row r="48" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="49"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="45"/>
+    </row>
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="46"/>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="46"/>
+    </row>
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="46"/>
+    </row>
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="46"/>
+    </row>
+    <row r="53" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="47"/>
+    </row>
+    <row r="54" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="45"/>
+    </row>
+    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="46"/>
+    </row>
+    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="41"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="46"/>
+    </row>
+    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="46"/>
+    </row>
+    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="46"/>
+    </row>
+    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="46"/>
+    </row>
+    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="46"/>
+    </row>
+    <row r="61" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="47"/>
+      <c r="H61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="312">
   <si>
     <t>Probation Area</t>
   </si>
@@ -949,6 +949,18 @@
   </si>
   <si>
     <t>Week 51</t>
+  </si>
+  <si>
+    <t>Playmode.cs</t>
+  </si>
+  <si>
+    <t>ExploreStats.cs</t>
+  </si>
+  <si>
+    <t>ExploreController.cs</t>
+  </si>
+  <si>
+    <t>CameraBehaviour.cs</t>
   </si>
 </sst>
 </file>
@@ -1633,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T179"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,8 +5347,12 @@
       <c r="B8" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="45"/>
+      <c r="C8" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>310</v>
+      </c>
       <c r="E8" s="39"/>
       <c r="F8" s="45"/>
       <c r="H8" s="45"/>
@@ -5349,8 +5365,12 @@
       <c r="B9" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>311</v>
+      </c>
       <c r="E9" s="41"/>
       <c r="F9" s="46"/>
       <c r="H9" s="46"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="317">
   <si>
     <t>Probation Area</t>
   </si>
@@ -927,9 +927,6 @@
     <t>Shader</t>
   </si>
   <si>
-    <t>Characters concepten</t>
-  </si>
-  <si>
     <t>Week 44</t>
   </si>
   <si>
@@ -961,6 +958,24 @@
   </si>
   <si>
     <t>CameraBehaviour.cs</t>
+  </si>
+  <si>
+    <t>Female body</t>
+  </si>
+  <si>
+    <t>Male body</t>
+  </si>
+  <si>
+    <t>3D_CHAR_FemaleBody</t>
+  </si>
+  <si>
+    <t>Victoria &amp; Lara</t>
+  </si>
+  <si>
+    <t>Victoria sculpt. Lara doet de rest</t>
+  </si>
+  <si>
+    <t>3D_CHAR_MaleBody</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,8 +1029,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1227,17 +1248,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1322,13 +1332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1643,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T179"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,7 +3887,7 @@
       <c r="E75" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="52" t="s">
         <v>284</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -4983,53 +4993,69 @@
       <c r="G161" s="2"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="23"/>
+      <c r="A162" s="53"/>
       <c r="B162" s="2" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="5"/>
+        <v>313</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="G162" s="2"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="23"/>
+      <c r="A163" s="53"/>
       <c r="B163" s="2" t="s">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E163" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F163" s="5"/>
       <c r="G163" s="2"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F164" s="5"/>
       <c r="G164" s="2"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D165" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="5"/>
       <c r="G165" s="2"/>
@@ -5037,12 +5063,14 @@
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="5"/>
       <c r="G166" s="2"/>
@@ -5050,114 +5078,130 @@
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E167" s="38" t="s">
-        <v>284</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="E167" s="2"/>
       <c r="F167" s="5"/>
       <c r="G167" s="2"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E168" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="2"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F169" s="5"/>
       <c r="G169" s="2"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D170" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="5"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="24"/>
-      <c r="B171" s="7" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="23"/>
+      <c r="B171" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="23"/>
+      <c r="B172" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="24"/>
+      <c r="B173" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C171" s="17" t="s">
+      <c r="C173" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="2"/>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="25" t="s">
+      <c r="D173" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="23"/>
-      <c r="B174" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="5"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
-      <c r="B175" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="5"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -5166,10 +5210,10 @@
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="9" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -5177,19 +5221,43 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="B178" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="24"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="8"/>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="23"/>
+      <c r="B179" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="23"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="24"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5201,23 +5269,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="46" customWidth="1"/>
+    <col min="8" max="8" width="19" style="45" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="45" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" style="41" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="45" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5231,35 +5299,35 @@
       <c r="C1" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>287</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="K1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="M1" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -5270,13 +5338,13 @@
         <v>281</v>
       </c>
       <c r="C2" s="39"/>
-      <c r="D2" s="45"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="39"/>
-      <c r="F2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="F2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="39"/>
-      <c r="L2" s="45"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
@@ -5284,61 +5352,61 @@
         <v>272</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="46"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="41"/>
-      <c r="F3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="F3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="41"/>
-      <c r="L3" s="46"/>
+      <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="F4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="41"/>
-      <c r="L4" s="46"/>
+      <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="46"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="46"/>
+      <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
-      <c r="D6" s="46"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="J6" s="46"/>
+      <c r="F6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="46"/>
+      <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="42"/>
-      <c r="F7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="F7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="47"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
@@ -5348,17 +5416,17 @@
         <v>295</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>309</v>
       </c>
       <c r="E8" s="39"/>
-      <c r="F8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="J8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="39"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
@@ -5366,65 +5434,65 @@
         <v>296</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>309</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>310</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="F9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="46"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="46"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="F10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="41"/>
-      <c r="L10" s="46"/>
+      <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="F11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="46"/>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="F12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="J12" s="45"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="46"/>
+      <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="F13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="J13" s="45"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="46"/>
+      <c r="L13" s="45"/>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
@@ -5434,13 +5502,13 @@
         <v>297</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="45"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="J14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="39"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
@@ -5448,61 +5516,61 @@
         <v>298</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="46"/>
+      <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="41"/>
-      <c r="L16" s="46"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="F17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="J17" s="45"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="46"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="F18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="J18" s="45"/>
       <c r="K18" s="41"/>
-      <c r="L18" s="46"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="F19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="47"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
@@ -5512,73 +5580,73 @@
         <v>299</v>
       </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="45"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="J20" s="45"/>
+      <c r="F20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="39"/>
-      <c r="L20" s="45"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
-      <c r="D21" s="46"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="J21" s="46"/>
+      <c r="F21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="41"/>
-      <c r="L21" s="46"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="46"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="F22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="41"/>
-      <c r="L22" s="46"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="F23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="J23" s="45"/>
       <c r="K23" s="41"/>
-      <c r="L23" s="46"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="F24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="41"/>
-      <c r="L24" s="46"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="47"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -5590,19 +5658,19 @@
       <c r="C26" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
         <v>153</v>
       </c>
       <c r="E26" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="39"/>
-      <c r="L26" s="45"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
@@ -5612,103 +5680,103 @@
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="50" t="s">
         <v>166</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="H27" s="45"/>
+      <c r="J27" s="45"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="46"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="50" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="H28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="H28" s="45"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="41"/>
-      <c r="L28" s="46"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="F29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="46"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="46"/>
+      <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="F31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="41"/>
-      <c r="L31" s="46"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="41"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="F32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="41"/>
-      <c r="L32" s="46"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -5720,17 +5788,17 @@
       <c r="C33" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D33" s="44" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="J33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="39"/>
-      <c r="L33" s="45"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
@@ -5740,17 +5808,17 @@
       <c r="C34" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="50" t="s">
         <v>117</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="J34" s="46"/>
+      <c r="F34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="41"/>
-      <c r="L34" s="46"/>
+      <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
@@ -5758,101 +5826,101 @@
         <v>58</v>
       </c>
       <c r="C35" s="41"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="F35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="41"/>
-      <c r="L35" s="46"/>
+      <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="41"/>
-      <c r="D36" s="46"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="F36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="41"/>
-      <c r="L36" s="46"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="46"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="F37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="41"/>
-      <c r="L37" s="46"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="41"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="46"/>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="41"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="F39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="41"/>
-      <c r="L39" s="46"/>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="41"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="F40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="46"/>
-    </row>
-    <row r="41" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42" t="s">
+      <c r="L40" s="45"/>
+    </row>
+    <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="47"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -5864,13 +5932,19 @@
       <c r="C42" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="J42" s="45"/>
+      <c r="D42" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="39"/>
-      <c r="L42" s="45"/>
+      <c r="L42" s="44"/>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
@@ -5878,150 +5952,158 @@
         <v>53</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="J43" s="46"/>
+        <v>227</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="41"/>
-      <c r="L43" s="46"/>
+      <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="46"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="J44" s="46"/>
+      <c r="F44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="41"/>
-      <c r="L44" s="46"/>
+      <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
-      <c r="C45" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="46"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="41"/>
-      <c r="F45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="J45" s="46"/>
+      <c r="F45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="41"/>
-      <c r="L45" s="46"/>
+      <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="41"/>
-      <c r="F46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="J46" s="46"/>
+      <c r="F46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="41"/>
-      <c r="L46" s="46"/>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="L46" s="45"/>
+    </row>
+    <row r="47" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="46"/>
       <c r="H47" s="46"/>
       <c r="J47" s="46"/>
-      <c r="K47" s="41"/>
+      <c r="K47" s="42"/>
       <c r="L47" s="46"/>
     </row>
     <row r="48" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="C48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="49"/>
-      <c r="J48" s="45"/>
+      <c r="C48" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="48"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="39"/>
-      <c r="L48" s="45"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="46"/>
+      <c r="C49" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D49" s="45"/>
       <c r="E49" s="41"/>
-      <c r="F49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="J49" s="46"/>
+      <c r="F49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="J49" s="45"/>
       <c r="K49" s="41"/>
-      <c r="L49" s="46"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="41"/>
-      <c r="F50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="J50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="J50" s="45"/>
       <c r="K50" s="41"/>
-      <c r="L50" s="46"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="41"/>
-      <c r="F51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="J51" s="46"/>
+      <c r="F51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="J51" s="45"/>
       <c r="K51" s="41"/>
-      <c r="L51" s="46"/>
+      <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
-      <c r="D52" s="46"/>
+      <c r="D52" s="45"/>
       <c r="E52" s="41"/>
-      <c r="F52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="J52" s="46"/>
+      <c r="F52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="J52" s="45"/>
       <c r="K52" s="41"/>
-      <c r="L52" s="46"/>
-    </row>
-    <row r="53" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="47"/>
+      <c r="L52" s="45"/>
+    </row>
+    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="45"/>
     </row>
     <row r="54" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
@@ -6030,20 +6112,20 @@
       <c r="B54" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>116</v>
       </c>
       <c r="D54" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="J54" s="45"/>
+      <c r="F54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="39"/>
-      <c r="L54" s="45"/>
+      <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
@@ -6053,17 +6135,17 @@
       <c r="C55" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="45" t="s">
         <v>161</v>
       </c>
       <c r="E55" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="J55" s="46"/>
+      <c r="F55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="41"/>
-      <c r="L55" s="46"/>
+      <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
@@ -6071,77 +6153,77 @@
         <v>105</v>
       </c>
       <c r="C56" s="41"/>
-      <c r="D56" s="46"/>
+      <c r="D56" s="45"/>
       <c r="E56" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="J56" s="46"/>
+      <c r="F56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="J56" s="45"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="46"/>
+      <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="45"/>
       <c r="E57" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="J57" s="46"/>
+      <c r="F57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="41"/>
-      <c r="L57" s="46"/>
+      <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
-      <c r="D58" s="46"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="J58" s="46"/>
+      <c r="F58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="41"/>
-      <c r="L58" s="46"/>
+      <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="J59" s="46"/>
+      <c r="F59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="41"/>
-      <c r="L59" s="46"/>
+      <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
-      <c r="D60" s="46"/>
+      <c r="D60" s="45"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="J60" s="46"/>
+      <c r="F60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="41"/>
-      <c r="L60" s="46"/>
+      <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
-      <c r="D61" s="47"/>
+      <c r="D61" s="46"/>
       <c r="E61" s="42"/>
-      <c r="F61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="J61" s="47"/>
+      <c r="F61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="J61" s="46"/>
       <c r="K61" s="42"/>
-      <c r="L61" s="47"/>
+      <c r="L61" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="382">
   <si>
     <t>Probation Area</t>
   </si>
@@ -976,6 +976,201 @@
   </si>
   <si>
     <t>3D_CHAR_MaleBody</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Interact.cs</t>
+  </si>
+  <si>
+    <t>ConversationEffects.cs</t>
+  </si>
+  <si>
+    <t>PuzzleController.cs</t>
+  </si>
+  <si>
+    <t>MenuController.cs</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>PlayMode.cs</t>
+  </si>
+  <si>
+    <t>GameData.cs</t>
+  </si>
+  <si>
+    <t>Settings.cs</t>
+  </si>
+  <si>
+    <t>Puzzles</t>
+  </si>
+  <si>
+    <t>RushHour</t>
+  </si>
+  <si>
+    <t>LaserMaze</t>
+  </si>
+  <si>
+    <t>ShapePuzzle</t>
+  </si>
+  <si>
+    <t>SpotTheDiffrences</t>
+  </si>
+  <si>
+    <t>IconsPuzzle</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>ConversationUI</t>
+  </si>
+  <si>
+    <t>MenuUI</t>
+  </si>
+  <si>
+    <t>PuzzleUI</t>
+  </si>
+  <si>
+    <t>ExploreUI</t>
+  </si>
+  <si>
+    <t>MinimapController</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Level design - Client Cell</t>
+  </si>
+  <si>
+    <t>InventoryUI</t>
+  </si>
+  <si>
+    <t>DayController.cs</t>
+  </si>
+  <si>
+    <t>ConversationController.cs</t>
+  </si>
+  <si>
+    <t>ShapePuzzle.cs</t>
+  </si>
+  <si>
+    <t>RushHour.cs</t>
+  </si>
+  <si>
+    <t>LaserMaze.cs</t>
+  </si>
+  <si>
+    <t>SpotTheDiffrences.cs</t>
+  </si>
+  <si>
+    <t>IconsPuzzle.cs</t>
+  </si>
+  <si>
+    <t>Level design - Hall Area 1</t>
+  </si>
+  <si>
+    <t>Level design - Canteen</t>
+  </si>
+  <si>
+    <t>Level design - Solitary</t>
+  </si>
+  <si>
+    <t>Level design - Recreation room</t>
+  </si>
+  <si>
+    <t>ConversationEffects</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Curtain</t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>Lava lamp big</t>
+  </si>
+  <si>
+    <t>Lava lamp small</t>
+  </si>
+  <si>
+    <t>Lever</t>
+  </si>
+  <si>
+    <t>Class cover</t>
+  </si>
+  <si>
+    <t>Coat hanger</t>
+  </si>
+  <si>
+    <t>Ceiling fan</t>
+  </si>
+  <si>
+    <t>Directors keycard</t>
+  </si>
+  <si>
+    <t>Neuroscience book</t>
+  </si>
+  <si>
+    <t>Anastasia book</t>
+  </si>
+  <si>
+    <t>Lab coat</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_Carpet</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_LavaLampBig</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_LavaLampSmall</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_Lever</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_ClassCover</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_CoatHanger</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_CeilingFan</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_DirectorsKeycard</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_NeuroscienceBook</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_AnastasiaBook</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_LabCoat</t>
+  </si>
+  <si>
+    <t>3D_ENV_LIB_Bookcase</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_Window</t>
+  </si>
+  <si>
+    <t>3D_ENV_OFF_Curtain</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1278,11 +1473,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1336,9 +1568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1653,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T181"/>
+  <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,8 +2289,8 @@
       <c r="E13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>284</v>
+      <c r="F13" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
@@ -2159,7 +2395,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2189,7 +2425,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3887,7 +4123,7 @@
       <c r="E75" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F75" s="52" t="s">
+      <c r="F75" s="51" t="s">
         <v>284</v>
       </c>
       <c r="G75" s="8" t="s">
@@ -4621,77 +4857,63 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="C130" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="C131" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F132" s="38" t="s">
-        <v>284</v>
-      </c>
+      <c r="C132" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
       <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F133" s="38" t="s">
-        <v>284</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>97</v>
+        <v>358</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>369</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -4699,23 +4921,25 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
-      <c r="B135" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="4"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
-        <v>197</v>
+        <v>360</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -4725,69 +4949,79 @@
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="5"/>
-    </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="15"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F137" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="14"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="14"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
-      <c r="B141" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="4"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>200</v>
+      <c r="C142" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>376</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -4796,468 +5030,1041 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>147</v>
+      <c r="C143" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="8"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F144" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
-      <c r="B145" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="4"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="1"/>
       <c r="C146" s="2" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="8"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+      <c r="C147" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F147" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="14"/>
-      <c r="B148" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="4"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="5"/>
-    </row>
-    <row r="150" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="8"/>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="22"/>
-      <c r="B151" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="26"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="23"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="14"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="15"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="26"/>
+      <c r="G153" s="9"/>
     </row>
     <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="18"/>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
+      <c r="A154" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="31" t="s">
+      <c r="A156" s="14"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="14"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="14"/>
+      <c r="B159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="14"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="14"/>
+      <c r="B162" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+      <c r="B165" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+      <c r="B166" s="30"/>
+      <c r="C166" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="26"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+      <c r="B167" s="23"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="26"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="21"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="18"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="9"/>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="32"/>
-      <c r="B157" s="9" t="s">
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="32"/>
+      <c r="B171" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C171" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="9"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="23"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="26"/>
-      <c r="F158" s="9"/>
-    </row>
-    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="24"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="9"/>
-    </row>
-    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="53"/>
-      <c r="B162" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E162" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="53"/>
-      <c r="B163" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E163" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F163" s="5"/>
-      <c r="G163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="23"/>
-      <c r="B164" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E164" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F164" s="5"/>
-      <c r="G164" s="2"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="23"/>
-      <c r="B165" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="23"/>
-      <c r="B166" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="2"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="23"/>
-      <c r="B167" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="2"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="23"/>
-      <c r="B168" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E168" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F168" s="5"/>
-      <c r="G168" s="2"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="23"/>
-      <c r="B169" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E169" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F169" s="5"/>
-      <c r="G169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="23"/>
-      <c r="B170" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E170" s="2"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="2"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="23"/>
-      <c r="B171" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="2"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
-      <c r="B172" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E172" s="2"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="2"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="9"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="24"/>
-      <c r="B173" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C173" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="2"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="9"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="23"/>
-      <c r="B176" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="5"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="23"/>
-      <c r="B177" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="52"/>
+      <c r="B177" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F177" s="5"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
-      <c r="B178" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
+      <c r="B178" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E178" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F178" s="5"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
-      <c r="B179" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D179" s="2"/>
+      <c r="B179" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="5"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="5"/>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="24"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="8"/>
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="23"/>
+      <c r="B181" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="23"/>
+      <c r="B182" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E182" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F182" s="5"/>
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="23"/>
+      <c r="B183" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E183" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F183" s="5"/>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="23"/>
+      <c r="B184" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="23"/>
+      <c r="B185" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="23"/>
+      <c r="B186" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="24"/>
+      <c r="B187" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="23"/>
+      <c r="B190" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="23"/>
+      <c r="B191" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="23"/>
+      <c r="B192" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="23"/>
+      <c r="B193" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="5"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="23"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="24"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E199" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F199" s="5"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="23"/>
+      <c r="C200" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E200" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="23"/>
+      <c r="C201" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E201" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="B202" s="23"/>
+      <c r="C202" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E202" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F202" s="5"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E203" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F203" s="5"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E204" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F204" s="5"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="23"/>
+      <c r="C205" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E205" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E206" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="23"/>
+      <c r="C208" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E208" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E209" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F209" s="5"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E210" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="13"/>
+      <c r="B211" s="24"/>
+      <c r="C211" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E211" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="13"/>
+      <c r="B213" s="23"/>
+      <c r="C213" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E213" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F213" s="5"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+      <c r="B214" s="23"/>
+      <c r="C214" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E214" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F214" s="5"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="23"/>
+      <c r="C215" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E215" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E216" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F216" s="5"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="13"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E217" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E219" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F219" s="5"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E220" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="13"/>
+      <c r="B221" s="23"/>
+      <c r="C221" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E221" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F221" s="5"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E222" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F222" s="5"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E223" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F223" s="5"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="15"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="E224" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F224" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,20 +6076,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="45" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="41" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="45" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" style="41" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="45" customWidth="1"/>
@@ -5293,7 +6100,7 @@
       <c r="A1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="53" t="s">
         <v>285</v>
       </c>
       <c r="C1" s="39" t="s">
@@ -5305,16 +6112,16 @@
       <c r="E1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="47" t="s">
         <v>300</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="47" t="s">
         <v>302</v>
       </c>
       <c r="J1" s="48" t="s">
@@ -5334,240 +6141,302 @@
       <c r="A2" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="39"/>
       <c r="H2" s="44"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="44"/>
       <c r="K2" s="39"/>
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="54" t="s">
         <v>272</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" s="41"/>
       <c r="H3" s="45"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="45"/>
       <c r="K3" s="41"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="41"/>
       <c r="D4" s="45"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="45"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="45"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="45"/>
       <c r="K4" s="41"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="41"/>
       <c r="D5" s="45"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="45"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="45"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="45"/>
       <c r="K5" s="41"/>
       <c r="L5" s="45"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="41"/>
       <c r="D6" s="45"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="45"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="45"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="45"/>
       <c r="K6" s="41"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="7" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="46"/>
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="53" t="s">
         <v>295</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="J8" s="44"/>
+        <v>343</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>326</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="54" t="s">
         <v>296</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="E9" s="41"/>
-      <c r="F9" s="45"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="45"/>
+      <c r="I9" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="J9" s="45"/>
       <c r="K9" s="41"/>
       <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="54" t="s">
+        <v>307</v>
+      </c>
       <c r="C10" s="41"/>
       <c r="D10" s="45"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="45"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="45"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="45"/>
       <c r="K10" s="41"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="54" t="s">
+        <v>308</v>
+      </c>
       <c r="C11" s="41"/>
       <c r="D11" s="45"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="45"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="45"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="45"/>
       <c r="K11" s="41"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="41"/>
       <c r="D12" s="45"/>
       <c r="E12" s="41"/>
-      <c r="F12" s="45"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="45"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="45"/>
       <c r="K12" s="41"/>
       <c r="L12" s="45"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="45"/>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="13" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="44"/>
+      <c r="C14" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="54" t="s">
         <v>298</v>
       </c>
       <c r="C15" s="41"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="45"/>
+      <c r="E15" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="41"/>
       <c r="H15" s="45"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="45"/>
       <c r="K15" s="41"/>
       <c r="L15" s="45"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="B16" s="54" t="s">
+        <v>340</v>
+      </c>
       <c r="C16" s="41"/>
       <c r="D16" s="45"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="45"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="45"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="45"/>
       <c r="K16" s="41"/>
       <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="41"/>
       <c r="D17" s="45"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="45"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="45"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="45"/>
       <c r="K17" s="41"/>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="41"/>
       <c r="D18" s="45"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="45"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="45"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="45"/>
       <c r="K18" s="41"/>
       <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="46"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="46"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="46"/>
       <c r="K19" s="42"/>
       <c r="L19" s="46"/>
@@ -5576,74 +6445,91 @@
       <c r="A20" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>336</v>
+      </c>
       <c r="H20" s="44"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="44"/>
       <c r="K20" s="39"/>
       <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="41"/>
       <c r="D21" s="45"/>
       <c r="E21" s="41"/>
-      <c r="F21" s="45"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="45"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="45"/>
       <c r="K21" s="41"/>
       <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="41"/>
       <c r="D22" s="45"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="45"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="45"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="45"/>
       <c r="K22" s="41"/>
       <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="41"/>
       <c r="D23" s="45"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="45"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="45"/>
       <c r="K23" s="41"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="41"/>
       <c r="D24" s="45"/>
       <c r="E24" s="41"/>
-      <c r="F24" s="45"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="45"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="45"/>
       <c r="K24" s="41"/>
       <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="42"/>
       <c r="D25" s="46"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="46"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="46"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="46"/>
       <c r="K25" s="42"/>
       <c r="L25" s="46"/>
@@ -5652,7 +6538,7 @@
       <c r="A26" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="53" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -5664,17 +6550,19 @@
       <c r="E26" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="G26" s="39"/>
       <c r="H26" s="44"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="44"/>
       <c r="K26" s="39"/>
       <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="54" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="41" t="s">
@@ -5686,17 +6574,19 @@
       <c r="E27" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="G27" s="41"/>
       <c r="H27" s="45"/>
+      <c r="I27" s="41"/>
       <c r="J27" s="45"/>
       <c r="K27" s="41"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="56" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="49" t="s">
@@ -5708,17 +6598,19 @@
       <c r="E28" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="G28" s="41"/>
       <c r="H28" s="45"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="45"/>
       <c r="K28" s="41"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -5726,15 +6618,16 @@
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="45"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="45"/>
+      <c r="I29" s="41"/>
       <c r="J29" s="45"/>
       <c r="K29" s="41"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="41" t="s">
@@ -5742,15 +6635,16 @@
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="45"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="45"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="45"/>
       <c r="K30" s="41"/>
       <c r="L30" s="45"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="56" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="41" t="s">
@@ -5758,22 +6652,24 @@
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="45"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="45"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="45"/>
       <c r="K31" s="41"/>
       <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="56" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="41"/>
       <c r="D32" s="45"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="45"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="45"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="45"/>
       <c r="K32" s="41"/>
       <c r="L32" s="45"/>
@@ -5782,7 +6678,7 @@
       <c r="A33" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="53" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -5794,15 +6690,16 @@
       <c r="E33" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="44"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="44"/>
       <c r="K33" s="39"/>
       <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="54" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="41" t="s">
@@ -5814,15 +6711,16 @@
       <c r="E34" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="45"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="45"/>
       <c r="K34" s="41"/>
       <c r="L34" s="45"/>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="54" t="s">
         <v>58</v>
       </c>
       <c r="C35" s="41"/>
@@ -5830,15 +6728,16 @@
       <c r="E35" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="G35" s="41"/>
       <c r="H35" s="45"/>
+      <c r="I35" s="41"/>
       <c r="J35" s="45"/>
       <c r="K35" s="41"/>
       <c r="L35" s="45"/>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="56" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="41"/>
@@ -5846,78 +6745,84 @@
       <c r="E36" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="45"/>
+      <c r="I36" s="41"/>
       <c r="J36" s="45"/>
       <c r="K36" s="41"/>
       <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="56" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="45"/>
       <c r="E37" s="41"/>
-      <c r="F37" s="45"/>
+      <c r="G37" s="41"/>
       <c r="H37" s="45"/>
+      <c r="I37" s="41"/>
       <c r="J37" s="45"/>
       <c r="K37" s="41"/>
       <c r="L37" s="45"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="56" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="45"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="45"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="45"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="45"/>
       <c r="K38" s="41"/>
       <c r="L38" s="45"/>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="45"/>
       <c r="E39" s="41"/>
-      <c r="F39" s="45"/>
+      <c r="G39" s="41"/>
       <c r="H39" s="45"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="45"/>
       <c r="K39" s="41"/>
       <c r="L39" s="45"/>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="56" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="45"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="45"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="45"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="45"/>
       <c r="K40" s="41"/>
       <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="54" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="45"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="45"/>
+      <c r="G41" s="41"/>
       <c r="H41" s="45"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="45"/>
       <c r="K41" s="41"/>
       <c r="L41" s="45"/>
@@ -5926,7 +6831,7 @@
       <c r="A42" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="53" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="39" t="s">
@@ -5938,17 +6843,19 @@
       <c r="E42" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="40" t="s">
         <v>129</v>
       </c>
+      <c r="G42" s="39"/>
       <c r="H42" s="44"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="44"/>
       <c r="K42" s="39"/>
       <c r="L42" s="44"/>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="54" t="s">
         <v>53</v>
       </c>
       <c r="C43" s="41" t="s">
@@ -5960,60 +6867,66 @@
       <c r="E43" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="G43" s="41"/>
       <c r="H43" s="45"/>
+      <c r="I43" s="41"/>
       <c r="J43" s="45"/>
       <c r="K43" s="41"/>
       <c r="L43" s="45"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="54" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="45"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="45"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="45"/>
+      <c r="I44" s="41"/>
       <c r="J44" s="45"/>
       <c r="K44" s="41"/>
       <c r="L44" s="45"/>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="41"/>
       <c r="D45" s="45"/>
       <c r="E45" s="41"/>
-      <c r="F45" s="45"/>
+      <c r="G45" s="41"/>
       <c r="H45" s="45"/>
+      <c r="I45" s="41"/>
       <c r="J45" s="45"/>
       <c r="K45" s="41"/>
       <c r="L45" s="45"/>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="41"/>
       <c r="D46" s="45"/>
       <c r="E46" s="41"/>
-      <c r="F46" s="45"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="45"/>
+      <c r="I46" s="41"/>
       <c r="J46" s="45"/>
       <c r="K46" s="41"/>
       <c r="L46" s="45"/>
     </row>
     <row r="47" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="42"/>
       <c r="D47" s="46"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="46"/>
+      <c r="G47" s="42"/>
       <c r="H47" s="46"/>
+      <c r="I47" s="42"/>
       <c r="J47" s="46"/>
       <c r="K47" s="42"/>
       <c r="L47" s="46"/>
@@ -6022,7 +6935,7 @@
       <c r="A48" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="57" t="s">
         <v>227</v>
       </c>
       <c r="C48" s="39" t="s">
@@ -6034,73 +6947,79 @@
       <c r="E48" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="G48" s="51"/>
+      <c r="G48" s="47"/>
       <c r="H48" s="48"/>
+      <c r="I48" s="39"/>
       <c r="J48" s="44"/>
       <c r="K48" s="39"/>
       <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="41" t="s">
         <v>316</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="41"/>
-      <c r="F49" s="45"/>
+      <c r="G49" s="41"/>
       <c r="H49" s="45"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="45"/>
       <c r="K49" s="41"/>
       <c r="L49" s="45"/>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="41"/>
       <c r="D50" s="45"/>
       <c r="E50" s="41"/>
-      <c r="F50" s="45"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="45"/>
+      <c r="I50" s="41"/>
       <c r="J50" s="45"/>
       <c r="K50" s="41"/>
       <c r="L50" s="45"/>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="41"/>
       <c r="D51" s="45"/>
       <c r="E51" s="41"/>
-      <c r="F51" s="45"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="45"/>
+      <c r="I51" s="41"/>
       <c r="J51" s="45"/>
       <c r="K51" s="41"/>
       <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
-      <c r="B52" s="41"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="41"/>
       <c r="D52" s="45"/>
       <c r="E52" s="41"/>
-      <c r="F52" s="45"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="45"/>
+      <c r="I52" s="41"/>
       <c r="J52" s="45"/>
       <c r="K52" s="41"/>
       <c r="L52" s="45"/>
     </row>
     <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="41"/>
       <c r="D53" s="45"/>
       <c r="E53" s="41"/>
-      <c r="F53" s="45"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="45"/>
+      <c r="I53" s="41"/>
       <c r="J53" s="45"/>
       <c r="K53" s="41"/>
       <c r="L53" s="45"/>
@@ -6109,7 +7028,7 @@
       <c r="A54" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="53" t="s">
         <v>78</v>
       </c>
       <c r="C54" s="39" t="s">
@@ -6121,15 +7040,16 @@
       <c r="E54" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="F54" s="44"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="44"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="44"/>
       <c r="K54" s="39"/>
       <c r="L54" s="44"/>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="54" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="41" t="s">
@@ -6141,15 +7061,16 @@
       <c r="E55" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="45"/>
+      <c r="I55" s="41"/>
       <c r="J55" s="45"/>
       <c r="K55" s="41"/>
       <c r="L55" s="45"/>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="54" t="s">
         <v>105</v>
       </c>
       <c r="C56" s="41"/>
@@ -6157,70 +7078,76 @@
       <c r="E56" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="45"/>
+      <c r="I56" s="41"/>
       <c r="J56" s="45"/>
       <c r="K56" s="41"/>
       <c r="L56" s="45"/>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="41"/>
       <c r="D57" s="45"/>
       <c r="E57" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="45"/>
+      <c r="I57" s="41"/>
       <c r="J57" s="45"/>
       <c r="K57" s="41"/>
       <c r="L57" s="45"/>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="41"/>
       <c r="D58" s="45"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="45"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="45"/>
+      <c r="I58" s="41"/>
       <c r="J58" s="45"/>
       <c r="K58" s="41"/>
       <c r="L58" s="45"/>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="41"/>
       <c r="D59" s="45"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="45"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="45"/>
+      <c r="I59" s="41"/>
       <c r="J59" s="45"/>
       <c r="K59" s="41"/>
       <c r="L59" s="45"/>
     </row>
     <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="41"/>
       <c r="D60" s="45"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="45"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="45"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="45"/>
       <c r="K60" s="41"/>
       <c r="L60" s="45"/>
     </row>
     <row r="61" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="42"/>
       <c r="D61" s="46"/>
       <c r="E61" s="42"/>
-      <c r="F61" s="46"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="46"/>
+      <c r="I61" s="42"/>
       <c r="J61" s="46"/>
       <c r="K61" s="42"/>
       <c r="L61" s="46"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="380">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1017,9 +1017,6 @@
     <t>LaserMaze</t>
   </si>
   <si>
-    <t>ShapePuzzle</t>
-  </si>
-  <si>
     <t>SpotTheDiffrences</t>
   </si>
   <si>
@@ -1057,9 +1054,6 @@
   </si>
   <si>
     <t>ConversationController.cs</t>
-  </si>
-  <si>
-    <t>ShapePuzzle.cs</t>
   </si>
   <si>
     <t>RushHour.cs</t>
@@ -1889,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T224"/>
+  <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,8 +2015,8 @@
       <c r="E5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>284</v>
+      <c r="F5" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
@@ -2055,8 +2049,8 @@
       <c r="E6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>284</v>
+      <c r="F6" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
@@ -2123,8 +2117,8 @@
       <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>284</v>
+      <c r="F8" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
@@ -2257,8 +2251,8 @@
       <c r="E12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>284</v>
+      <c r="F12" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
@@ -2323,8 +2317,8 @@
       <c r="E14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>284</v>
+      <c r="F14" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
@@ -2389,8 +2383,8 @@
       <c r="E16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>284</v>
+      <c r="F16" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -2417,8 +2411,8 @@
       <c r="E17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>284</v>
+      <c r="F17" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>109</v>
@@ -2449,8 +2443,8 @@
       <c r="E18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="38" t="s">
-        <v>284</v>
+      <c r="F18" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
@@ -2511,8 +2505,8 @@
       <c r="E20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>284</v>
+      <c r="F20" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="2"/>
@@ -2543,8 +2537,8 @@
       <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>284</v>
+      <c r="F21" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="2"/>
@@ -2575,8 +2569,8 @@
       <c r="E22" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>284</v>
+      <c r="F22" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
@@ -2605,8 +2599,8 @@
       <c r="E23" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>284</v>
+      <c r="F23" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
@@ -2635,8 +2629,8 @@
       <c r="E24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>284</v>
+      <c r="F24" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
@@ -2665,8 +2659,8 @@
       <c r="E25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>284</v>
+      <c r="F25" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="2"/>
@@ -4858,10 +4852,10 @@
       <c r="A130" s="14"/>
       <c r="B130" s="1"/>
       <c r="C130" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -4871,10 +4865,10 @@
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
       <c r="C131" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -4884,10 +4878,10 @@
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
       <c r="C132" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4897,10 +4891,10 @@
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -4910,10 +4904,10 @@
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -4923,10 +4917,10 @@
       <c r="A135" s="14"/>
       <c r="B135" s="1"/>
       <c r="C135" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -4936,10 +4930,10 @@
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -4966,10 +4960,10 @@
       <c r="A138" s="14"/>
       <c r="B138" s="1"/>
       <c r="C138" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -4979,10 +4973,10 @@
       <c r="A139" s="14"/>
       <c r="B139" s="1"/>
       <c r="C139" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -4992,10 +4986,10 @@
       <c r="A140" s="14"/>
       <c r="B140" s="1"/>
       <c r="C140" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -5005,10 +4999,10 @@
       <c r="A141" s="14"/>
       <c r="B141" s="1"/>
       <c r="C141" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -5018,10 +5012,10 @@
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -5031,10 +5025,10 @@
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
       <c r="C143" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -5298,10 +5292,10 @@
       <c r="A164" s="14"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5695,7 +5689,7 @@
         <v>17</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>282</v>
@@ -5723,8 +5717,8 @@
       <c r="D199" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E199" s="38" t="s">
-        <v>284</v>
+      <c r="E199" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="F199" s="5"/>
     </row>
@@ -5737,8 +5731,8 @@
       <c r="D200" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E200" s="38" t="s">
-        <v>284</v>
+      <c r="E200" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="F200" s="5"/>
     </row>
@@ -5760,7 +5754,7 @@
       <c r="A202" s="13"/>
       <c r="B202" s="23"/>
       <c r="C202" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>289</v>
@@ -5845,8 +5839,8 @@
       <c r="D208" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E208" s="38" t="s">
-        <v>284</v>
+      <c r="E208" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="F208" s="5"/>
     </row>
@@ -5868,7 +5862,7 @@
       <c r="A210" s="13"/>
       <c r="B210" s="23"/>
       <c r="C210" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>289</v>
@@ -5936,51 +5930,51 @@
       <c r="C215" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E215" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D216" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E215" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E216" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="7" t="s">
+      <c r="B217" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="D217" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E217" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F217" s="8"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
-      <c r="B218" s="25" t="s">
+      <c r="B218" s="23"/>
+      <c r="C218" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="4"/>
+      <c r="D218" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E218" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
@@ -5988,8 +5982,8 @@
       <c r="C219" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>289</v>
+      <c r="D219" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="E219" s="38" t="s">
         <v>284</v>
@@ -6003,7 +5997,7 @@
         <v>335</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E220" s="38" t="s">
         <v>284</v>
@@ -6017,7 +6011,7 @@
         <v>336</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E221" s="38" t="s">
         <v>284</v>
@@ -6027,44 +6021,30 @@
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
       <c r="B222" s="23"/>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E222" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F222" s="5"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="15"/>
+      <c r="B223" s="24"/>
+      <c r="C223" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D222" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E222" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F222" s="5"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="23"/>
-      <c r="C223" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E223" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F223" s="5"/>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="15"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E224" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="F224" s="8"/>
+      <c r="E223" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F223" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6076,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,13 +6125,13 @@
         <v>281</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="44"/>
@@ -6167,9 +6147,7 @@
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="41" t="s">
-        <v>335</v>
-      </c>
+      <c r="E3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="45"/>
       <c r="I3" s="41"/>
@@ -6240,10 +6218,10 @@
         <v>309</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>322</v>
@@ -6252,10 +6230,10 @@
         <v>321</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J8" s="44" t="s">
         <v>326</v>
@@ -6278,7 +6256,7 @@
       <c r="G9" s="41"/>
       <c r="H9" s="45"/>
       <c r="I9" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="41"/>
@@ -6348,22 +6326,22 @@
         <v>297</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D14" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>351</v>
-      </c>
       <c r="F14" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>352</v>
-      </c>
       <c r="H14" s="45" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="45"/>
@@ -6390,7 +6368,7 @@
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="45"/>
@@ -6449,19 +6427,19 @@
         <v>299</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="39"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,8 +1981,8 @@
       <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>284</v>
+      <c r="F4" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
@@ -2807,8 +2807,8 @@
       <c r="E30" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="38" t="s">
-        <v>284</v>
+      <c r="F30" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>109</v>
@@ -2837,8 +2837,8 @@
       <c r="E31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F31" s="38" t="s">
-        <v>284</v>
+      <c r="F31" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>109</v>
@@ -6056,7 +6056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="381">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1165,6 +1165,9 @@
   </si>
   <si>
     <t>Bookcase</t>
+  </si>
+  <si>
+    <t>3D_CHAR_Assistent1</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1569,6 +1572,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1885,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,7 +2233,9 @@
       <c r="J11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2260,7 +2267,9 @@
       <c r="J12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2749,8 +2758,8 @@
       <c r="E28" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F28" s="38" t="s">
-        <v>284</v>
+      <c r="F28" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
@@ -2867,8 +2876,8 @@
       <c r="E32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="38" t="s">
-        <v>284</v>
+      <c r="F32" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>109</v>
@@ -3041,8 +3050,8 @@
       <c r="E38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F38" s="38" t="s">
-        <v>284</v>
+      <c r="F38" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>109</v>
@@ -3597,8 +3606,8 @@
       <c r="E57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F57" s="38" t="s">
-        <v>284</v>
+      <c r="F57" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>109</v>
@@ -3627,8 +3636,8 @@
       <c r="E58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="38" t="s">
-        <v>284</v>
+      <c r="F58" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>109</v>
@@ -3961,8 +3970,8 @@
       <c r="E70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="38" t="s">
-        <v>284</v>
+      <c r="F70" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>109</v>
@@ -4247,8 +4256,8 @@
       <c r="E83" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="38" t="s">
-        <v>284</v>
+      <c r="F83" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>109</v>
@@ -4264,8 +4273,8 @@
       <c r="E84" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F84" s="38" t="s">
-        <v>284</v>
+      <c r="F84" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>109</v>
@@ -4281,8 +4290,8 @@
       <c r="E85" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F85" s="38" t="s">
-        <v>284</v>
+      <c r="F85" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>109</v>
@@ -4382,8 +4391,8 @@
       <c r="E94" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F94" s="38" t="s">
-        <v>284</v>
+      <c r="F94" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>109</v>
@@ -4438,8 +4447,8 @@
       <c r="E98" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F98" s="38" t="s">
-        <v>284</v>
+      <c r="F98" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>109</v>
@@ -4455,8 +4464,8 @@
       <c r="E99" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F99" s="38" t="s">
-        <v>284</v>
+      <c r="F99" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>109</v>
@@ -4574,8 +4583,8 @@
       <c r="E108" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F108" s="38" t="s">
-        <v>284</v>
+      <c r="F108" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>109</v>
@@ -4588,7 +4597,9 @@
         <v>235</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="F109" s="9"/>
       <c r="G109" s="5" t="s">
         <v>109</v>
@@ -4949,8 +4960,8 @@
       <c r="E137" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F137" s="38" t="s">
-        <v>284</v>
+      <c r="F137" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>109</v>
@@ -5044,8 +5055,8 @@
       <c r="E144" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F144" s="38" t="s">
-        <v>284</v>
+      <c r="F144" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>109</v>
@@ -5061,7 +5072,9 @@
       <c r="E145" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F145" s="2"/>
+      <c r="F145" s="37" t="s">
+        <v>283</v>
+      </c>
       <c r="G145" s="5" t="s">
         <v>109</v>
       </c>
@@ -5078,8 +5091,8 @@
       <c r="E146" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F146" s="38" t="s">
-        <v>284</v>
+      <c r="F146" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -5395,7 +5408,7 @@
       <c r="A175" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -5414,7 +5427,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="22" t="s">
         <v>311</v>
       </c>
       <c r="C176" s="2" t="s">
@@ -5433,7 +5446,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="52"/>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="22" t="s">
         <v>312</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -5450,7 +5463,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -5459,15 +5472,13 @@
       <c r="D178" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E178" s="38" t="s">
-        <v>284</v>
-      </c>
+      <c r="E178" s="9"/>
       <c r="F178" s="5"/>
       <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="22" t="s">
         <v>213</v>
       </c>
       <c r="C179" s="2" t="s">
@@ -5476,13 +5487,15 @@
       <c r="D179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E179" s="2"/>
+      <c r="E179" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F179" s="5"/>
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="22" t="s">
         <v>214</v>
       </c>
       <c r="C180" s="9" t="s">
@@ -5497,7 +5510,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="22" t="s">
         <v>215</v>
       </c>
       <c r="C181" s="9" t="s">
@@ -5512,7 +5525,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="22" t="s">
         <v>216</v>
       </c>
       <c r="C182" s="9" t="s">
@@ -5529,7 +5542,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="22" t="s">
         <v>217</v>
       </c>
       <c r="C183" s="9" t="s">
@@ -5546,7 +5559,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="22" t="s">
         <v>218</v>
       </c>
       <c r="C184" s="9" t="s">
@@ -5561,7 +5574,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="22" t="s">
         <v>219</v>
       </c>
       <c r="C185" s="9" t="s">
@@ -5576,7 +5589,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C186" s="9" t="s">
@@ -5591,7 +5604,7 @@
     </row>
     <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="24"/>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="59" t="s">
         <v>221</v>
       </c>
       <c r="C187" s="17" t="s">
@@ -5600,7 +5613,9 @@
       <c r="D187" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E187" s="7"/>
+      <c r="E187" s="51" t="s">
+        <v>284</v>
+      </c>
       <c r="F187" s="8"/>
       <c r="G187" s="2"/>
     </row>
@@ -5947,8 +5962,8 @@
       <c r="D216" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E216" s="38" t="s">
-        <v>284</v>
+      <c r="E216" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="F216" s="8"/>
     </row>
@@ -6054,19 +6069,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="45" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" style="41" customWidth="1"/>
@@ -6086,13 +6101,13 @@
       <c r="C1" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>287</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="44" t="s">
         <v>294</v>
       </c>
       <c r="G1" s="47" t="s">
@@ -6127,12 +6142,13 @@
       <c r="C2" s="39" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="40" t="s">
         <v>346</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>334</v>
       </c>
+      <c r="F2" s="44"/>
       <c r="G2" s="39"/>
       <c r="H2" s="44"/>
       <c r="I2" s="39"/>
@@ -6146,8 +6162,8 @@
         <v>272</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="45"/>
       <c r="E3" s="41"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="41"/>
       <c r="H3" s="45"/>
       <c r="I3" s="41"/>
@@ -6159,8 +6175,8 @@
       <c r="A4" s="41"/>
       <c r="B4" s="54"/>
       <c r="C4" s="41"/>
-      <c r="D4" s="45"/>
       <c r="E4" s="41"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="41"/>
       <c r="H4" s="45"/>
       <c r="I4" s="41"/>
@@ -6168,38 +6184,70 @@
       <c r="K4" s="41"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="45"/>
+    <row r="5" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="E6" s="41"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="41"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="41"/>
+      <c r="I6" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="J6" s="45"/>
       <c r="K6" s="41"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>307</v>
+      </c>
       <c r="C7" s="41"/>
-      <c r="D7" s="45"/>
       <c r="E7" s="41"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="41"/>
       <c r="H7" s="45"/>
       <c r="I7" s="41"/>
@@ -6207,71 +6255,59 @@
       <c r="K7" s="41"/>
       <c r="L7" s="45"/>
     </row>
-    <row r="8" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="45"/>
+    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="41" t="s">
+        <v>290</v>
+      </c>
       <c r="B10" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="45"/>
+        <v>297</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>348</v>
+      </c>
       <c r="I10" s="41"/>
       <c r="J10" s="45"/>
       <c r="K10" s="41"/>
@@ -6280,11 +6316,13 @@
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="54" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C11" s="41"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="45"/>
       <c r="G11" s="41"/>
       <c r="H11" s="45"/>
       <c r="I11" s="41"/>
@@ -6294,10 +6332,12 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54" t="s">
+        <v>339</v>
+      </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="45"/>
       <c r="E12" s="41"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="41"/>
       <c r="H12" s="45"/>
       <c r="I12" s="41"/>
@@ -6309,8 +6349,8 @@
       <c r="A13" s="42"/>
       <c r="B13" s="55"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="46"/>
       <c r="E13" s="42"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="42"/>
       <c r="H13" s="46"/>
       <c r="I13" s="42"/>
@@ -6318,46 +6358,40 @@
       <c r="K13" s="42"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>350</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="45"/>
+    <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
-      <c r="B15" s="54" t="s">
-        <v>298</v>
-      </c>
+      <c r="B15" s="54"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="41" t="s">
-        <v>325</v>
-      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="41"/>
       <c r="H15" s="45"/>
       <c r="I15" s="41"/>
@@ -6365,28 +6399,54 @@
       <c r="K15" s="41"/>
       <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="45"/>
+    <row r="16" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>183</v>
+      </c>
       <c r="H17" s="45"/>
       <c r="I17" s="41"/>
       <c r="J17" s="45"/>
@@ -6395,64 +6455,72 @@
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="45"/>
+      <c r="B18" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="E18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="F18" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>140</v>
+      </c>
       <c r="H18" s="45"/>
       <c r="I18" s="41"/>
       <c r="J18" s="45"/>
       <c r="K18" s="41"/>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="44"/>
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
-      <c r="B21" s="54"/>
+      <c r="B21" s="56" t="s">
+        <v>74</v>
+      </c>
       <c r="C21" s="41"/>
-      <c r="D21" s="45"/>
       <c r="E21" s="41"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="41"/>
       <c r="H21" s="45"/>
       <c r="I21" s="41"/>
@@ -6460,25 +6528,38 @@
       <c r="K21" s="41"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="45"/>
+    <row r="22" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>185</v>
+      </c>
       <c r="G23" s="41"/>
       <c r="H23" s="45"/>
       <c r="I23" s="41"/>
@@ -6488,10 +6569,19 @@
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
-      <c r="B24" s="54"/>
+      <c r="B24" s="54" t="s">
+        <v>81</v>
+      </c>
       <c r="C24" s="41"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="G24" s="41"/>
       <c r="H24" s="45"/>
       <c r="I24" s="41"/>
@@ -6499,62 +6589,46 @@
       <c r="K24" s="41"/>
       <c r="L24" s="45"/>
     </row>
-    <row r="25" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="46"/>
-    </row>
-    <row r="26" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="44"/>
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="E25" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="45"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="45"/>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="B27" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="41"/>
       <c r="H27" s="45"/>
       <c r="I27" s="41"/>
@@ -6565,20 +6639,11 @@
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="41"/>
       <c r="H28" s="45"/>
       <c r="I28" s="41"/>
@@ -6589,13 +6654,11 @@
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="45"/>
+        <v>73</v>
+      </c>
+      <c r="C29" s="41"/>
       <c r="E29" s="41"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="41"/>
       <c r="H29" s="45"/>
       <c r="I29" s="41"/>
@@ -6606,13 +6669,11 @@
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="45"/>
+        <v>72</v>
+      </c>
+      <c r="C30" s="41"/>
       <c r="E30" s="41"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="41"/>
       <c r="H30" s="45"/>
       <c r="I30" s="41"/>
@@ -6620,31 +6681,40 @@
       <c r="K30" s="41"/>
       <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="45"/>
+    <row r="31" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="41"/>
+      <c r="A32" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>129</v>
+      </c>
       <c r="G32" s="41"/>
       <c r="H32" s="45"/>
       <c r="I32" s="41"/>
@@ -6652,43 +6722,38 @@
       <c r="K32" s="41"/>
       <c r="L32" s="45"/>
     </row>
-    <row r="33" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="44"/>
+    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>142</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="41"/>
       <c r="H34" s="45"/>
       <c r="I34" s="41"/>
@@ -6698,14 +6763,10 @@
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="54" t="s">
-        <v>58</v>
-      </c>
+      <c r="B35" s="54"/>
       <c r="C35" s="41"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="41" t="s">
-        <v>145</v>
-      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="41"/>
       <c r="H35" s="45"/>
       <c r="I35" s="41"/>
@@ -6713,33 +6774,45 @@
       <c r="K35" s="41"/>
       <c r="L35" s="45"/>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="45"/>
+    <row r="36" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" s="48"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="44"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="56" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="45"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="41"/>
       <c r="J37" s="45"/>
       <c r="K37" s="41"/>
@@ -6747,12 +6820,12 @@
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
-      <c r="B38" s="56" t="s">
-        <v>64</v>
+      <c r="B38" s="54" t="s">
+        <v>313</v>
       </c>
       <c r="C38" s="41"/>
-      <c r="D38" s="45"/>
       <c r="E38" s="41"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="41"/>
       <c r="H38" s="45"/>
       <c r="I38" s="41"/>
@@ -6760,29 +6833,38 @@
       <c r="K38" s="41"/>
       <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="45"/>
+    <row r="39" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="41"/>
+      <c r="A40" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>182</v>
+      </c>
       <c r="G40" s="41"/>
       <c r="H40" s="45"/>
       <c r="I40" s="41"/>
@@ -6793,11 +6875,18 @@
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="54" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C41" s="41"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>158</v>
+      </c>
       <c r="G41" s="41"/>
       <c r="H41" s="45"/>
       <c r="I41" s="41"/>
@@ -6805,330 +6894,35 @@
       <c r="K41" s="41"/>
       <c r="L41" s="45"/>
     </row>
-    <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="44"/>
-    </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="45"/>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="45"/>
-    </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="45"/>
-    </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="45"/>
-    </row>
-    <row r="47" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="46"/>
-    </row>
-    <row r="48" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="44"/>
-    </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="45"/>
-    </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="45"/>
-    </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="45"/>
-    </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="45"/>
-    </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="45"/>
-    </row>
-    <row r="54" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="44"/>
-    </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="G55" s="41"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="45"/>
-    </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="41" t="s">
+    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="41"/>
+      <c r="E42" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="41"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="45"/>
-    </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="45"/>
-    </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="45"/>
-    </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="45"/>
-    </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="45"/>
-    </row>
-    <row r="61" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="46"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="45"/>
+    </row>
+    <row r="43" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1890,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
@@ -6071,8 +6071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1890,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T223"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,8 +2358,8 @@
       <c r="E15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>284</v>
+      <c r="F15" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>208</v>
@@ -2938,8 +2938,8 @@
       <c r="E34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="38" t="s">
-        <v>284</v>
+      <c r="F34" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="2"/>
@@ -6071,7 +6071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="382">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1168,6 +1168,9 @@
   </si>
   <si>
     <t>3D_CHAR_Assistent1</t>
+  </si>
+  <si>
+    <t>3D_ENV_GEN_TrashCan</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1574,6 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1888,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T223"/>
+  <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,10 +2158,10 @@
         <v>121</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>284</v>
+        <v>138</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
@@ -2908,8 +2912,8 @@
       <c r="E33" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F33" s="38" t="s">
-        <v>284</v>
+      <c r="F33" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
@@ -3082,8 +3086,8 @@
       <c r="E39" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F39" s="38" t="s">
-        <v>284</v>
+      <c r="F39" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="2"/>
@@ -3108,10 +3112,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>284</v>
+        <v>138</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>109</v>
@@ -3140,10 +3144,10 @@
         <v>129</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>284</v>
+        <v>138</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2"/>
@@ -3752,8 +3756,8 @@
       <c r="E62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="38" t="s">
-        <v>284</v>
+      <c r="F62" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="2"/>
@@ -3770,7 +3774,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="23"/>
       <c r="C63" s="9" t="s">
@@ -3782,8 +3786,8 @@
       <c r="E63" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F63" s="38" t="s">
-        <v>284</v>
+      <c r="F63" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="2"/>
@@ -3800,14 +3804,16 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
     </row>
-    <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="5"/>
+      <c r="B64" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3822,16 +3828,22 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
-      <c r="B65" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="4"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="5"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -3847,21 +3859,15 @@
       <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G66" s="5"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3876,16 +3882,22 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
-      <c r="B67" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="29"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -3904,13 +3916,13 @@
       <c r="A68" s="9"/>
       <c r="B68" s="23"/>
       <c r="C68" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>284</v>
@@ -3934,18 +3946,18 @@
       <c r="A69" s="9"/>
       <c r="B69" s="23"/>
       <c r="C69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G69" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3963,19 +3975,19 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="2"/>
+      <c r="C70" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="E70" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="F70" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="G70" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G70" s="5"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -3994,16 +4006,16 @@
       <c r="A71" s="9"/>
       <c r="B71" s="23"/>
       <c r="C71" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>284</v>
+        <v>115</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -4024,18 +4036,20 @@
       <c r="A72" s="9"/>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G72" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4054,16 +4068,16 @@
       <c r="A73" s="9"/>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F73" s="38" t="s">
-        <v>284</v>
+      <c r="F73" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>173</v>
@@ -4082,22 +4096,22 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E74" s="9" t="s">
+    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="G74" s="5" t="s">
+      <c r="F74" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>173</v>
       </c>
       <c r="H74" s="2"/>
@@ -4115,23 +4129,13 @@
       <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4147,112 +4151,107 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="A76" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13"/>
       <c r="B79" s="1"/>
       <c r="C79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="5"/>
+      <c r="B80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="1"/>
+      <c r="C81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
+      <c r="D81" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="1"/>
       <c r="C82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="1"/>
       <c r="C83" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
         <v>138</v>
       </c>
@@ -4263,60 +4262,52 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="2"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="7"/>
       <c r="E84" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F85" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
-      <c r="B86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="5"/>
@@ -4339,73 +4330,77 @@
       <c r="F89" s="2"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="8"/>
+      <c r="B91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
-      <c r="B92" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="1"/>
       <c r="C94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F94" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -4414,11 +4409,11 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="2" t="s">
-        <v>47</v>
+      <c r="C96" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4428,20 +4423,24 @@
       <c r="A97" s="14"/>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F97" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
@@ -4454,42 +4453,38 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
-      <c r="B100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="4"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
       <c r="C101" s="2" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -4499,10 +4494,10 @@
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -4512,10 +4507,10 @@
       <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -4524,24 +4519,24 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
+      <c r="C104" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>101</v>
+        <v>236</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -4551,10 +4546,10 @@
       <c r="A106" s="14"/>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -4564,24 +4559,28 @@
       <c r="A107" s="14"/>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="1"/>
       <c r="C108" s="9" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="F108" s="37" t="s">
         <v>283</v>
@@ -4594,25 +4593,23 @@
       <c r="A109" s="14"/>
       <c r="B109" s="1"/>
       <c r="C109" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F109" s="9"/>
-      <c r="G109" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="1"/>
       <c r="C110" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4622,23 +4619,23 @@
       <c r="A111" s="14"/>
       <c r="B111" s="1"/>
       <c r="C111" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
       <c r="C112" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>260</v>
+        <v>241</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>261</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -4648,10 +4645,10 @@
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
       <c r="C113" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -4661,10 +4658,10 @@
       <c r="A114" s="14"/>
       <c r="B114" s="1"/>
       <c r="C114" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D114" s="33" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -4674,10 +4671,10 @@
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
       <c r="C115" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -4687,10 +4684,10 @@
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -4700,10 +4697,10 @@
       <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="9" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -4713,10 +4710,10 @@
       <c r="A118" s="14"/>
       <c r="B118" s="1"/>
       <c r="C118" s="9" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -4726,10 +4723,10 @@
       <c r="A119" s="14"/>
       <c r="B119" s="1"/>
       <c r="C119" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D119" s="33" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="D119" s="34" t="s">
+        <v>267</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -4739,10 +4736,10 @@
       <c r="A120" s="14"/>
       <c r="B120" s="1"/>
       <c r="C120" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D120" s="34" t="s">
-        <v>267</v>
+        <v>248</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>268</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -4752,10 +4749,10 @@
       <c r="A121" s="14"/>
       <c r="B121" s="1"/>
       <c r="C121" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -4765,10 +4762,10 @@
       <c r="A122" s="14"/>
       <c r="B122" s="1"/>
       <c r="C122" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -4778,10 +4775,10 @@
       <c r="A123" s="14"/>
       <c r="B123" s="1"/>
       <c r="C123" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -4791,10 +4788,10 @@
       <c r="A124" s="14"/>
       <c r="B124" s="1"/>
       <c r="C124" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>269</v>
+        <v>252</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -4804,56 +4801,56 @@
       <c r="A125" s="14"/>
       <c r="B125" s="1"/>
       <c r="C125" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D125" s="35" t="s">
-        <v>270</v>
+        <v>253</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D126" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="8"/>
+      <c r="B127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
-      <c r="B128" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="4"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>194</v>
+      <c r="C129" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -4863,10 +4860,10 @@
       <c r="A130" s="14"/>
       <c r="B130" s="1"/>
       <c r="C130" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -4876,10 +4873,10 @@
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
       <c r="C131" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -4889,10 +4886,10 @@
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
       <c r="C132" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4902,10 +4899,10 @@
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -4915,10 +4912,10 @@
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -4928,10 +4925,10 @@
       <c r="A135" s="14"/>
       <c r="B135" s="1"/>
       <c r="C135" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -4941,40 +4938,40 @@
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F136" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F137" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="1"/>
       <c r="C138" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -4984,10 +4981,10 @@
       <c r="A139" s="14"/>
       <c r="B139" s="1"/>
       <c r="C139" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -4997,10 +4994,10 @@
       <c r="A140" s="14"/>
       <c r="B140" s="1"/>
       <c r="C140" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -5010,10 +5007,10 @@
       <c r="A141" s="14"/>
       <c r="B141" s="1"/>
       <c r="C141" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -5023,10 +5020,10 @@
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -5035,21 +5032,25 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="5"/>
+      <c r="C143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="1"/>
       <c r="C144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
@@ -5066,27 +5067,27 @@
       <c r="A145" s="14"/>
       <c r="B145" s="1"/>
       <c r="C145" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D145" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="E145" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F145" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="1"/>
-      <c r="C146" s="2" t="s">
-        <v>93</v>
+      <c r="C146" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>138</v>
@@ -5096,342 +5097,348 @@
       </c>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="1"/>
       <c r="C147" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F147" s="38" t="s">
-        <v>284</v>
+      <c r="F147" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G147" s="5"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="5"/>
+      <c r="B148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
-      <c r="B149" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="4"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="1"/>
       <c r="C150" s="9" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="5"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="5"/>
+    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="15"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="15"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="8"/>
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-    </row>
-    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="16" t="s">
+      <c r="A153" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3" t="s">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="14"/>
+      <c r="B154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="4"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="5"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="5"/>
-    </row>
-    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="8"/>
+      <c r="B158" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
-      <c r="B159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+      <c r="C159" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="5"/>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="8"/>
+      <c r="B161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
-      <c r="B162" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="5"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="8"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="22"/>
-      <c r="B165" s="25" t="s">
+      <c r="A164" s="22"/>
+      <c r="B164" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="4"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="26"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>206</v>
-      </c>
+      <c r="B166" s="23"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
       <c r="G166" s="26"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="26"/>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="21"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="18"/>
     </row>
     <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="21"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="18"/>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="29"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="29"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="32"/>
+      <c r="B170" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D170" s="9"/>
+      <c r="E170" s="26"/>
       <c r="F170" s="9"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="32"/>
-      <c r="B171" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>150</v>
-      </c>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="23"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="26"/>
       <c r="F171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="23"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="26"/>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="24"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="18"/>
       <c r="F172" s="9"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="24"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="9"/>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="2"/>
+    </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B175" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>8</v>
+      <c r="A175" s="52"/>
+      <c r="B175" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
       <c r="B176" s="22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>314</v>
@@ -5439,67 +5446,63 @@
       <c r="E176" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>315</v>
-      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="52"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="22" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E177" s="38" t="s">
-        <v>284</v>
-      </c>
+      <c r="E177" s="9"/>
       <c r="F177" s="5"/>
       <c r="G177" s="2"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E178" s="9"/>
+      <c r="E178" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F178" s="5"/>
       <c r="G178" s="2"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E179" s="38" t="s">
-        <v>284</v>
-      </c>
+      <c r="E179" s="2"/>
       <c r="F179" s="5"/>
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>314</v>
@@ -5511,25 +5514,27 @@
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E181" s="2"/>
+      <c r="E181" s="38" t="s">
+        <v>284</v>
+      </c>
       <c r="F181" s="5"/>
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>314</v>
@@ -5543,27 +5548,25 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E183" s="38" t="s">
-        <v>284</v>
-      </c>
+      <c r="E183" s="2"/>
       <c r="F183" s="5"/>
       <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>314</v>
@@ -5575,10 +5578,10 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>314</v>
@@ -5587,56 +5590,53 @@
       <c r="F185" s="5"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="23"/>
-      <c r="B186" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D186" s="2" t="s">
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="24"/>
+      <c r="B186" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D186" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="5"/>
+      <c r="E186" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F186" s="8"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="24"/>
-      <c r="B187" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="C187" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E187" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="F187" s="8"/>
-      <c r="G187" s="2"/>
-    </row>
-    <row r="188" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="4"/>
+    </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="4"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="9" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5645,10 +5645,10 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="9" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5657,10 +5657,10 @@
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5668,66 +5668,68 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
-      <c r="B193" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="23"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="5"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="24"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="8"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="197" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="16" t="s">
+    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="24"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3" t="s">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E196" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F197" s="29" t="s">
+      <c r="F196" s="29" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
-      <c r="B198" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="4"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E198" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="23"/>
       <c r="C199" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>289</v>
@@ -5741,21 +5743,21 @@
       <c r="A200" s="13"/>
       <c r="B200" s="23"/>
       <c r="C200" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D200" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D200" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E200" s="37" t="s">
-        <v>283</v>
+      <c r="E200" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
       <c r="B201" s="23"/>
-      <c r="C201" s="2" t="s">
-        <v>319</v>
+      <c r="C201" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>289</v>
@@ -5768,8 +5770,8 @@
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="23"/>
-      <c r="C202" s="9" t="s">
-        <v>342</v>
+      <c r="C202" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>289</v>
@@ -5783,7 +5785,7 @@
       <c r="A203" s="13"/>
       <c r="B203" s="23"/>
       <c r="C203" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>289</v>
@@ -5797,7 +5799,7 @@
       <c r="A204" s="13"/>
       <c r="B204" s="23"/>
       <c r="C204" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>289</v>
@@ -5807,13 +5809,13 @@
       </c>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="13"/>
       <c r="B205" s="23"/>
       <c r="C205" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D205" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E205" s="38" t="s">
@@ -5821,104 +5823,104 @@
       </c>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
-      <c r="B206" s="23"/>
-      <c r="C206" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E206" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F206" s="5"/>
+      <c r="B206" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
-      <c r="B207" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="4"/>
+      <c r="B207" s="23"/>
+      <c r="C207" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="23"/>
       <c r="C208" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E208" s="37" t="s">
-        <v>283</v>
+        <v>290</v>
+      </c>
+      <c r="E208" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="23"/>
-      <c r="C209" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>290</v>
+      <c r="C209" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="E209" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="13"/>
-      <c r="B210" s="23"/>
-      <c r="C210" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D210" s="9" t="s">
+      <c r="B210" s="24"/>
+      <c r="C210" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D210" s="7" t="s">
         <v>289</v>
       </c>
       <c r="E210" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F210" s="5"/>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E211" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F211" s="8"/>
+      <c r="B211" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
-      <c r="B212" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="4"/>
+      <c r="B212" s="23"/>
+      <c r="C212" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E212" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
       <c r="C213" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E213" s="38" t="s">
         <v>284</v>
@@ -5929,62 +5931,62 @@
       <c r="A214" s="13"/>
       <c r="B214" s="23"/>
       <c r="C214" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E214" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="13"/>
-      <c r="B215" s="23"/>
-      <c r="C215" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E215" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F215" s="5"/>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="24"/>
+      <c r="C215" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E215" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D216" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E216" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="F216" s="8"/>
+      <c r="B216" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="4"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
-      <c r="B217" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="4"/>
+      <c r="B217" s="23"/>
+      <c r="C217" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E217" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="23"/>
       <c r="C218" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>289</v>
+        <v>334</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="E218" s="38" t="s">
         <v>284</v>
@@ -5995,10 +5997,10 @@
       <c r="A219" s="13"/>
       <c r="B219" s="23"/>
       <c r="C219" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E219" s="38" t="s">
         <v>284</v>
@@ -6009,10 +6011,10 @@
       <c r="A220" s="13"/>
       <c r="B220" s="23"/>
       <c r="C220" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E220" s="38" t="s">
         <v>284</v>
@@ -6022,44 +6024,30 @@
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="23"/>
-      <c r="C221" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>289</v>
+      <c r="C221" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="E221" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
-      <c r="B222" s="23"/>
-      <c r="C222" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D222" s="2" t="s">
+    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="15"/>
+      <c r="B222" s="24"/>
+      <c r="C222" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D222" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E222" s="38" t="s">
+      <c r="E222" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="F222" s="5"/>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="15"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E223" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="F223" s="8"/>
+      <c r="F222" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6071,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6410,7 +6398,7 @@
         <v>178</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="E16" s="47" t="s">
         <v>166</v>
@@ -6501,9 +6489,6 @@
         <v>83</v>
       </c>
       <c r="C20" s="41"/>
-      <c r="D20" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E20" s="41"/>
       <c r="F20" s="45"/>
       <c r="G20" s="41"/>
@@ -6572,7 +6557,9 @@
       <c r="B24" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="41" t="s">
+        <v>129</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>96</v>
       </c>
@@ -6595,6 +6582,9 @@
         <v>58</v>
       </c>
       <c r="C25" s="41"/>
+      <c r="D25" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="E25" s="41" t="s">
         <v>152</v>
       </c>
@@ -6612,7 +6602,9 @@
         <v>62</v>
       </c>
       <c r="C26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="41" t="s">
+        <v>153</v>
+      </c>
       <c r="F26" s="45"/>
       <c r="G26" s="41"/>
       <c r="H26" s="45"/>
@@ -6704,17 +6696,13 @@
         <v>52</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="45" t="s">
-        <v>129</v>
-      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="41"/>
       <c r="H32" s="45"/>
       <c r="I32" s="41"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3726,8 +3726,8 @@
       <c r="E61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="38" t="s">
-        <v>284</v>
+      <c r="F61" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="2"/>
@@ -3838,7 +3838,7 @@
         <v>153</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>284</v>
@@ -3924,8 +3924,8 @@
       <c r="E68" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="38" t="s">
-        <v>284</v>
+      <c r="F68" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="2"/>
@@ -6059,7 +6059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="381">
   <si>
     <t>Probation Area</t>
   </si>
@@ -796,9 +796,6 @@
   </si>
   <si>
     <t>3D_ENV_MORG_ShowerTile</t>
-  </si>
-  <si>
-    <t>3D_ENV_MORG_MorgueDoor</t>
   </si>
   <si>
     <t>3D_ENV_MORG_ExaminationBed</t>
@@ -1894,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1908,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,7 +1926,7 @@
         <v>137</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>8</v>
@@ -1991,7 +1988,7 @@
         <v>207</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
@@ -2025,7 +2022,7 @@
         <v>232</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
@@ -2059,7 +2056,7 @@
         <v>232</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="2"/>
@@ -2093,7 +2090,7 @@
         <v>232</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
@@ -2127,7 +2124,7 @@
         <v>138</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2"/>
@@ -2161,7 +2158,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2"/>
@@ -2195,7 +2192,7 @@
         <v>210</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
@@ -2229,7 +2226,7 @@
         <v>207</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2"/>
@@ -2263,7 +2260,7 @@
         <v>210</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="2"/>
@@ -2297,7 +2294,7 @@
         <v>210</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="2"/>
@@ -2331,7 +2328,7 @@
         <v>210</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="2"/>
@@ -2363,7 +2360,7 @@
         <v>138</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>208</v>
@@ -2397,7 +2394,7 @@
         <v>207</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -2425,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>109</v>
@@ -2457,7 +2454,7 @@
         <v>138</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="2"/>
@@ -2487,13 +2484,13 @@
         <v>207</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2519,13 +2516,13 @@
         <v>138</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2551,13 +2548,13 @@
         <v>138</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2583,7 +2580,7 @@
         <v>138</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="2"/>
@@ -2613,7 +2610,7 @@
         <v>138</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2"/>
@@ -2643,7 +2640,7 @@
         <v>138</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
@@ -2673,7 +2670,7 @@
         <v>138</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="2"/>
@@ -2703,7 +2700,7 @@
         <v>207</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2"/>
@@ -2733,7 +2730,7 @@
         <v>207</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
@@ -2763,7 +2760,7 @@
         <v>207</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2"/>
@@ -2793,7 +2790,7 @@
         <v>207</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="2"/>
@@ -2821,7 +2818,7 @@
         <v>210</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>109</v>
@@ -2851,7 +2848,7 @@
         <v>138</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>109</v>
@@ -2881,7 +2878,7 @@
         <v>138</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>109</v>
@@ -2913,7 +2910,7 @@
         <v>138</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="2"/>
@@ -2943,7 +2940,7 @@
         <v>207</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="2"/>
@@ -2997,7 +2994,7 @@
         <v>207</v>
       </c>
       <c r="F36" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="2"/>
@@ -3027,7 +3024,7 @@
         <v>207</v>
       </c>
       <c r="F37" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="2"/>
@@ -3055,7 +3052,7 @@
         <v>138</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>109</v>
@@ -3087,7 +3084,7 @@
         <v>210</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="2"/>
@@ -3115,7 +3112,7 @@
         <v>138</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>109</v>
@@ -3147,7 +3144,7 @@
         <v>138</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2"/>
@@ -3177,7 +3174,7 @@
         <v>232</v>
       </c>
       <c r="F42" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="2"/>
@@ -3231,7 +3228,7 @@
         <v>207</v>
       </c>
       <c r="F44" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2"/>
@@ -3261,7 +3258,7 @@
         <v>207</v>
       </c>
       <c r="F45" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2"/>
@@ -3291,7 +3288,7 @@
         <v>207</v>
       </c>
       <c r="F46" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>169</v>
@@ -3323,7 +3320,7 @@
         <v>207</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>165</v>
@@ -3379,7 +3376,7 @@
         <v>232</v>
       </c>
       <c r="F49" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="2"/>
@@ -3409,7 +3406,7 @@
         <v>232</v>
       </c>
       <c r="F50" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="2"/>
@@ -3439,7 +3436,7 @@
         <v>232</v>
       </c>
       <c r="F51" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="2"/>
@@ -3469,7 +3466,7 @@
         <v>232</v>
       </c>
       <c r="F52" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="2"/>
@@ -3499,7 +3496,7 @@
         <v>232</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="2"/>
@@ -3553,7 +3550,7 @@
         <v>207</v>
       </c>
       <c r="F55" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2"/>
@@ -3583,7 +3580,7 @@
         <v>207</v>
       </c>
       <c r="F56" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="2"/>
@@ -3611,7 +3608,7 @@
         <v>138</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>109</v>
@@ -3641,7 +3638,7 @@
         <v>138</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>109</v>
@@ -3697,7 +3694,7 @@
         <v>138</v>
       </c>
       <c r="F60" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="2"/>
@@ -3727,7 +3724,7 @@
         <v>138</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="2"/>
@@ -3757,7 +3754,7 @@
         <v>138</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="2"/>
@@ -3787,7 +3784,7 @@
         <v>138</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="2"/>
@@ -3841,7 +3838,7 @@
         <v>138</v>
       </c>
       <c r="F65" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="2"/>
@@ -3895,7 +3892,7 @@
         <v>232</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="2"/>
@@ -3925,7 +3922,7 @@
         <v>207</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="2"/>
@@ -3953,7 +3950,7 @@
         <v>138</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>109</v>
@@ -3985,7 +3982,7 @@
         <v>232</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2"/>
@@ -4015,7 +4012,7 @@
         <v>138</v>
       </c>
       <c r="F71" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="2"/>
@@ -4045,7 +4042,7 @@
         <v>207</v>
       </c>
       <c r="F72" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>173</v>
@@ -4077,7 +4074,7 @@
         <v>207</v>
       </c>
       <c r="F73" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>173</v>
@@ -4109,7 +4106,7 @@
         <v>207</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>173</v>
@@ -4187,7 +4184,9 @@
       <c r="D78" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="5"/>
     </row>
@@ -4200,7 +4199,9 @@
       <c r="D79" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="5"/>
     </row>
@@ -4224,7 +4225,9 @@
       <c r="D81" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="5"/>
     </row>
@@ -4239,7 +4242,7 @@
         <v>138</v>
       </c>
       <c r="F82" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>109</v>
@@ -4256,7 +4259,7 @@
         <v>138</v>
       </c>
       <c r="F83" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>109</v>
@@ -4273,7 +4276,7 @@
         <v>138</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>109</v>
@@ -4359,7 +4362,9 @@
       <c r="D92" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="5"/>
     </row>
@@ -4374,7 +4379,7 @@
         <v>232</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>109</v>
@@ -4389,7 +4394,9 @@
       <c r="D94" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="5"/>
     </row>
@@ -4402,7 +4409,9 @@
       <c r="D95" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F95" s="2"/>
       <c r="G95" s="5"/>
     </row>
@@ -4415,7 +4424,9 @@
       <c r="D96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="5"/>
     </row>
@@ -4430,7 +4441,7 @@
         <v>138</v>
       </c>
       <c r="F97" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>109</v>
@@ -4447,7 +4458,7 @@
         <v>138</v>
       </c>
       <c r="F98" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>109</v>
@@ -4473,7 +4484,9 @@
       <c r="D100" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F100" s="2"/>
       <c r="G100" s="5"/>
     </row>
@@ -4486,7 +4499,9 @@
       <c r="D101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="5"/>
     </row>
@@ -4499,7 +4514,9 @@
       <c r="D102" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F102" s="2"/>
       <c r="G102" s="5"/>
     </row>
@@ -4512,7 +4529,9 @@
       <c r="D103" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F103" s="2"/>
       <c r="G103" s="5"/>
     </row>
@@ -4525,7 +4544,9 @@
       <c r="D104" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="F104" s="9"/>
       <c r="G104" s="5"/>
     </row>
@@ -4538,7 +4559,9 @@
       <c r="D105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E105" s="9"/>
+      <c r="E105" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F105" s="9"/>
       <c r="G105" s="5"/>
     </row>
@@ -4551,7 +4574,9 @@
       <c r="D106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F106" s="9"/>
       <c r="G106" s="5"/>
     </row>
@@ -4566,7 +4591,7 @@
         <v>138</v>
       </c>
       <c r="F107" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>109</v>
@@ -4583,7 +4608,7 @@
         <v>210</v>
       </c>
       <c r="F108" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>109</v>
@@ -4598,7 +4623,9 @@
       <c r="D109" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="5"/>
     </row>
@@ -4611,7 +4638,9 @@
       <c r="D110" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F110" s="2"/>
       <c r="G110" s="5"/>
     </row>
@@ -4622,9 +4651,11 @@
         <v>240</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E111" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F111" s="2"/>
       <c r="G111" s="5"/>
     </row>
@@ -4635,9 +4666,11 @@
         <v>241</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E112" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F112" s="2"/>
       <c r="G112" s="5"/>
     </row>
@@ -4648,9 +4681,11 @@
         <v>242</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="5"/>
     </row>
@@ -4663,7 +4698,9 @@
       <c r="D114" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F114" s="2"/>
       <c r="G114" s="5"/>
     </row>
@@ -4674,9 +4711,11 @@
         <v>244</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F115" s="2"/>
       <c r="G115" s="5"/>
     </row>
@@ -4687,9 +4726,11 @@
         <v>245</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E116" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F116" s="2"/>
       <c r="G116" s="5"/>
     </row>
@@ -4697,12 +4738,14 @@
       <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F117" s="2"/>
       <c r="G117" s="5"/>
     </row>
@@ -4712,11 +4755,13 @@
       <c r="C118" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D118" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -4726,9 +4771,11 @@
         <v>247</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E119" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="5"/>
     </row>
@@ -4739,9 +4786,11 @@
         <v>248</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="5"/>
     </row>
@@ -4752,9 +4801,11 @@
         <v>249</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F121" s="2"/>
       <c r="G121" s="5"/>
     </row>
@@ -4765,9 +4816,11 @@
         <v>250</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="E122" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F122" s="2"/>
       <c r="G122" s="5"/>
     </row>
@@ -4778,9 +4831,11 @@
         <v>251</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="E123" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="5"/>
     </row>
@@ -4791,9 +4846,11 @@
         <v>252</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F124" s="2"/>
       <c r="G124" s="5"/>
     </row>
@@ -4804,9 +4861,11 @@
         <v>253</v>
       </c>
       <c r="D125" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="E125" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5"/>
     </row>
@@ -4839,7 +4898,9 @@
       <c r="D128" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="5"/>
     </row>
@@ -4847,12 +4908,14 @@
       <c r="A129" s="14"/>
       <c r="B129" s="1"/>
       <c r="C129" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F129" s="2"/>
       <c r="G129" s="5"/>
     </row>
@@ -4860,12 +4923,14 @@
       <c r="A130" s="14"/>
       <c r="B130" s="1"/>
       <c r="C130" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E130" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F130" s="2"/>
       <c r="G130" s="5"/>
     </row>
@@ -4873,12 +4938,14 @@
       <c r="A131" s="14"/>
       <c r="B131" s="1"/>
       <c r="C131" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E131" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="5"/>
     </row>
@@ -4886,12 +4953,14 @@
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
       <c r="C132" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="E132" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="5"/>
     </row>
@@ -4899,12 +4968,14 @@
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E133" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F133" s="2"/>
       <c r="G133" s="5"/>
     </row>
@@ -4912,12 +4983,14 @@
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E134" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F134" s="2"/>
       <c r="G134" s="5"/>
     </row>
@@ -4925,12 +4998,14 @@
       <c r="A135" s="14"/>
       <c r="B135" s="1"/>
       <c r="C135" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="E135" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F135" s="2"/>
       <c r="G135" s="5"/>
     </row>
@@ -4945,7 +5020,7 @@
         <v>207</v>
       </c>
       <c r="F136" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>109</v>
@@ -4955,12 +5030,14 @@
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E137" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="5"/>
     </row>
@@ -4968,12 +5045,14 @@
       <c r="A138" s="14"/>
       <c r="B138" s="1"/>
       <c r="C138" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="E138" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F138" s="2"/>
       <c r="G138" s="5"/>
     </row>
@@ -4981,12 +5060,14 @@
       <c r="A139" s="14"/>
       <c r="B139" s="1"/>
       <c r="C139" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E139" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F139" s="2"/>
       <c r="G139" s="5"/>
     </row>
@@ -4994,12 +5075,14 @@
       <c r="A140" s="14"/>
       <c r="B140" s="1"/>
       <c r="C140" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="E140" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F140" s="2"/>
       <c r="G140" s="5"/>
     </row>
@@ -5007,12 +5090,14 @@
       <c r="A141" s="14"/>
       <c r="B141" s="1"/>
       <c r="C141" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="E141" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F141" s="2"/>
       <c r="G141" s="5"/>
     </row>
@@ -5020,12 +5105,14 @@
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E142" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F142" s="2"/>
       <c r="G142" s="5"/>
     </row>
@@ -5040,7 +5127,7 @@
         <v>138</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>109</v>
@@ -5057,7 +5144,7 @@
         <v>138</v>
       </c>
       <c r="F144" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>109</v>
@@ -5076,7 +5163,7 @@
         <v>138</v>
       </c>
       <c r="F145" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G145" s="5"/>
     </row>
@@ -5093,7 +5180,7 @@
         <v>138</v>
       </c>
       <c r="F146" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G146" s="5"/>
     </row>
@@ -5110,7 +5197,7 @@
         <v>138</v>
       </c>
       <c r="F147" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G147" s="5"/>
     </row>
@@ -5293,10 +5380,10 @@
       <c r="A163" s="14"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
@@ -5406,7 +5493,7 @@
         <v>137</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>8</v>
@@ -5416,35 +5503,35 @@
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="52"/>
       <c r="B175" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C175" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E175" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="G175" s="2"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="52"/>
       <c r="B176" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E176" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F176" s="5"/>
       <c r="G176" s="2"/>
@@ -5458,7 +5545,7 @@
         <v>222</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="5"/>
@@ -5473,10 +5560,10 @@
         <v>223</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E178" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F178" s="5"/>
       <c r="G178" s="2"/>
@@ -5490,7 +5577,7 @@
         <v>225</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="5"/>
@@ -5505,7 +5592,7 @@
         <v>224</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="5"/>
@@ -5520,10 +5607,10 @@
         <v>226</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F181" s="5"/>
       <c r="G181" s="2"/>
@@ -5537,10 +5624,10 @@
         <v>227</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F182" s="5"/>
       <c r="G182" s="2"/>
@@ -5554,7 +5641,7 @@
         <v>228</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="5"/>
@@ -5569,7 +5656,7 @@
         <v>229</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="5"/>
@@ -5584,7 +5671,7 @@
         <v>230</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="5"/>
@@ -5599,10 +5686,10 @@
         <v>231</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E186" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F186" s="8"/>
       <c r="G186" s="2"/>
@@ -5610,7 +5697,7 @@
     <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5621,10 +5708,10 @@
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5636,7 +5723,7 @@
         <v>244</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5645,10 +5732,10 @@
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5657,10 +5744,10 @@
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5685,17 +5772,17 @@
     <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F196" s="29" t="s">
         <v>8</v>
@@ -5704,7 +5791,7 @@
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -5715,13 +5802,13 @@
       <c r="A198" s="13"/>
       <c r="B198" s="23"/>
       <c r="C198" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F198" s="5"/>
     </row>
@@ -5729,13 +5816,13 @@
       <c r="A199" s="13"/>
       <c r="B199" s="23"/>
       <c r="C199" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E199" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F199" s="5"/>
     </row>
@@ -5743,13 +5830,13 @@
       <c r="A200" s="13"/>
       <c r="B200" s="23"/>
       <c r="C200" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E200" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F200" s="5"/>
     </row>
@@ -5757,13 +5844,13 @@
       <c r="A201" s="13"/>
       <c r="B201" s="23"/>
       <c r="C201" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E201" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F201" s="5"/>
     </row>
@@ -5771,13 +5858,13 @@
       <c r="A202" s="13"/>
       <c r="B202" s="23"/>
       <c r="C202" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E202" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F202" s="5"/>
     </row>
@@ -5785,13 +5872,13 @@
       <c r="A203" s="13"/>
       <c r="B203" s="23"/>
       <c r="C203" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E203" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F203" s="5"/>
     </row>
@@ -5799,13 +5886,13 @@
       <c r="A204" s="13"/>
       <c r="B204" s="23"/>
       <c r="C204" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E204" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F204" s="5"/>
     </row>
@@ -5813,20 +5900,20 @@
       <c r="A205" s="13"/>
       <c r="B205" s="23"/>
       <c r="C205" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E205" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -5837,13 +5924,13 @@
       <c r="A207" s="13"/>
       <c r="B207" s="23"/>
       <c r="C207" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E207" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F207" s="5"/>
     </row>
@@ -5851,13 +5938,13 @@
       <c r="A208" s="13"/>
       <c r="B208" s="23"/>
       <c r="C208" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E208" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F208" s="5"/>
     </row>
@@ -5865,13 +5952,13 @@
       <c r="A209" s="13"/>
       <c r="B209" s="23"/>
       <c r="C209" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E209" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F209" s="5"/>
     </row>
@@ -5879,20 +5966,20 @@
       <c r="A210" s="13"/>
       <c r="B210" s="24"/>
       <c r="C210" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E210" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -5903,13 +5990,13 @@
       <c r="A212" s="13"/>
       <c r="B212" s="23"/>
       <c r="C212" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E212" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F212" s="5"/>
     </row>
@@ -5917,13 +6004,13 @@
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
       <c r="C213" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E213" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F213" s="5"/>
     </row>
@@ -5931,13 +6018,13 @@
       <c r="A214" s="13"/>
       <c r="B214" s="23"/>
       <c r="C214" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F214" s="5"/>
     </row>
@@ -5945,20 +6032,20 @@
       <c r="A215" s="13"/>
       <c r="B215" s="24"/>
       <c r="C215" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E215" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F215" s="8"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -5969,13 +6056,13 @@
       <c r="A217" s="13"/>
       <c r="B217" s="23"/>
       <c r="C217" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E217" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F217" s="5"/>
     </row>
@@ -5983,13 +6070,13 @@
       <c r="A218" s="13"/>
       <c r="B218" s="23"/>
       <c r="C218" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E218" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F218" s="5"/>
     </row>
@@ -5997,13 +6084,13 @@
       <c r="A219" s="13"/>
       <c r="B219" s="23"/>
       <c r="C219" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E219" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F219" s="5"/>
     </row>
@@ -6011,13 +6098,13 @@
       <c r="A220" s="13"/>
       <c r="B220" s="23"/>
       <c r="C220" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E220" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F220" s="5"/>
     </row>
@@ -6025,13 +6112,13 @@
       <c r="A221" s="13"/>
       <c r="B221" s="23"/>
       <c r="C221" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E221" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F221" s="5"/>
     </row>
@@ -6039,13 +6126,13 @@
       <c r="A222" s="15"/>
       <c r="B222" s="24"/>
       <c r="C222" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E222" s="51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F222" s="8"/>
     </row>
@@ -6059,7 +6146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6081,60 +6168,60 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>287</v>
-      </c>
       <c r="E1" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>294</v>
-      </c>
       <c r="G1" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="39"/>
@@ -6147,7 +6234,7 @@
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="41"/>
       <c r="E3" s="41"/>
@@ -6174,34 +6261,34 @@
     </row>
     <row r="5" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="44"/>
@@ -6209,20 +6296,20 @@
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="45"/>
       <c r="G6" s="41"/>
       <c r="H6" s="45"/>
       <c r="I6" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="41"/>
@@ -6231,7 +6318,7 @@
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="41"/>
       <c r="E7" s="41"/>
@@ -6246,7 +6333,7 @@
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="41"/>
       <c r="E8" s="41"/>
@@ -6273,28 +6360,28 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="G10" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="45" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>350</v>
-      </c>
       <c r="H10" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="45"/>
@@ -6304,11 +6391,11 @@
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="41"/>
       <c r="E11" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="41"/>
@@ -6321,7 +6408,7 @@
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C12" s="41"/>
       <c r="E12" s="41"/>
@@ -6348,25 +6435,25 @@
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="39"/>
@@ -6696,7 +6783,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>103</v>
@@ -6764,13 +6851,13 @@
     </row>
     <row r="36" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>227</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D36" s="40" t="s">
         <v>231</v>
@@ -6782,7 +6869,7 @@
         <v>223</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="39"/>
@@ -6809,7 +6896,7 @@
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C38" s="41"/>
       <c r="E38" s="41"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1168,6 +1168,15 @@
   </si>
   <si>
     <t>3D_ENV_GEN_TrashCan</t>
+  </si>
+  <si>
+    <t>3D_ENV_CLASS_Surveypaper</t>
+  </si>
+  <si>
+    <t>3D_EN_STOR_Ladder</t>
+  </si>
+  <si>
+    <t>3D_ENV_GEN_RoomSigns</t>
   </si>
 </sst>
 </file>
@@ -1891,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,8 +2738,8 @@
       <c r="E27" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>283</v>
+      <c r="F27" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="2"/>
@@ -3547,7 +3556,7 @@
         <v>183</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>283</v>
@@ -3577,7 +3586,7 @@
         <v>140</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>283</v>
@@ -3837,8 +3846,8 @@
       <c r="E65" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="38" t="s">
-        <v>283</v>
+      <c r="F65" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="2"/>
@@ -6146,8 +6155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,9 +6528,7 @@
       <c r="F17" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>183</v>
-      </c>
+      <c r="G17" s="49"/>
       <c r="H17" s="45"/>
       <c r="I17" s="41"/>
       <c r="J17" s="45"/>
@@ -6543,9 +6550,7 @@
       <c r="F18" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>140</v>
-      </c>
+      <c r="G18" s="41"/>
       <c r="H18" s="45"/>
       <c r="I18" s="41"/>
       <c r="J18" s="45"/>
@@ -6630,7 +6635,7 @@
         <v>117</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="45"/>
@@ -6651,10 +6656,10 @@
         <v>96</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>142</v>
+        <v>381</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="45"/>
@@ -6668,14 +6673,18 @@
       <c r="B25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="41" t="s">
+        <v>152</v>
+      </c>
       <c r="D25" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="45"/>
+        <v>185</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="G25" s="41"/>
       <c r="H25" s="45"/>
       <c r="I25" s="41"/>
@@ -6688,11 +6697,15 @@
       <c r="B26" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="E26" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="45"/>
+        <v>382</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="G26" s="41"/>
       <c r="H26" s="45"/>
       <c r="I26" s="41"/>
@@ -6784,9 +6797,6 @@
       </c>
       <c r="C32" s="41" t="s">
         <v>380</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="45"/>
@@ -6931,8 +6941,8 @@
       <c r="C40" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>116</v>
+      <c r="D40" s="49" t="s">
+        <v>383</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>160</v>
@@ -6953,9 +6963,6 @@
         <v>76</v>
       </c>
       <c r="C41" s="41"/>
-      <c r="D41" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E41" s="41" t="s">
         <v>161</v>
       </c>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="384">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView topLeftCell="B36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1910,8 @@
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3702,8 +3703,8 @@
       <c r="E60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="38" t="s">
-        <v>283</v>
+      <c r="F60" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="2"/>
@@ -3898,7 +3899,7 @@
         <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="F67" s="38" t="s">
         <v>283</v>
@@ -5950,7 +5951,7 @@
         <v>324</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E208" s="38" t="s">
         <v>283</v>
@@ -6155,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6313,7 +6314,9 @@
       <c r="D6" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="41" t="s">
+        <v>324</v>
+      </c>
       <c r="F6" s="45"/>
       <c r="G6" s="41"/>
       <c r="H6" s="45"/>
@@ -6409,7 +6412,9 @@
       <c r="F11" s="45"/>
       <c r="G11" s="41"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="41" t="s">
+        <v>343</v>
+      </c>
       <c r="J11" s="45"/>
       <c r="K11" s="41"/>
       <c r="L11" s="45"/>
@@ -6453,22 +6458,32 @@
         <v>344</v>
       </c>
       <c r="D14" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="H14" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="J14" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="K14" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="44"/>
+      <c r="L14" s="44" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="384">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1900,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,7 +2346,9 @@
       <c r="J14" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2380,7 +2382,9 @@
       <c r="J15" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="9" t="s">
+        <v>207</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3297,8 +3301,8 @@
       <c r="E46" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="38" t="s">
-        <v>283</v>
+      <c r="F46" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>169</v>
@@ -3589,8 +3593,8 @@
       <c r="E56" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F56" s="38" t="s">
-        <v>283</v>
+      <c r="F56" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="2"/>
@@ -6156,7 +6160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="385">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1177,6 +1177,9 @@
   </si>
   <si>
     <t>3D_ENV_GEN_RoomSigns</t>
+  </si>
+  <si>
+    <t>Level design - Storage</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1479,48 +1482,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1576,12 +1542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1900,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2159,7 @@
         <v>103</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>283</v>
@@ -3271,8 +3231,8 @@
       <c r="E45" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F45" s="38" t="s">
-        <v>283</v>
+      <c r="F45" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2"/>
@@ -4119,7 +4079,7 @@
       <c r="E74" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="60" t="s">
+      <c r="F74" s="54" t="s">
         <v>282</v>
       </c>
       <c r="G74" s="8" t="s">
@@ -5693,7 +5653,7 @@
     </row>
     <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="24"/>
-      <c r="B186" s="59" t="s">
+      <c r="B186" s="53" t="s">
         <v>221</v>
       </c>
       <c r="C186" s="17" t="s">
@@ -6160,15 +6120,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
@@ -6184,13 +6144,13 @@
       <c r="A1" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="39" t="s">
         <v>284</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>286</v>
       </c>
       <c r="E1" s="39" t="s">
@@ -6225,13 +6185,13 @@
       <c r="A2" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="44" t="s">
         <v>345</v>
       </c>
       <c r="E2" s="39" t="s">
@@ -6247,10 +6207,11 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="41" t="s">
         <v>271</v>
       </c>
       <c r="C3" s="41"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="41"/>
       <c r="F3" s="45"/>
       <c r="G3" s="41"/>
@@ -6262,8 +6223,9 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="41"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="41"/>
       <c r="F4" s="45"/>
       <c r="G4" s="41"/>
@@ -6277,13 +6239,13 @@
       <c r="A5" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="39" t="s">
         <v>294</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="44" t="s">
         <v>341</v>
       </c>
       <c r="E5" s="39" t="s">
@@ -6309,13 +6271,13 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="41" t="s">
         <v>295</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="45" t="s">
         <v>318</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -6333,10 +6295,11 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="41" t="s">
         <v>306</v>
       </c>
       <c r="C7" s="41"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="41"/>
       <c r="F7" s="45"/>
       <c r="G7" s="41"/>
@@ -6348,10 +6311,11 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="41" t="s">
         <v>307</v>
       </c>
       <c r="C8" s="41"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="41"/>
       <c r="F8" s="45"/>
       <c r="G8" s="41"/>
@@ -6363,8 +6327,9 @@
     </row>
     <row r="9" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
-      <c r="B9" s="55"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="42"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="42"/>
       <c r="F9" s="46"/>
       <c r="G9" s="42"/>
@@ -6378,13 +6343,13 @@
       <c r="A10" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="41" t="s">
         <v>296</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="45" t="s">
         <v>346</v>
       </c>
       <c r="E10" s="41" t="s">
@@ -6396,9 +6361,7 @@
       <c r="G10" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="45" t="s">
-        <v>347</v>
-      </c>
+      <c r="H10" s="45"/>
       <c r="I10" s="41"/>
       <c r="J10" s="45"/>
       <c r="K10" s="41"/>
@@ -6406,14 +6369,17 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="41" t="s">
         <v>297</v>
       </c>
       <c r="C11" s="41"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="45" t="s">
+        <v>384</v>
+      </c>
       <c r="G11" s="41"/>
       <c r="H11" s="45"/>
       <c r="I11" s="41" t="s">
@@ -6425,10 +6391,11 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="41" t="s">
         <v>338</v>
       </c>
       <c r="C12" s="41"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="41"/>
       <c r="F12" s="45"/>
       <c r="G12" s="41"/>
@@ -6440,8 +6407,9 @@
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="42"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="42"/>
       <c r="F13" s="46"/>
       <c r="G13" s="42"/>
@@ -6455,13 +6423,13 @@
       <c r="A14" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="39" t="s">
         <v>298</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="44" t="s">
         <v>344</v>
       </c>
       <c r="E14" s="39" t="s">
@@ -6491,8 +6459,9 @@
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
-      <c r="B15" s="54"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="41"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="41"/>
       <c r="F15" s="45"/>
       <c r="G15" s="41"/>
@@ -6506,13 +6475,13 @@
       <c r="A16" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="48" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="47" t="s">
@@ -6521,9 +6490,7 @@
       <c r="F16" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>181</v>
-      </c>
+      <c r="G16" s="47"/>
       <c r="H16" s="44"/>
       <c r="I16" s="39"/>
       <c r="J16" s="44"/>
@@ -6532,13 +6499,13 @@
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="41" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="50" t="s">
         <v>174</v>
       </c>
       <c r="E17" s="49" t="s">
@@ -6556,16 +6523,18 @@
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="41" t="s">
+        <v>181</v>
+      </c>
       <c r="F18" s="45" t="s">
         <v>168</v>
       </c>
@@ -6578,11 +6547,11 @@
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="45" t="s">
         <v>176</v>
       </c>
       <c r="E19" s="41"/>
@@ -6596,10 +6565,11 @@
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="49" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="41"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="41"/>
       <c r="F20" s="45"/>
       <c r="G20" s="41"/>
@@ -6611,10 +6581,11 @@
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="41"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="41"/>
       <c r="F21" s="45"/>
       <c r="G21" s="41"/>
@@ -6626,8 +6597,9 @@
     </row>
     <row r="22" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
-      <c r="B22" s="55"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="42"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="42"/>
       <c r="F22" s="46"/>
       <c r="G22" s="42"/>
@@ -6641,13 +6613,13 @@
       <c r="A23" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="45" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="49" t="s">
@@ -6665,13 +6637,13 @@
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="45" t="s">
         <v>96</v>
       </c>
       <c r="E24" s="41" t="s">
@@ -6689,13 +6661,13 @@
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="50" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="41" t="s">
@@ -6713,12 +6685,13 @@
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>145</v>
       </c>
+      <c r="D26" s="45"/>
       <c r="E26" s="41" t="s">
         <v>382</v>
       </c>
@@ -6734,10 +6707,11 @@
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C27" s="41"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="41"/>
       <c r="F27" s="45"/>
       <c r="G27" s="41"/>
@@ -6749,10 +6723,11 @@
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="41"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="41"/>
       <c r="F28" s="45"/>
       <c r="G28" s="41"/>
@@ -6764,10 +6739,11 @@
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="41"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="41"/>
       <c r="F29" s="45"/>
       <c r="G29" s="41"/>
@@ -6779,10 +6755,11 @@
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="41"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="41"/>
       <c r="F30" s="45"/>
       <c r="G30" s="41"/>
@@ -6794,10 +6771,11 @@
     </row>
     <row r="31" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="42" t="s">
         <v>209</v>
       </c>
       <c r="C31" s="42"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="42"/>
       <c r="F31" s="46"/>
       <c r="G31" s="42"/>
@@ -6811,12 +6789,13 @@
       <c r="A32" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="41" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>380</v>
       </c>
+      <c r="D32" s="45"/>
       <c r="E32" s="49"/>
       <c r="F32" s="45"/>
       <c r="G32" s="41"/>
@@ -6828,13 +6807,13 @@
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="45" t="s">
         <v>227</v>
       </c>
       <c r="E33" s="41" t="s">
@@ -6852,10 +6831,11 @@
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="41"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="41"/>
       <c r="F34" s="45"/>
       <c r="G34" s="41"/>
@@ -6867,8 +6847,9 @@
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="54"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="41"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="41"/>
       <c r="F35" s="45"/>
       <c r="G35" s="41"/>
@@ -6882,13 +6863,13 @@
       <c r="A36" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="47" t="s">
         <v>227</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="44" t="s">
         <v>231</v>
       </c>
       <c r="E36" s="39" t="s">
@@ -6908,11 +6889,11 @@
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="49" t="s">
         <v>226</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="9"/>
+      <c r="D37" s="50"/>
       <c r="E37" s="41"/>
       <c r="F37" s="45"/>
       <c r="G37" s="49"/>
@@ -6924,10 +6905,11 @@
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="41" t="s">
         <v>312</v>
       </c>
       <c r="C38" s="41"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="41"/>
       <c r="F38" s="45"/>
       <c r="G38" s="41"/>
@@ -6937,51 +6919,53 @@
       <c r="K38" s="41"/>
       <c r="L38" s="45"/>
     </row>
-    <row r="39" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="46"/>
-    </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41" t="s">
+    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="45"/>
+    </row>
+    <row r="40" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="45"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="41"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="41" t="s">
         <v>161</v>
       </c>
@@ -6997,8 +6981,9 @@
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
-      <c r="B42" s="54"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="41"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="41" t="s">
         <v>127</v>
       </c>
@@ -7014,8 +6999,9 @@
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="42"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="42"/>
       <c r="F43" s="46"/>
       <c r="G43" s="42"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="401">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1180,6 +1180,54 @@
   </si>
   <si>
     <t>Level design - Storage</t>
+  </si>
+  <si>
+    <t>Brick Furnace</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Pans</t>
+  </si>
+  <si>
+    <t>Fire extinguisher</t>
+  </si>
+  <si>
+    <t>Kitchen counter</t>
+  </si>
+  <si>
+    <t>Large meat piece</t>
+  </si>
+  <si>
+    <t>Bottles</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_BrickFurnace</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_Freezer</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_Refrigerator</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_Pans</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_Bottles</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_FireExtinguisher</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_KitchenCounter</t>
+  </si>
+  <si>
+    <t>3D_ENV_KITCH_LargeMeat</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T222"/>
+  <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,8 +4331,12 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>393</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="5"/>
@@ -4292,8 +4344,12 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>394</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="5"/>
@@ -4301,102 +4357,100 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>395</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
-      <c r="B91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="C92" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F93" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="5"/>
+      <c r="B95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="9" t="s">
-        <v>48</v>
+      <c r="C96" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>232</v>
@@ -4407,12 +4461,12 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="9" t="s">
-        <v>49</v>
+      <c r="C97" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="F97" s="37" t="s">
         <v>282</v>
@@ -4421,45 +4475,47 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E98" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F98" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
-      <c r="B99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="4"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="2" t="s">
-        <v>192</v>
+      <c r="C100" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="5"/>
@@ -4467,195 +4523,195 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="C101" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F101" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="C102" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F102" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="5"/>
+      <c r="B103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>101</v>
+      <c r="C104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F104" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>236</v>
+      <c r="C105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="9"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>237</v>
+      <c r="C106" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F106" s="9"/>
+      <c r="F106" s="2"/>
       <c r="G106" s="5"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F107" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="C107" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="1"/>
       <c r="C108" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F108" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" s="9"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="1"/>
       <c r="C109" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E109" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F109" s="2"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="1"/>
       <c r="C110" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E110" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="1"/>
       <c r="C111" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>259</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F111" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
       <c r="C112" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>260</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F112" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
       <c r="C113" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>261</v>
+        <v>238</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>207</v>
@@ -4663,14 +4719,14 @@
       <c r="F113" s="2"/>
       <c r="G113" s="5"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="1"/>
       <c r="C114" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>256</v>
+        <v>239</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>207</v>
@@ -4678,14 +4734,14 @@
       <c r="F114" s="2"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
       <c r="C115" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>262</v>
+        <v>240</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>207</v>
@@ -4697,10 +4753,10 @@
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>207</v>
@@ -4712,10 +4768,10 @@
       <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="9" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>207</v>
@@ -4727,25 +4783,25 @@
       <c r="A118" s="14"/>
       <c r="B118" s="1"/>
       <c r="C118" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D118" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>256</v>
+      </c>
       <c r="E118" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F118" s="37" t="s">
-        <v>282</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F118" s="2"/>
       <c r="G118" s="5"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="1"/>
       <c r="C119" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>262</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>207</v>
@@ -4757,10 +4813,10 @@
       <c r="A120" s="14"/>
       <c r="B120" s="1"/>
       <c r="C120" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>207</v>
@@ -4772,13 +4828,13 @@
       <c r="A121" s="14"/>
       <c r="B121" s="1"/>
       <c r="C121" s="9" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="5"/>
@@ -4787,25 +4843,25 @@
       <c r="A122" s="14"/>
       <c r="B122" s="1"/>
       <c r="C122" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>258</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D122" s="33"/>
       <c r="E122" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="1"/>
       <c r="C123" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>268</v>
+        <v>247</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>207</v>
@@ -4817,10 +4873,10 @@
       <c r="A124" s="14"/>
       <c r="B124" s="1"/>
       <c r="C124" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124" s="35" t="s">
-        <v>269</v>
+        <v>248</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>267</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>207</v>
@@ -4832,105 +4888,105 @@
       <c r="A125" s="14"/>
       <c r="B125" s="1"/>
       <c r="C125" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D125" s="36" t="s">
-        <v>270</v>
+        <v>249</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
-      <c r="B127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+      <c r="C127" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="1"/>
-      <c r="C128" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>194</v>
+      <c r="C128" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>269</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="1"/>
       <c r="C129" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>376</v>
+        <v>253</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="5"/>
+      <c r="B131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="1"/>
-      <c r="C132" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>365</v>
+      <c r="C132" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>138</v>
@@ -4942,10 +4998,10 @@
       <c r="A133" s="14"/>
       <c r="B133" s="1"/>
       <c r="C133" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>138</v>
@@ -4957,10 +5013,10 @@
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
       <c r="C134" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>138</v>
@@ -4972,10 +5028,10 @@
       <c r="A135" s="14"/>
       <c r="B135" s="1"/>
       <c r="C135" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>138</v>
@@ -4987,27 +5043,25 @@
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F136" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>138</v>
@@ -5019,10 +5073,10 @@
       <c r="A138" s="14"/>
       <c r="B138" s="1"/>
       <c r="C138" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>138</v>
@@ -5034,10 +5088,10 @@
       <c r="A139" s="14"/>
       <c r="B139" s="1"/>
       <c r="C139" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>138</v>
@@ -5049,25 +5103,27 @@
       <c r="A140" s="14"/>
       <c r="B140" s="1"/>
       <c r="C140" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F140" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="1"/>
       <c r="C141" s="9" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>138</v>
@@ -5079,10 +5135,10 @@
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>138</v>
@@ -5093,210 +5149,224 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
+      <c r="C143" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F143" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
+      <c r="C144" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E144" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F144" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="C145" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F145" s="37" t="s">
-        <v>282</v>
-      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="5"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="1"/>
       <c r="C146" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F146" s="37" t="s">
-        <v>282</v>
-      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E147" s="9" t="s">
+      <c r="C147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F147" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G147" s="5"/>
+      <c r="G147" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
-      <c r="B148" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="4"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F148" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="1"/>
-      <c r="C149" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F149" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G149" s="5"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="1"/>
       <c r="C150" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F150" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G150" s="5"/>
     </row>
     <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="8"/>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-    </row>
-    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A151" s="14"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="14"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="5"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="5"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="15"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="14"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="8"/>
+      <c r="A157" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -5308,294 +5378,276 @@
       <c r="A159" s="14"/>
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="5"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="8"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="5"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14"/>
-      <c r="B161" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="4"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="2" t="s">
+      <c r="B162" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="14"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="5"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="14"/>
+      <c r="B165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="5"/>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="14"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="7" t="s">
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="5"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D167" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="8"/>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="22"/>
-      <c r="B164" s="25" t="s">
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="22"/>
+      <c r="B168" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="9" t="s">
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D169" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="26"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="26"/>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="18"/>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="31" t="s">
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="26"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="26"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="21"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="18"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="9"/>
-    </row>
-    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="9" t="s">
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="32"/>
+      <c r="B174" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="26"/>
-      <c r="F170" s="9"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="23"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="26"/>
-      <c r="F171" s="9"/>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="24"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="9"/>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="25" t="s">
+      <c r="D174" s="9"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="23"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="24"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="18"/>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B174" s="25" t="s">
+      <c r="B178" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F178" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="52"/>
-      <c r="B175" s="22" t="s">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="52"/>
+      <c r="B179" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E175" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G175" s="2"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="52"/>
-      <c r="B176" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E176" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F176" s="5"/>
-      <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="23"/>
-      <c r="B177" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E177" s="9"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="2"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="23"/>
-      <c r="B178" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E178" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F178" s="5"/>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="23"/>
-      <c r="B179" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E179" s="2"/>
-      <c r="F179" s="5"/>
+      <c r="E179" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="G179" s="2"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="23"/>
+      <c r="A180" s="52"/>
       <c r="B180" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>224</v>
+        <v>311</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E180" s="2"/>
+      <c r="E180" s="38" t="s">
+        <v>283</v>
+      </c>
       <c r="F180" s="5"/>
       <c r="G180" s="2"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E181" s="38" t="s">
-        <v>283</v>
-      </c>
+      <c r="E181" s="9"/>
       <c r="F181" s="5"/>
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>313</v>
@@ -5609,10 +5661,10 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="22" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>313</v>
@@ -5624,10 +5676,10 @@
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>313</v>
@@ -5639,206 +5691,214 @@
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E185" s="2"/>
+      <c r="E185" s="38" t="s">
+        <v>283</v>
+      </c>
       <c r="F185" s="5"/>
       <c r="G185" s="2"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="24"/>
-      <c r="B186" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C186" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D186" s="7" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="23"/>
+      <c r="B186" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E186" s="51" t="s">
+      <c r="E186" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F186" s="8"/>
+      <c r="F186" s="5"/>
       <c r="G186" s="2"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="23"/>
+      <c r="B187" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="5"/>
+      <c r="G187" s="2"/>
+    </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="4"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="2"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
-      <c r="B189" s="9" t="s">
-        <v>273</v>
+      <c r="B189" s="22" t="s">
+        <v>220</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D189" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="5"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="23"/>
-      <c r="B190" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
-      <c r="F190" s="5"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="23"/>
-      <c r="B191" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="5"/>
-    </row>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="24"/>
+      <c r="B190" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E190" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="F190" s="8"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="23"/>
-      <c r="B192" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="5"/>
+      <c r="A192" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="B193" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="24"/>
-      <c r="B194" s="7"/>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="8"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="16" t="s">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="23"/>
+      <c r="B194" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="23"/>
+      <c r="B195" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="23"/>
+      <c r="B196" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="23"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="24"/>
+      <c r="B198" s="7"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3" t="s">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E200" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F196" s="29" t="s">
+      <c r="F200" s="29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
-      <c r="B197" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="4"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E198" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F198" s="5"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E199" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F199" s="5"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E200" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
-      <c r="B201" s="23"/>
-      <c r="C201" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E201" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F201" s="5"/>
+      <c r="B201" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="4"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="23"/>
       <c r="C202" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D202" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D202" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E202" s="38" t="s">
-        <v>283</v>
+      <c r="E202" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F202" s="5"/>
     </row>
@@ -5846,13 +5906,13 @@
       <c r="A203" s="13"/>
       <c r="B203" s="23"/>
       <c r="C203" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D203" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D203" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E203" s="38" t="s">
-        <v>283</v>
+      <c r="E203" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F203" s="5"/>
     </row>
@@ -5860,7 +5920,7 @@
       <c r="A204" s="13"/>
       <c r="B204" s="23"/>
       <c r="C204" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>288</v>
@@ -5870,13 +5930,13 @@
       </c>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="23"/>
-      <c r="C205" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D205" s="2" t="s">
+      <c r="C205" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D205" s="9" t="s">
         <v>288</v>
       </c>
       <c r="E205" s="38" t="s">
@@ -5886,25 +5946,29 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
-      <c r="B206" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
+      <c r="B206" s="23"/>
+      <c r="C206" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E206" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="23"/>
       <c r="C207" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D207" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E207" s="37" t="s">
-        <v>282</v>
+      <c r="E207" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="F207" s="5"/>
     </row>
@@ -5912,9 +5976,9 @@
       <c r="A208" s="13"/>
       <c r="B208" s="23"/>
       <c r="C208" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D208" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>288</v>
       </c>
       <c r="E208" s="38" t="s">
@@ -5922,13 +5986,13 @@
       </c>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="13"/>
       <c r="B209" s="23"/>
-      <c r="C209" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D209" s="9" t="s">
+      <c r="C209" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E209" s="38" t="s">
@@ -5936,38 +6000,38 @@
       </c>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E210" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F210" s="8"/>
+      <c r="B210" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
-      <c r="B211" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="4"/>
+      <c r="B211" s="23"/>
+      <c r="C211" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E211" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="23"/>
       <c r="C212" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E212" s="38" t="s">
         <v>283</v>
@@ -5977,63 +6041,63 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
-      <c r="C213" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>289</v>
+      <c r="C213" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="E213" s="38" t="s">
         <v>283</v>
       </c>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="13"/>
-      <c r="B214" s="23"/>
-      <c r="C214" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>290</v>
+      <c r="B214" s="24"/>
+      <c r="C214" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="E214" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F214" s="5"/>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E215" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F215" s="8"/>
+      <c r="B215" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="4"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
-      <c r="B216" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="4"/>
+      <c r="B216" s="23"/>
+      <c r="C216" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E216" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="23"/>
       <c r="C217" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E217" s="38" t="s">
         <v>283</v>
@@ -6044,71 +6108,123 @@
       <c r="A218" s="13"/>
       <c r="B218" s="23"/>
       <c r="C218" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>287</v>
+        <v>329</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="E218" s="38" t="s">
         <v>283</v>
       </c>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="13"/>
-      <c r="B219" s="23"/>
-      <c r="C219" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E219" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F219" s="5"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E219" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
-      <c r="B220" s="23"/>
-      <c r="C220" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E220" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F220" s="5"/>
+      <c r="B220" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
       <c r="B221" s="23"/>
-      <c r="C221" s="9" t="s">
-        <v>339</v>
+      <c r="C221" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E221" s="38" t="s">
         <v>283</v>
       </c>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="15"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="7" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E222" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F222" s="5"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E223" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F223" s="5"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="23"/>
+      <c r="C224" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E224" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F224" s="5"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E225" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F225" s="5"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="15"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E222" s="51" t="s">
+      <c r="E226" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="F222" s="8"/>
+      <c r="F226" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="401">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4324,7 +4324,9 @@
       <c r="D86" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F86" s="2"/>
       <c r="G86" s="5"/>
     </row>
@@ -4337,7 +4339,9 @@
       <c r="D87" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="5"/>
     </row>
@@ -4350,7 +4354,9 @@
       <c r="D88" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F88" s="2"/>
       <c r="G88" s="5"/>
     </row>
@@ -4363,7 +4369,9 @@
       <c r="D89" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F89" s="2"/>
       <c r="G89" s="5"/>
     </row>
@@ -4376,7 +4384,9 @@
       <c r="D90" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F90" s="2"/>
       <c r="G90" s="5"/>
     </row>
@@ -4389,7 +4399,9 @@
       <c r="D91" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F91" s="2"/>
       <c r="G91" s="5"/>
     </row>
@@ -4402,7 +4414,9 @@
       <c r="D92" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F92" s="2"/>
       <c r="G92" s="5"/>
     </row>
@@ -4415,7 +4429,9 @@
       <c r="D93" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F93" s="2"/>
       <c r="G93" s="5"/>
     </row>
@@ -4428,7 +4444,9 @@
       <c r="D94" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="E94" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="F94" s="7"/>
       <c r="G94" s="8"/>
     </row>
@@ -5311,7 +5329,9 @@
       <c r="D153" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E153" s="2"/>
+      <c r="E153" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F153" s="2"/>
       <c r="G153" s="5"/>
     </row>
@@ -5324,7 +5344,9 @@
       <c r="D154" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F154" s="2"/>
       <c r="G154" s="5"/>
     </row>
@@ -6236,8 +6258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="400">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1171,9 +1171,6 @@
   </si>
   <si>
     <t>3D_ENV_CLASS_Surveypaper</t>
-  </si>
-  <si>
-    <t>3D_EN_STOR_Ladder</t>
   </si>
   <si>
     <t>3D_ENV_GEN_RoomSigns</t>
@@ -1908,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,8 +2104,8 @@
       <c r="E7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>283</v>
+      <c r="F7" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
@@ -2209,8 +2206,8 @@
       <c r="E10" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>283</v>
+      <c r="F10" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2"/>
@@ -3015,8 +3012,8 @@
       <c r="E36" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="38" t="s">
-        <v>283</v>
+      <c r="F36" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="2"/>
@@ -3045,8 +3042,8 @@
       <c r="E37" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F37" s="38" t="s">
-        <v>283</v>
+      <c r="F37" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="2"/>
@@ -3195,8 +3192,8 @@
       <c r="E42" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="38" t="s">
-        <v>283</v>
+      <c r="F42" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="2"/>
@@ -3249,8 +3246,8 @@
       <c r="E44" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F44" s="38" t="s">
-        <v>283</v>
+      <c r="F44" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2"/>
@@ -3341,8 +3338,8 @@
       <c r="E47" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F47" s="38" t="s">
-        <v>283</v>
+      <c r="F47" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>165</v>
@@ -4334,10 +4331,10 @@
       <c r="A87" s="14"/>
       <c r="B87" s="1"/>
       <c r="C87" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>232</v>
@@ -4349,10 +4346,10 @@
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>232</v>
@@ -4364,10 +4361,10 @@
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
       <c r="C89" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>232</v>
@@ -4379,10 +4376,10 @@
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>232</v>
@@ -4394,10 +4391,10 @@
       <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>232</v>
@@ -4409,10 +4406,10 @@
       <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>232</v>
@@ -4424,10 +4421,10 @@
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>232</v>
@@ -4439,10 +4436,10 @@
       <c r="A94" s="14"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>232</v>
@@ -5947,8 +5944,8 @@
       <c r="D204" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E204" s="38" t="s">
-        <v>283</v>
+      <c r="E204" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F204" s="5"/>
     </row>
@@ -5961,8 +5958,8 @@
       <c r="D205" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E205" s="38" t="s">
-        <v>283</v>
+      <c r="E205" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F205" s="5"/>
     </row>
@@ -5975,8 +5972,8 @@
       <c r="D206" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E206" s="38" t="s">
-        <v>283</v>
+      <c r="E206" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F206" s="5"/>
     </row>
@@ -6017,8 +6014,8 @@
       <c r="D209" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E209" s="38" t="s">
-        <v>283</v>
+      <c r="E209" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F209" s="5"/>
     </row>
@@ -6173,8 +6170,8 @@
       <c r="D221" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E221" s="38" t="s">
-        <v>283</v>
+      <c r="E221" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F221" s="5"/>
     </row>
@@ -6259,7 +6256,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6516,7 +6513,7 @@
         <v>324</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="45"/>
@@ -6764,9 +6761,11 @@
         <v>117</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="41"/>
+        <v>142</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>116</v>
+      </c>
       <c r="H23" s="45"/>
       <c r="I23" s="41"/>
       <c r="J23" s="45"/>
@@ -6790,7 +6789,9 @@
       <c r="F24" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="41" t="s">
+        <v>183</v>
+      </c>
       <c r="H24" s="45"/>
       <c r="I24" s="41"/>
       <c r="J24" s="45"/>
@@ -6830,12 +6831,8 @@
         <v>145</v>
       </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>116</v>
-      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="41"/>
       <c r="H26" s="45"/>
       <c r="I26" s="41"/>
@@ -7082,7 +7079,7 @@
         <v>105</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>160</v>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="399">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1162,9 +1162,6 @@
   </si>
   <si>
     <t>Bookcase</t>
-  </si>
-  <si>
-    <t>3D_CHAR_Assistent1</t>
   </si>
   <si>
     <t>3D_ENV_GEN_TrashCan</t>
@@ -1905,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E209" sqref="E209"/>
     </sheetView>
   </sheetViews>
@@ -4331,10 +4328,10 @@
       <c r="A87" s="14"/>
       <c r="B87" s="1"/>
       <c r="C87" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>232</v>
@@ -4346,10 +4343,10 @@
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>232</v>
@@ -4361,10 +4358,10 @@
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
       <c r="C89" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>232</v>
@@ -4376,10 +4373,10 @@
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>232</v>
@@ -4391,10 +4388,10 @@
       <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>232</v>
@@ -4406,10 +4403,10 @@
       <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>232</v>
@@ -4421,10 +4418,10 @@
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>232</v>
@@ -4436,10 +4433,10 @@
       <c r="A94" s="14"/>
       <c r="B94" s="6"/>
       <c r="C94" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>232</v>
@@ -6255,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6513,7 +6510,7 @@
         <v>324</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="45"/>
@@ -6787,7 +6784,7 @@
         <v>153</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>183</v>
@@ -6928,7 +6925,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="49"/>
@@ -7011,10 +7008,10 @@
         <v>231</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>379</v>
+        <v>315</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>315</v>
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="39"/>
@@ -7079,7 +7076,7 @@
         <v>105</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>160</v>
@@ -7087,8 +7084,12 @@
       <c r="F40" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="39"/>
-      <c r="H40" s="44"/>
+      <c r="G40" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>182</v>
+      </c>
       <c r="I40" s="39"/>
       <c r="J40" s="44"/>
       <c r="K40" s="39"/>
@@ -7107,8 +7108,12 @@
       <c r="F41" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="41"/>
-      <c r="H41" s="45"/>
+      <c r="G41" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>158</v>
+      </c>
       <c r="I41" s="41"/>
       <c r="J41" s="45"/>
       <c r="K41" s="41"/>
@@ -7125,8 +7130,12 @@
       <c r="F42" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="45"/>
+      <c r="G42" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>159</v>
+      </c>
       <c r="I42" s="41"/>
       <c r="J42" s="45"/>
       <c r="K42" s="41"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="399">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3389,7 +3389,7 @@
         <v>182</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="F49" s="38" t="s">
         <v>283</v>
@@ -6252,8 +6252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6763,7 +6763,9 @@
       <c r="G23" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="45" t="s">
+        <v>182</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="J23" s="45"/>
       <c r="K23" s="41"/>
@@ -7082,13 +7084,13 @@
         <v>160</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>160</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="44"/>
@@ -7127,15 +7129,11 @@
       <c r="E42" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="45" t="s">
-        <v>159</v>
-      </c>
+      <c r="F42" s="45"/>
       <c r="G42" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="45" t="s">
-        <v>159</v>
-      </c>
+      <c r="H42" s="45"/>
       <c r="I42" s="41"/>
       <c r="J42" s="45"/>
       <c r="K42" s="41"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="420">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1222,6 +1222,69 @@
   </si>
   <si>
     <t>3D_ENV_KITCH_LargeMeat</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Fence</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Chatbox</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>Back/Return button</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Arrow button</t>
+  </si>
+  <si>
+    <t>2D_UI_ChatBox</t>
+  </si>
+  <si>
+    <t>2D_UI_Inventory</t>
+  </si>
+  <si>
+    <t>2D_UI_Button</t>
+  </si>
+  <si>
+    <t>2D_UI_Map</t>
+  </si>
+  <si>
+    <t>2D_UI_Cursor</t>
+  </si>
+  <si>
+    <t>2D_UI_BackButton</t>
+  </si>
+  <si>
+    <t>2D_UIT_ArrowButton</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Fench</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Fench</t>
+  </si>
+  <si>
+    <t>3D_ENV_BIO_Couch</t>
+  </si>
+  <si>
+    <t>Couch</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1585,7 +1648,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1900,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T226"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,8 +2063,8 @@
       <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>282</v>
+      <c r="F4" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="2"/>
@@ -2409,8 +2473,8 @@
       <c r="E16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="37" t="s">
-        <v>282</v>
+      <c r="F16" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -3391,8 +3455,8 @@
       <c r="E49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="38" t="s">
-        <v>283</v>
+      <c r="F49" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="2"/>
@@ -3499,22 +3563,22 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>232</v>
+      <c r="B53" s="23"/>
+      <c r="C53" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="F53" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="G53" s="8"/>
+      <c r="G53" s="5"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -3531,14 +3595,20 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
-      <c r="B54" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -3553,22 +3623,22 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="8"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3585,20 +3655,14 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="B56" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -3616,19 +3680,19 @@
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="23"/>
-      <c r="C57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F57" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -3643,22 +3707,22 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
     </row>
-    <row r="58" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>138</v>
       </c>
       <c r="F58" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3675,14 +3739,20 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
-      <c r="B59" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3697,22 +3767,22 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F60" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -3729,20 +3799,14 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" s="5"/>
+      <c r="B61" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3760,11 +3824,11 @@
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="23"/>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
+      <c r="C62" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>138</v>
@@ -3787,14 +3851,14 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
     </row>
-    <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="23"/>
-      <c r="C63" s="9" t="s">
-        <v>151</v>
+      <c r="C63" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>138</v>
@@ -3819,14 +3883,20 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
-      <c r="B64" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="4"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64" s="5"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -3845,12 +3915,12 @@
       <c r="A65" s="20"/>
       <c r="B65" s="23"/>
       <c r="C65" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F65" s="37" t="s">
@@ -3871,16 +3941,16 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
     </row>
-    <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9"/>
-      <c r="B66" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="29"/>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+      <c r="B66" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -3895,20 +3965,20 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+    <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
       <c r="B67" s="23"/>
-      <c r="C67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="C67" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="38" t="s">
-        <v>283</v>
+      <c r="F67" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="2"/>
@@ -3925,22 +3995,16 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G68" s="5"/>
+      <c r="B68" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="29"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -3959,18 +4023,18 @@
       <c r="A69" s="9"/>
       <c r="B69" s="23"/>
       <c r="C69" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F69" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G69" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="G69" s="5"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -3988,14 +4052,14 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="9" t="s">
-        <v>114</v>
+      <c r="C70" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F70" s="37" t="s">
         <v>282</v>
@@ -4018,19 +4082,19 @@
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="C71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F71" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G71" s="5"/>
+      <c r="G71" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4049,20 +4113,18 @@
       <c r="A72" s="9"/>
       <c r="B72" s="23"/>
       <c r="C72" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>207</v>
+        <v>114</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G72" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="G72" s="5"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4081,20 +4143,18 @@
       <c r="A73" s="9"/>
       <c r="B73" s="23"/>
       <c r="C73" s="9" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="F73" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G73" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="G73" s="5"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4109,22 +4169,22 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
     </row>
-    <row r="74" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" s="8" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H74" s="2"/>
@@ -4141,14 +4201,24 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
     </row>
-    <row r="75" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4164,82 +4234,110 @@
       <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3" t="s">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="4" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="3" t="s">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="5"/>
-    </row>
-    <row r="79" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="5"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>187</v>
+      <c r="C81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>232</v>
@@ -4249,104 +4347,100 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="B82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="1"/>
       <c r="C83" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="E83" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F84" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G84" s="8" t="s">
+      <c r="G84" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
-      <c r="B85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="5"/>
+      <c r="B87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="9" t="s">
-        <v>384</v>
+      <c r="C88" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>232</v>
@@ -4358,10 +4452,10 @@
       <c r="A89" s="14"/>
       <c r="B89" s="1"/>
       <c r="C89" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E89" s="9" t="s">
         <v>232</v>
@@ -4373,10 +4467,10 @@
       <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>394</v>
+        <v>384</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>232</v>
@@ -4388,10 +4482,10 @@
       <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>232</v>
@@ -4403,10 +4497,10 @@
       <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>232</v>
@@ -4418,10 +4512,10 @@
       <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>232</v>
@@ -4429,72 +4523,70 @@
       <c r="F93" s="2"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>395</v>
+      <c r="B94" s="1"/>
+      <c r="C94" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F94" s="7"/>
-      <c r="G94" s="8"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
-      <c r="B95" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="5"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F97" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="B97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="1"/>
       <c r="C98" s="2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>232</v>
@@ -4506,25 +4598,27 @@
       <c r="A99" s="14"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="5"/>
+      <c r="F99" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="9" t="s">
-        <v>48</v>
+      <c r="C100" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>232</v>
@@ -4535,86 +4629,86 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F101" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F102" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
-      <c r="B103" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="C104" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F104" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="5"/>
+      <c r="B105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="1"/>
       <c r="C106" s="2" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>207</v>
@@ -4626,10 +4720,10 @@
       <c r="A107" s="14"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>207</v>
@@ -4640,44 +4734,44 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>101</v>
+      <c r="C108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>236</v>
+      <c r="C109" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F109" s="9"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="1"/>
       <c r="C110" s="9" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="5"/>
@@ -4686,74 +4780,74 @@
       <c r="A111" s="14"/>
       <c r="B111" s="1"/>
       <c r="C111" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F111" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="1"/>
       <c r="C112" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F112" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="1"/>
       <c r="C113" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>254</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F113" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="1"/>
       <c r="C114" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>255</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="F114" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="1"/>
       <c r="C115" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>207</v>
@@ -4761,14 +4855,14 @@
       <c r="F115" s="2"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="1"/>
       <c r="C116" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>207</v>
@@ -4776,14 +4870,14 @@
       <c r="F116" s="2"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>207</v>
@@ -4795,10 +4889,10 @@
       <c r="A118" s="14"/>
       <c r="B118" s="1"/>
       <c r="C118" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>207</v>
@@ -4810,10 +4904,10 @@
       <c r="A119" s="14"/>
       <c r="B119" s="1"/>
       <c r="C119" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E119" s="9" t="s">
         <v>207</v>
@@ -4825,10 +4919,10 @@
       <c r="A120" s="14"/>
       <c r="B120" s="1"/>
       <c r="C120" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>207</v>
@@ -4840,10 +4934,10 @@
       <c r="A121" s="14"/>
       <c r="B121" s="1"/>
       <c r="C121" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>207</v>
@@ -4855,25 +4949,25 @@
       <c r="A122" s="14"/>
       <c r="B122" s="1"/>
       <c r="C122" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" s="33"/>
+        <v>245</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="E122" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F122" s="37" t="s">
-        <v>282</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="1"/>
       <c r="C123" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D123" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>264</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>207</v>
@@ -4885,28 +4979,28 @@
       <c r="A124" s="14"/>
       <c r="B124" s="1"/>
       <c r="C124" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>267</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="D124" s="33"/>
       <c r="E124" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="F124" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="1"/>
       <c r="C125" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D125" s="33" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="D125" s="34" t="s">
+        <v>266</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="5"/>
@@ -4915,10 +5009,10 @@
       <c r="A126" s="14"/>
       <c r="B126" s="1"/>
       <c r="C126" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>207</v>
@@ -4930,13 +5024,13 @@
       <c r="A127" s="14"/>
       <c r="B127" s="1"/>
       <c r="C127" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="5"/>
@@ -4945,10 +5039,10 @@
       <c r="A128" s="14"/>
       <c r="B128" s="1"/>
       <c r="C128" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D128" s="35" t="s">
-        <v>269</v>
+        <v>250</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>258</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>207</v>
@@ -4960,10 +5054,10 @@
       <c r="A129" s="14"/>
       <c r="B129" s="1"/>
       <c r="C129" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D129" s="36" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="D129" s="33" t="s">
+        <v>268</v>
       </c>
       <c r="E129" s="9" t="s">
         <v>207</v>
@@ -4971,64 +5065,64 @@
       <c r="F129" s="2"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="C130" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
-      <c r="B131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+      <c r="C131" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="5"/>
+      <c r="B133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>377</v>
+      <c r="C134" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>138</v>
@@ -5040,10 +5134,10 @@
       <c r="A135" s="14"/>
       <c r="B135" s="1"/>
       <c r="C135" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>138</v>
@@ -5055,10 +5149,10 @@
       <c r="A136" s="14"/>
       <c r="B136" s="1"/>
       <c r="C136" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>138</v>
@@ -5070,10 +5164,10 @@
       <c r="A137" s="14"/>
       <c r="B137" s="1"/>
       <c r="C137" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>138</v>
@@ -5085,10 +5179,10 @@
       <c r="A138" s="14"/>
       <c r="B138" s="1"/>
       <c r="C138" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>138</v>
@@ -5100,10 +5194,10 @@
       <c r="A139" s="14"/>
       <c r="B139" s="1"/>
       <c r="C139" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>138</v>
@@ -5115,27 +5209,25 @@
       <c r="A140" s="14"/>
       <c r="B140" s="1"/>
       <c r="C140" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F140" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="1"/>
       <c r="C141" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>138</v>
@@ -5147,25 +5239,27 @@
       <c r="A142" s="14"/>
       <c r="B142" s="1"/>
       <c r="C142" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="1"/>
       <c r="C143" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>138</v>
@@ -5177,10 +5271,10 @@
       <c r="A144" s="14"/>
       <c r="B144" s="1"/>
       <c r="C144" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>138</v>
@@ -5192,10 +5286,10 @@
       <c r="A145" s="14"/>
       <c r="B145" s="1"/>
       <c r="C145" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>138</v>
@@ -5207,10 +5301,10 @@
       <c r="A146" s="14"/>
       <c r="B146" s="1"/>
       <c r="C146" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>138</v>
@@ -5221,81 +5315,77 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="1"/>
-      <c r="C147" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
+      <c r="C147" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F147" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="1"/>
-      <c r="C148" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
+      <c r="C148" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F148" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="1"/>
       <c r="C149" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F149" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G149" s="5"/>
+      <c r="G149" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="1"/>
-      <c r="C150" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="C150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F150" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="G150" s="5"/>
-    </row>
-    <row r="151" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="1"/>
-      <c r="C151" s="9" t="s">
-        <v>95</v>
+      <c r="C151" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E151" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F151" s="37" t="s">
@@ -5305,365 +5395,367 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
-      <c r="B152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="C152" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
       <c r="B153" s="1"/>
       <c r="C153" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>198</v>
+        <v>95</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F153" s="2"/>
+      <c r="F153" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="G153" s="5"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="9" t="s">
+      <c r="B154" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="14"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D156" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E156" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F154" s="2"/>
-      <c r="G154" s="5"/>
-    </row>
-    <row r="155" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="15"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="8"/>
-    </row>
-    <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="15"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3" t="s">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="4" t="s">
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="5"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="5"/>
-    </row>
-    <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="8"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="1"/>
+      <c r="C162" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="5"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="14"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="14"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="5"/>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="14"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="8"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="1"/>
+      <c r="C165" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="5"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="14"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="14"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="2" t="s">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="14"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="5"/>
-    </row>
-    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="14"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="7" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="14"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="8"/>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="22"/>
-      <c r="B168" s="25" t="s">
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="22"/>
+      <c r="B170" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="9" t="s">
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D171" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="26"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="26"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="18"/>
-    </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="26"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="23"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="31" t="s">
+      <c r="G172" s="26"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="21"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="18"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="9"/>
-    </row>
-    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="32"/>
-      <c r="B174" s="9" t="s">
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="29"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="32"/>
+      <c r="B176" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C176" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="26"/>
-      <c r="F174" s="9"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="23"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="9"/>
-    </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="24"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="18"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="26"/>
       <c r="F176" s="9"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="25" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="23"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="24"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="18"/>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B178" s="25" t="s">
+      <c r="B180" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E180" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F180" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="52"/>
-      <c r="B179" s="22" t="s">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="52"/>
+      <c r="B181" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E179" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G179" s="2"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="52"/>
-      <c r="B180" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E180" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F180" s="5"/>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="23"/>
-      <c r="B181" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E181" s="9"/>
-      <c r="F181" s="5"/>
+      <c r="E181" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="G181" s="2"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="23"/>
+      <c r="A182" s="52"/>
       <c r="B182" s="22" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>313</v>
@@ -5677,104 +5769,106 @@
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E183" s="2"/>
+      <c r="E183" s="9"/>
       <c r="F183" s="5"/>
       <c r="G183" s="2"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E184" s="2"/>
+      <c r="E184" s="38" t="s">
+        <v>283</v>
+      </c>
       <c r="F184" s="5"/>
       <c r="G184" s="2"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E185" s="38" t="s">
-        <v>283</v>
-      </c>
+      <c r="E185" s="2"/>
       <c r="F185" s="5"/>
       <c r="G185" s="2"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E186" s="38" t="s">
-        <v>283</v>
-      </c>
+      <c r="E186" s="2"/>
       <c r="F186" s="5"/>
       <c r="G186" s="2"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E187" s="2"/>
+      <c r="E187" s="38" t="s">
+        <v>283</v>
+      </c>
       <c r="F187" s="5"/>
       <c r="G187" s="2"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="22" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E188" s="2"/>
+      <c r="E188" s="38" t="s">
+        <v>283</v>
+      </c>
       <c r="F188" s="5"/>
       <c r="G188" s="2"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>313</v>
@@ -5783,65 +5877,71 @@
       <c r="F189" s="5"/>
       <c r="G189" s="2"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="24"/>
-      <c r="B190" s="53" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="23"/>
+      <c r="B190" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="23"/>
+      <c r="B191" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="24"/>
+      <c r="B192" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C190" s="17" t="s">
+      <c r="C192" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E190" s="51" t="s">
+      <c r="E192" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="F190" s="8"/>
-      <c r="G190" s="2"/>
-    </row>
-    <row r="191" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="25" t="s">
+      <c r="F192" s="8"/>
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="23"/>
-      <c r="B193" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="5"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="23"/>
-      <c r="B194" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2"/>
-      <c r="F194" s="5"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5850,10 +5950,10 @@
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="9" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5861,84 +5961,80 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="B197" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="24"/>
-      <c r="B198" s="7"/>
-      <c r="C198" s="7"/>
-      <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="8"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="23"/>
+      <c r="B198" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="23"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="5"/>
+    </row>
     <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="16" t="s">
+      <c r="A200" s="24"/>
+      <c r="B200" s="7"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3" t="s">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D202" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E202" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F200" s="29" t="s">
+      <c r="F202" s="29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="23"/>
-      <c r="C202" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E202" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
-      <c r="B203" s="23"/>
-      <c r="C203" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E203" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F203" s="5"/>
+      <c r="B203" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="4"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="23"/>
       <c r="C204" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D204" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E204" s="37" t="s">
@@ -5949,10 +6045,10 @@
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="23"/>
-      <c r="C205" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D205" s="9" t="s">
+      <c r="C205" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E205" s="37" t="s">
@@ -5964,7 +6060,7 @@
       <c r="A206" s="13"/>
       <c r="B206" s="23"/>
       <c r="C206" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>288</v>
@@ -5977,14 +6073,14 @@
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="23"/>
-      <c r="C207" s="2" t="s">
-        <v>320</v>
+      <c r="C207" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E207" s="38" t="s">
-        <v>283</v>
+      <c r="E207" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F207" s="5"/>
     </row>
@@ -5992,45 +6088,49 @@
       <c r="A208" s="13"/>
       <c r="B208" s="23"/>
       <c r="C208" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E208" s="38" t="s">
-        <v>283</v>
+      <c r="E208" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="23"/>
       <c r="C209" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D209" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E209" s="37" t="s">
-        <v>282</v>
+      <c r="E209" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="13"/>
-      <c r="B210" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="23"/>
+      <c r="C210" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E210" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F210" s="5"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="13"/>
       <c r="B211" s="23"/>
       <c r="C211" s="2" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>288</v>
@@ -6042,161 +6142,157 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
-      <c r="B212" s="23"/>
-      <c r="C212" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E212" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F212" s="5"/>
+      <c r="B212" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="23"/>
-      <c r="C213" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D213" s="9" t="s">
+      <c r="C213" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E213" s="38" t="s">
-        <v>283</v>
+      <c r="E213" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D214" s="7" t="s">
+      <c r="B214" s="23"/>
+      <c r="C214" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>288</v>
       </c>
       <c r="E214" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F214" s="8"/>
+      <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
-      <c r="B215" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="23"/>
+      <c r="C215" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E215" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F215" s="5"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="13"/>
-      <c r="B216" s="23"/>
-      <c r="C216" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>287</v>
+      <c r="B216" s="24"/>
+      <c r="C216" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="E216" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F216" s="5"/>
+      <c r="F216" s="8"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
-      <c r="B217" s="23"/>
-      <c r="C217" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E217" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="F217" s="5"/>
+      <c r="B217" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13"/>
       <c r="B218" s="23"/>
       <c r="C218" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E218" s="38" t="s">
         <v>283</v>
       </c>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="13"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E219" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F219" s="8"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E219" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
-      <c r="B220" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="4"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="23"/>
+      <c r="C220" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E220" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="13"/>
-      <c r="B221" s="23"/>
-      <c r="C221" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>288</v>
+      <c r="B221" s="24"/>
+      <c r="C221" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="E221" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="F221" s="5"/>
+      <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="13"/>
-      <c r="B222" s="23"/>
-      <c r="C222" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E222" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="F222" s="5"/>
+      <c r="B222" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="13"/>
       <c r="B223" s="23"/>
       <c r="C223" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E223" s="38" t="s">
-        <v>283</v>
+        <v>332</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E223" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F223" s="5"/>
     </row>
@@ -6204,23 +6300,23 @@
       <c r="A224" s="13"/>
       <c r="B224" s="23"/>
       <c r="C224" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E224" s="38" t="s">
-        <v>283</v>
+        <v>287</v>
+      </c>
+      <c r="E224" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="F224" s="5"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="13"/>
       <c r="B225" s="23"/>
-      <c r="C225" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D225" s="2" t="s">
+      <c r="C225" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D225" s="9" t="s">
         <v>290</v>
       </c>
       <c r="E225" s="38" t="s">
@@ -6228,19 +6324,174 @@
       </c>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="15"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="7" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+      <c r="B226" s="23"/>
+      <c r="C226" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E226" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F226" s="5"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="13"/>
+      <c r="B227" s="23"/>
+      <c r="C227" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F227" s="5"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="15"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E226" s="51" t="s">
+      <c r="E228" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="F226" s="8"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F230" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+      <c r="B231" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="13"/>
+      <c r="B232" s="23"/>
+      <c r="C232" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E232" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F232" s="5"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E233" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="F233" s="5"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="13"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E234" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F234" s="5"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="13"/>
+      <c r="B235" s="23"/>
+      <c r="C235" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E235" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F235" s="5"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+      <c r="B236" s="23"/>
+      <c r="C236" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E236" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F236" s="5"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+      <c r="B237" s="23"/>
+      <c r="C237" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E237" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F237" s="5"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="54"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E238" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="F238" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6250,10 +6501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,10 +6515,10 @@
     <col min="5" max="5" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.140625" style="45" customWidth="1"/>
     <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
@@ -6294,7 +6545,7 @@
       <c r="G1" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="55" t="s">
         <v>300</v>
       </c>
       <c r="I1" s="47" t="s">
@@ -6303,7 +6554,7 @@
       <c r="J1" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="55" t="s">
         <v>303</v>
       </c>
       <c r="L1" s="48" t="s">
@@ -6331,10 +6582,8 @@
       </c>
       <c r="F2" s="44"/>
       <c r="G2" s="39"/>
-      <c r="H2" s="44"/>
       <c r="I2" s="39"/>
       <c r="J2" s="44"/>
-      <c r="K2" s="39"/>
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6347,10 +6596,8 @@
       <c r="E3" s="41"/>
       <c r="F3" s="45"/>
       <c r="G3" s="41"/>
-      <c r="H3" s="45"/>
       <c r="I3" s="41"/>
       <c r="J3" s="45"/>
-      <c r="K3" s="41"/>
       <c r="L3" s="45"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6361,10 +6608,8 @@
       <c r="E4" s="41"/>
       <c r="F4" s="45"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="45"/>
       <c r="I4" s="41"/>
       <c r="J4" s="45"/>
-      <c r="K4" s="41"/>
       <c r="L4" s="45"/>
     </row>
     <row r="5" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -6389,16 +6634,15 @@
       <c r="G5" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>332</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="K5" s="39"/>
       <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6417,12 +6661,10 @@
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="41"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="41" t="s">
         <v>335</v>
       </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="41"/>
       <c r="L6" s="45"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6435,10 +6677,8 @@
       <c r="E7" s="41"/>
       <c r="F7" s="45"/>
       <c r="G7" s="41"/>
-      <c r="H7" s="45"/>
       <c r="I7" s="41"/>
       <c r="J7" s="45"/>
-      <c r="K7" s="41"/>
       <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6451,10 +6691,8 @@
       <c r="E8" s="41"/>
       <c r="F8" s="45"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="45"/>
       <c r="I8" s="41"/>
       <c r="J8" s="45"/>
-      <c r="K8" s="41"/>
       <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -6465,10 +6703,8 @@
       <c r="E9" s="42"/>
       <c r="F9" s="46"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="46"/>
       <c r="I9" s="42"/>
       <c r="J9" s="46"/>
-      <c r="K9" s="42"/>
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6493,10 +6729,8 @@
       <c r="G10" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="H10" s="45"/>
       <c r="I10" s="41"/>
       <c r="J10" s="45"/>
-      <c r="K10" s="41"/>
       <c r="L10" s="45"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6513,12 +6747,10 @@
         <v>382</v>
       </c>
       <c r="G11" s="41"/>
-      <c r="H11" s="45"/>
       <c r="I11" s="41" t="s">
         <v>343</v>
       </c>
       <c r="J11" s="45"/>
-      <c r="K11" s="41"/>
       <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6531,10 +6763,8 @@
       <c r="E12" s="41"/>
       <c r="F12" s="45"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="45"/>
       <c r="I12" s="41"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="41"/>
       <c r="L12" s="45"/>
     </row>
     <row r="13" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -6545,10 +6775,8 @@
       <c r="E13" s="42"/>
       <c r="F13" s="46"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="46"/>
       <c r="I13" s="42"/>
       <c r="J13" s="46"/>
-      <c r="K13" s="42"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -6573,7 +6801,7 @@
       <c r="G14" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="40" t="s">
         <v>336</v>
       </c>
       <c r="I14" s="39" t="s">
@@ -6582,7 +6810,7 @@
       <c r="J14" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="40" t="s">
         <v>334</v>
       </c>
       <c r="L14" s="44" t="s">
@@ -6597,528 +6825,483 @@
       <c r="E15" s="41"/>
       <c r="F15" s="45"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="41"/>
+      <c r="I15" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>411</v>
+      </c>
       <c r="L15" s="45"/>
     </row>
-    <row r="16" spans="1:13" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="44"/>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
-      <c r="B17" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="41"/>
+      <c r="I17" s="41" t="s">
+        <v>414</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>413</v>
+      </c>
       <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
-      <c r="B18" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="41"/>
+      <c r="I18" s="41" t="s">
+        <v>410</v>
+      </c>
       <c r="J18" s="45"/>
-      <c r="K18" s="41"/>
       <c r="L18" s="45"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="45"/>
+    <row r="19" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="I19" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
-      <c r="B20" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="45"/>
+      <c r="B20" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="49"/>
       <c r="I20" s="41"/>
       <c r="J20" s="45"/>
-      <c r="K20" s="41"/>
       <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="45"/>
+        <v>71</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>168</v>
+      </c>
       <c r="G21" s="41"/>
-      <c r="H21" s="45"/>
       <c r="I21" s="41"/>
       <c r="J21" s="45"/>
-      <c r="K21" s="41"/>
       <c r="L21" s="45"/>
     </row>
-    <row r="22" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="46"/>
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>182</v>
-      </c>
+      <c r="A23" s="41"/>
+      <c r="B23" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="45"/>
-      <c r="K23" s="41"/>
       <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="B24" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="45"/>
-      <c r="K24" s="41"/>
       <c r="L24" s="45"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="45"/>
+    <row r="25" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="46"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="49" t="s">
-        <v>62</v>
+      <c r="A26" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>80</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="41"/>
+        <v>54</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>399</v>
+      </c>
       <c r="J26" s="45"/>
-      <c r="K26" s="41"/>
       <c r="L26" s="45"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="41"/>
+      <c r="B27" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>418</v>
+      </c>
       <c r="J27" s="45"/>
-      <c r="K27" s="41"/>
       <c r="L27" s="45"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="45"/>
+      <c r="B28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>103</v>
+      </c>
       <c r="G28" s="41"/>
-      <c r="H28" s="45"/>
       <c r="I28" s="41"/>
       <c r="J28" s="45"/>
-      <c r="K28" s="41"/>
       <c r="L28" s="45"/>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="D29" s="45"/>
       <c r="E29" s="41"/>
       <c r="F29" s="45"/>
       <c r="G29" s="41"/>
-      <c r="H29" s="45"/>
       <c r="I29" s="41"/>
       <c r="J29" s="45"/>
-      <c r="K29" s="41"/>
       <c r="L29" s="45"/>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="45"/>
       <c r="E30" s="41"/>
       <c r="F30" s="45"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="45"/>
       <c r="I30" s="41"/>
       <c r="J30" s="45"/>
-      <c r="K30" s="41"/>
       <c r="L30" s="45"/>
     </row>
-    <row r="31" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="46"/>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="45"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>379</v>
-      </c>
+      <c r="A32" s="41"/>
+      <c r="B32" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="41"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="49"/>
+      <c r="E32" s="41"/>
       <c r="F32" s="45"/>
       <c r="G32" s="41"/>
-      <c r="H32" s="45"/>
       <c r="I32" s="41"/>
       <c r="J32" s="45"/>
-      <c r="K32" s="41"/>
       <c r="L32" s="45"/>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" s="45" t="s">
-        <v>226</v>
-      </c>
+      <c r="B33" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="41"/>
-      <c r="H33" s="45"/>
       <c r="I33" s="41"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="41"/>
       <c r="L33" s="45"/>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="41" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="45"/>
       <c r="E34" s="41"/>
       <c r="F34" s="45"/>
       <c r="G34" s="41"/>
-      <c r="H34" s="45"/>
       <c r="I34" s="41"/>
       <c r="J34" s="45"/>
-      <c r="K34" s="41"/>
       <c r="L34" s="45"/>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="45"/>
-    </row>
-    <row r="36" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="B36" s="47" t="s">
+    <row r="35" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="39"/>
+      <c r="I35" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" s="44"/>
+    </row>
+    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>315</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="H36" s="48"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="44"/>
+      <c r="D36" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="I36" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="49" t="s">
-        <v>226</v>
+      <c r="B37" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C37" s="41"/>
-      <c r="D37" s="50"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="41"/>
       <c r="F37" s="45"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
+      <c r="G37" s="41"/>
       <c r="I37" s="41"/>
       <c r="J37" s="45"/>
-      <c r="K37" s="41"/>
       <c r="L37" s="45"/>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="45"/>
+    <row r="38" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="46"/>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="41"/>
+      <c r="A39" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="41" t="s">
+        <v>415</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>415</v>
+      </c>
       <c r="L39" s="45"/>
     </row>
-    <row r="40" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H40" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="44"/>
+    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="45"/>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="41" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>158</v>
-      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="41"/>
       <c r="I41" s="41"/>
       <c r="J41" s="45"/>
-      <c r="K41" s="41"/>
       <c r="L41" s="45"/>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7126,32 +7309,98 @@
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="41" t="s">
-        <v>127</v>
-      </c>
+      <c r="E42" s="41"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="G42" s="41"/>
       <c r="I42" s="41"/>
       <c r="J42" s="45"/>
-      <c r="K42" s="41"/>
       <c r="L42" s="45"/>
     </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="46"/>
+    <row r="43" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="44"/>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="L44" s="45"/>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="45"/>
+      <c r="L45" s="45"/>
+    </row>
+    <row r="46" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="46"/>
+      <c r="L46" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Asset list & planning.xlsx
+++ b/Documentation/Asset list & planning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="424">
   <si>
     <t>Probation Area</t>
   </si>
@@ -1285,6 +1285,18 @@
   </si>
   <si>
     <t>Couch</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Dust</t>
+  </si>
+  <si>
+    <t>3D_PART_Fly</t>
+  </si>
+  <si>
+    <t>3D_PART_Dust</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T238"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,8 +2485,8 @@
       <c r="E16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>283</v>
+      <c r="F16" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="2"/>
@@ -3575,8 +3587,8 @@
       <c r="E53" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="38" t="s">
-        <v>283</v>
+      <c r="F53" s="37" t="s">
+        <v>282</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="2"/>
@@ -5985,16 +5997,24 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="B199" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>422</v>
+      </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="24"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
+      <c r="B200" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>423</v>
+      </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="8"/>
@@ -6503,8 +6523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
